--- a/output/xyz_age_eros.xlsx
+++ b/output/xyz_age_eros.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,10 +394,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>E_map</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>E_exp_Z</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>E_inv_exp_Z</t>
         </is>
@@ -420,9 +425,12 @@
         <v>19.44814549592458</v>
       </c>
       <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.71577234424401</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>24.54370929475012</v>
       </c>
     </row>
@@ -443,9 +451,12 @@
         <v>19.42737511200367</v>
       </c>
       <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.527187593999784</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>16.6633524686021</v>
       </c>
     </row>
@@ -466,9 +477,12 @@
         <v>18.25158525384342</v>
       </c>
       <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.513732700682522</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>27.81958638675733</v>
       </c>
     </row>
@@ -489,9 +503,12 @@
         <v>17.57794269205465</v>
       </c>
       <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.205371905865509</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>34.93645191843017</v>
       </c>
     </row>
@@ -515,6 +532,9 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>42.11141763309691</v>
       </c>
     </row>
@@ -535,9 +555,12 @@
         <v>22.10552016041226</v>
       </c>
       <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
         <v>7.38905609893065</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5.699160632870456</v>
       </c>
     </row>
@@ -558,9 +581,12 @@
         <v>19.94098590451998</v>
       </c>
       <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
         <v>3.276540548249262</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>12.85240240826505</v>
       </c>
     </row>
@@ -581,9 +607,12 @@
         <v>17.91726158854982</v>
       </c>
       <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.475904843525316</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>17.00849600226824</v>
       </c>
     </row>
@@ -604,9 +633,12 @@
         <v>16.4031851167013</v>
       </c>
       <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.53806313144631</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>27.37951178473256</v>
       </c>
     </row>
@@ -627,9 +659,12 @@
         <v>15.8761488006341</v>
       </c>
       <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.276007117771601</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>33.00249430163026</v>
       </c>
     </row>
@@ -650,9 +685,12 @@
         <v>16.3905221979472</v>
       </c>
       <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.136056031253367</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>37.06808156868549</v>
       </c>
     </row>
@@ -673,9 +711,12 @@
         <v>14.624167806468</v>
       </c>
       <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.763319615489954</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>23.88189711222369</v>
       </c>
     </row>
@@ -696,9 +737,12 @@
         <v>12.41957142851253</v>
       </c>
       <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.598791916034733</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>26.33952374336501</v>
       </c>
     </row>
@@ -719,9 +763,12 @@
         <v>10.95027980424291</v>
       </c>
       <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.650600155135878</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>25.51279151529602</v>
       </c>
     </row>
@@ -742,9 +789,12 @@
         <v>21.55571220228536</v>
       </c>
       <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
         <v>11.05838613157211</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>3.808097956795633</v>
       </c>
     </row>
@@ -765,9 +815,12 @@
         <v>18.79606229671177</v>
       </c>
       <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.326212651421302</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>9.734014720534354</v>
       </c>
     </row>
@@ -788,9 +841,12 @@
         <v>16.04933185726385</v>
       </c>
       <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.338847564732744</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>18.00519976936116</v>
       </c>
     </row>
@@ -811,9 +867,12 @@
         <v>13.66571114707362</v>
       </c>
       <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.858165995243492</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>22.66289327266409</v>
       </c>
     </row>
@@ -834,9 +893,12 @@
         <v>12.30121737342334</v>
       </c>
       <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.338529674884737</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>31.46095183636717</v>
       </c>
     </row>
@@ -857,9 +919,12 @@
         <v>12.55771968397517</v>
       </c>
       <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.183605064314989</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>35.57894343538389</v>
       </c>
     </row>
@@ -880,9 +945,12 @@
         <v>11.59767603496123</v>
       </c>
       <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.213637280943926</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>34.6985201380301</v>
       </c>
     </row>
@@ -903,9 +971,12 @@
         <v>9.994557213448665</v>
       </c>
       <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.50000279342122</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>28.07422613997191</v>
       </c>
     </row>
@@ -926,9 +997,12 @@
         <v>8.8474161306303</v>
       </c>
       <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.631907262573603</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>25.80503108165902</v>
       </c>
     </row>
@@ -949,9 +1023,12 @@
         <v>8.505378346574808</v>
       </c>
       <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.270603279516831</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>18.54635638598123</v>
       </c>
     </row>
@@ -972,9 +1049,12 @@
         <v>9.194695305776342</v>
       </c>
       <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.021565957079946</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>20.8310876455027</v>
       </c>
     </row>
@@ -995,9 +1075,12 @@
         <v>24.13843773696987</v>
       </c>
       <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
         <v>17.40037969153265</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>2.42014360488864</v>
       </c>
     </row>
@@ -1018,9 +1101,12 @@
         <v>21.15022437317182</v>
       </c>
       <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
         <v>9.070354874271228</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>4.642753036328187</v>
       </c>
     </row>
@@ -1041,9 +1127,12 @@
         <v>17.69736439597586</v>
       </c>
       <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
         <v>4.238423330031359</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>9.935632746902924</v>
       </c>
     </row>
@@ -1064,9 +1153,12 @@
         <v>14.18733893389331</v>
       </c>
       <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.755688790255169</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>15.28163041560201</v>
       </c>
     </row>
@@ -1087,9 +1179,12 @@
         <v>10.69072522154512</v>
       </c>
       <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.743350185569119</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>24.15545538795442</v>
       </c>
     </row>
@@ -1110,9 +1205,12 @@
         <v>7.291418967993124</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.385055649403185</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>30.40413405139538</v>
       </c>
     </row>
@@ -1133,9 +1231,12 @@
         <v>7.020650996724029</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.545086238592975</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>27.25505967320339</v>
       </c>
     </row>
@@ -1156,9 +1257,12 @@
         <v>7.802485445938721</v>
       </c>
       <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.335484102423399</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>31.53269855978113</v>
       </c>
     </row>
@@ -1179,9 +1283,12 @@
         <v>7.421020149846687</v>
       </c>
       <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.385055649403185</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>30.40413405139538</v>
       </c>
     </row>
@@ -1202,9 +1309,12 @@
         <v>6.675092241598335</v>
       </c>
       <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
         <v>1.503423550876351</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>28.01034851991644</v>
       </c>
     </row>
@@ -1225,9 +1335,12 @@
         <v>6.582101307937918</v>
       </c>
       <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
         <v>2.072860184000009</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>20.31560930068823</v>
       </c>
     </row>
@@ -1248,9 +1361,12 @@
         <v>8.175952479585597</v>
       </c>
       <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
         <v>2.699769197680611</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>15.59815471236397</v>
       </c>
     </row>
@@ -1271,9 +1387,12 @@
         <v>10.96771296044583</v>
       </c>
       <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
         <v>2.812766630296358</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>14.97152916260955</v>
       </c>
     </row>
@@ -1294,9 +1413,12 @@
         <v>13.60412706113798</v>
       </c>
       <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
         <v>4.486796407757537</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>9.385631485370613</v>
       </c>
     </row>
@@ -1317,9 +1439,12 @@
         <v>15.28603010453255</v>
       </c>
       <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
         <v>3.56466690612579</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>11.81356315809746</v>
       </c>
     </row>
@@ -1340,9 +1465,12 @@
         <v>20.69491044048138</v>
       </c>
       <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="n">
         <v>7.857774445006733</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>5.359204177699049</v>
       </c>
     </row>
@@ -1363,9 +1491,12 @@
         <v>16.67367378043709</v>
       </c>
       <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="n">
         <v>3.994689409680294</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>10.5418502702735</v>
       </c>
     </row>
@@ -1386,9 +1517,12 @@
         <v>12.81644328551365</v>
       </c>
       <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.749418738833005</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>15.31648018481578</v>
       </c>
     </row>
@@ -1409,9 +1543,12 @@
         <v>9.097262961972582</v>
       </c>
       <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
         <v>1.88373668613625</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>22.35525694383116</v>
       </c>
     </row>
@@ -1432,9 +1569,12 @@
         <v>5.649583491377424</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.510288486696439</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>27.88302897363019</v>
       </c>
     </row>
@@ -1455,9 +1595,12 @@
         <v>5.133228375596552</v>
       </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>2.159618666600905</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>19.49946918146316</v>
       </c>
     </row>
@@ -1478,9 +1621,12 @@
         <v>6.075271503049112</v>
       </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>1.755304540160127</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>23.99094668168255</v>
       </c>
     </row>
@@ -1501,9 +1647,12 @@
         <v>6.125135081063</v>
       </c>
       <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
         <v>1.433198821018947</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>29.38281626770903</v>
       </c>
     </row>
@@ -1524,9 +1673,12 @@
         <v>5.377752904058379</v>
       </c>
       <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.658137129079801</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>25.39682448125809</v>
       </c>
     </row>
@@ -1547,9 +1699,12 @@
         <v>4.708031331374997</v>
       </c>
       <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
         <v>1.892338208604575</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>22.25364231489581</v>
       </c>
     </row>
@@ -1570,9 +1725,12 @@
         <v>7.636796552959012</v>
       </c>
       <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
         <v>2.164543678531826</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>19.45510180772161</v>
       </c>
     </row>
@@ -1593,9 +1751,12 @@
         <v>12.52545734618108</v>
       </c>
       <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
         <v>2.464650750021215</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>17.08616023293946</v>
       </c>
     </row>
@@ -1616,9 +1777,12 @@
         <v>16.44334941989044</v>
       </c>
       <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
         <v>3.382715588569269</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>12.44899741952828</v>
       </c>
     </row>
@@ -1639,9 +1803,12 @@
         <v>18.79155910963738</v>
       </c>
       <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
         <v>4.914819975131787</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>8.568252315684813</v>
       </c>
     </row>
@@ -1662,9 +1829,12 @@
         <v>19.33787702659292</v>
       </c>
       <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
         <v>5.830471954825193</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>7.222643031195142</v>
       </c>
     </row>
@@ -1685,9 +1855,12 @@
         <v>17.90233860765787</v>
       </c>
       <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
         <v>6.900976133077612</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>6.102240729575828</v>
       </c>
     </row>
@@ -1708,9 +1881,12 @@
         <v>19.49239248924531</v>
       </c>
       <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
         <v>9.132551350533355</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>4.611133955533417</v>
       </c>
     </row>
@@ -1731,9 +1907,12 @@
         <v>15.53049095553061</v>
       </c>
       <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="n">
         <v>4.209557902844931</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>10.00376253397937</v>
       </c>
     </row>
@@ -1754,9 +1933,12 @@
         <v>11.90433764759585</v>
       </c>
       <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="n">
         <v>2.793610518686659</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>15.07419067597672</v>
       </c>
     </row>
@@ -1777,9 +1959,12 @@
         <v>8.922388874810878</v>
       </c>
       <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="n">
         <v>2.035428069511566</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>20.68921926737614</v>
       </c>
     </row>
@@ -1800,9 +1985,12 @@
         <v>7.01757063787479</v>
       </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>1.692481677039882</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>24.88146146831497</v>
       </c>
     </row>
@@ -1823,9 +2011,12 @@
         <v>6.504981448738963</v>
       </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>1.704087220363075</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>24.71200835842464</v>
       </c>
     </row>
@@ -1846,9 +2037,12 @@
         <v>6.785937840478056</v>
       </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>1.971541038015586</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>21.35964548599165</v>
       </c>
     </row>
@@ -1869,9 +2063,12 @@
         <v>6.998733141509192</v>
       </c>
       <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>1.980543492902473</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>21.26255635587326</v>
       </c>
     </row>
@@ -1892,9 +2089,12 @@
         <v>6.672968561304103</v>
       </c>
       <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
         <v>1.64684452500568</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>25.57097345479633</v>
       </c>
     </row>
@@ -1915,9 +2115,12 @@
         <v>5.815647967554202</v>
       </c>
       <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
         <v>1.866650756768601</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>22.5598802991926</v>
       </c>
     </row>
@@ -1938,9 +2141,12 @@
         <v>10.14661884912806</v>
       </c>
       <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
         <v>2.149802235056419</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>19.58850769917064</v>
       </c>
     </row>
@@ -1961,9 +2167,12 @@
         <v>16.44103904919074</v>
       </c>
       <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
         <v>2.61503014826508</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>16.10360693586473</v>
       </c>
     </row>
@@ -1984,9 +2193,12 @@
         <v>21.08616442699801</v>
       </c>
       <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
         <v>2.991192034732157</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>14.07847344607807</v>
       </c>
     </row>
@@ -2007,9 +2219,12 @@
         <v>23.80449943392495</v>
       </c>
       <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
         <v>3.646798496007988</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>11.54750329067939</v>
       </c>
     </row>
@@ -2030,9 +2245,12 @@
         <v>24.49337602795674</v>
       </c>
       <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
         <v>4.815086387087103</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>8.74572421920187</v>
       </c>
     </row>
@@ -2053,9 +2271,12 @@
         <v>22.73808948321865</v>
       </c>
       <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
         <v>7.33873355108866</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>5.738240438890156</v>
       </c>
     </row>
@@ -2076,9 +2297,12 @@
         <v>17.97032751749764</v>
       </c>
       <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
         <v>12.08575316908585</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>3.484385047744787</v>
       </c>
     </row>
@@ -2099,9 +2323,12 @@
         <v>10.97987202189546</v>
       </c>
       <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
         <v>15.92123509167183</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>2.644984348929361</v>
       </c>
     </row>
@@ -2122,9 +2349,12 @@
         <v>4.512007942290957</v>
       </c>
       <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="n">
         <v>25.10920781651108</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>1.677130475036559</v>
       </c>
     </row>
@@ -2145,9 +2375,12 @@
         <v>2.012861414000298</v>
       </c>
       <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
         <v>31.60460890164972</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>1.332445459589242</v>
       </c>
     </row>
@@ -2168,9 +2401,12 @@
         <v>1.904036269713067</v>
       </c>
       <c r="F78" t="n">
+        <v>100</v>
+      </c>
+      <c r="G78" t="n">
         <v>17.28187586265758</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>2.436738810518286</v>
       </c>
     </row>
@@ -2191,9 +2427,12 @@
         <v>14.1763351992318</v>
       </c>
       <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="n">
         <v>5.532867134488765</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>7.61113842235577</v>
       </c>
     </row>
@@ -2214,9 +2453,12 @@
         <v>10.97126686657625</v>
       </c>
       <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="n">
         <v>3.067089080017121</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>13.73009277997946</v>
       </c>
     </row>
@@ -2237,9 +2479,12 @@
         <v>8.755218740226773</v>
       </c>
       <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="n">
         <v>2.275781391937766</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>18.50415764109934</v>
       </c>
     </row>
@@ -2260,9 +2505,12 @@
         <v>8.22459639425445</v>
       </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>1.858165995243492</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>22.66289327266409</v>
       </c>
     </row>
@@ -2283,9 +2531,12 @@
         <v>8.422217270074508</v>
       </c>
       <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>2.05874314328703</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>20.45491579190447</v>
       </c>
     </row>
@@ -2306,9 +2557,12 @@
         <v>8.777114273167584</v>
       </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>2.730694052733707</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>15.42150706738421</v>
       </c>
     </row>
@@ -2329,9 +2583,12 @@
         <v>9.773076693857931</v>
       </c>
       <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>3.508277880485534</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>12.00344415912368</v>
       </c>
     </row>
@@ -2352,9 +2609,12 @@
         <v>11.00558208442262</v>
       </c>
       <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>2.436738810518287</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>17.28187586265757</v>
       </c>
     </row>
@@ -2375,9 +2635,12 @@
         <v>13.02950802563445</v>
       </c>
       <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
         <v>1.940353473771524</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>21.7029619614841</v>
       </c>
     </row>
@@ -2398,9 +2661,12 @@
         <v>17.36078575479908</v>
       </c>
       <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
         <v>2.21441577552405</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>19.01694257174043</v>
       </c>
     </row>
@@ -2421,9 +2687,12 @@
         <v>22.93971051046045</v>
       </c>
       <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
         <v>2.579532550278769</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>16.32521273226265</v>
       </c>
     </row>
@@ -2444,9 +2713,12 @@
         <v>27.39580915602916</v>
       </c>
       <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
         <v>3.195460494856385</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>13.17851298768428</v>
       </c>
     </row>
@@ -2467,9 +2739,12 @@
         <v>29.90419185177807</v>
       </c>
       <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
         <v>4.003799301767846</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>10.51786427319245</v>
       </c>
     </row>
@@ -2490,9 +2765,12 @@
         <v>30.68864594160431</v>
       </c>
       <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
         <v>4.621649649853573</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>9.111771948016681</v>
       </c>
     </row>
@@ -2513,9 +2791,12 @@
         <v>29.32793229773935</v>
       </c>
       <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="n">
         <v>5.120527203525829</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>8.224039431740612</v>
       </c>
     </row>
@@ -2536,9 +2817,12 @@
         <v>23.16395330621176</v>
       </c>
       <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="n">
         <v>7.157131980958146</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>5.883839748258957</v>
       </c>
     </row>
@@ -2559,9 +2843,12 @@
         <v>13.10008568673119</v>
       </c>
       <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
         <v>9.756213148143731</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>4.316369168411337</v>
       </c>
     </row>
@@ -2582,9 +2869,12 @@
         <v>2.192695962383084</v>
       </c>
       <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="n">
         <v>15.95754347981189</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>2.638966184636918</v>
       </c>
     </row>
@@ -2605,9 +2895,12 @@
         <v>1.436530755349501</v>
       </c>
       <c r="F97" t="n">
+        <v>100</v>
+      </c>
+      <c r="G97" t="n">
         <v>30.47347070108647</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>1.381904215839632</v>
       </c>
     </row>
@@ -2628,9 +2921,12 @@
         <v>1.960170768556473</v>
       </c>
       <c r="F98" t="n">
+        <v>100</v>
+      </c>
+      <c r="G98" t="n">
         <v>14.01448049539119</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>3.00485042217196</v>
       </c>
     </row>
@@ -2651,9 +2947,12 @@
         <v>12.7929463620569</v>
       </c>
       <c r="F99" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" t="n">
         <v>5.52027813620713</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>7.628495629031982</v>
       </c>
     </row>
@@ -2674,9 +2973,12 @@
         <v>9.753047116847963</v>
       </c>
       <c r="F100" t="n">
+        <v>10</v>
+      </c>
+      <c r="G100" t="n">
         <v>3.390429873915228</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>12.42067206789537</v>
       </c>
     </row>
@@ -2697,9 +2999,12 @@
         <v>7.655024687559967</v>
       </c>
       <c r="F101" t="n">
+        <v>10</v>
+      </c>
+      <c r="G101" t="n">
         <v>2.90391325460475</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>14.50161004855108</v>
       </c>
     </row>
@@ -2720,9 +3025,12 @@
         <v>7.509367148038177</v>
       </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>2.189337723731022</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>19.23477459719259</v>
       </c>
     </row>
@@ -2743,9 +3051,12 @@
         <v>8.939150100287534</v>
       </c>
       <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>2.464650750021215</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>17.08616023293946</v>
       </c>
     </row>
@@ -2766,9 +3077,12 @@
         <v>10.86397895833826</v>
       </c>
       <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
         <v>3.224709357887811</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>13.05898081329102</v>
       </c>
     </row>
@@ -2789,9 +3103,12 @@
         <v>13.4046951585318</v>
       </c>
       <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>3.344406650532939</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>12.59159606873355</v>
       </c>
     </row>
@@ -2812,9 +3129,12 @@
         <v>16.31826787753617</v>
       </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>2.250008380271464</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>18.71611590531772</v>
       </c>
     </row>
@@ -2835,9 +3155,12 @@
         <v>19.97724970423302</v>
       </c>
       <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
         <v>2.130303029348465</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>19.76780629466425</v>
       </c>
     </row>
@@ -2858,9 +3181,12 @@
         <v>24.91812758738087</v>
       </c>
       <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
         <v>2.36563819631443</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>17.80129256397061</v>
       </c>
     </row>
@@ -2881,9 +3207,12 @@
         <v>30.52522839508805</v>
       </c>
       <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
         <v>2.984386139981755</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>14.11057941495277</v>
       </c>
     </row>
@@ -2904,9 +3233,12 @@
         <v>34.53071896447337</v>
       </c>
       <c r="F110" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" t="n">
         <v>3.398161751694496</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>12.39241116527135</v>
       </c>
     </row>
@@ -2927,9 +3259,12 @@
         <v>35.84717448716342</v>
       </c>
       <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
         <v>4.022081458667099</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>10.47005588172559</v>
       </c>
     </row>
@@ -2950,9 +3285,12 @@
         <v>36.00825769121968</v>
       </c>
       <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
         <v>6.074503319580139</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>6.932487384994562</v>
       </c>
     </row>
@@ -2973,9 +3311,12 @@
         <v>35.99102534042315</v>
       </c>
       <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="n">
         <v>8.020530411659378</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>5.250452959056161</v>
       </c>
     </row>
@@ -2996,9 +3337,12 @@
         <v>28.66408455332091</v>
       </c>
       <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="n">
         <v>7.38905609893065</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>5.699160632870456</v>
       </c>
     </row>
@@ -3019,9 +3363,12 @@
         <v>17.06133534216584</v>
       </c>
       <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="n">
         <v>9.008581981902688</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>4.674588932830317</v>
       </c>
     </row>
@@ -3042,9 +3389,12 @@
         <v>7.683849957718948</v>
       </c>
       <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
         <v>15.24685994048192</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>2.761973140534133</v>
       </c>
     </row>
@@ -3065,9 +3415,12 @@
         <v>3.959362848831567</v>
       </c>
       <c r="F117" t="n">
+        <v>100</v>
+      </c>
+      <c r="G117" t="n">
         <v>29.71938553256001</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>1.416967978256496</v>
       </c>
     </row>
@@ -3088,9 +3441,12 @@
         <v>3.417494179306651</v>
       </c>
       <c r="F118" t="n">
+        <v>100</v>
+      </c>
+      <c r="G118" t="n">
         <v>20.45491579190448</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>2.058743143287029</v>
       </c>
     </row>
@@ -3111,9 +3467,12 @@
         <v>5.999892176066218</v>
       </c>
       <c r="F119" t="n">
+        <v>10</v>
+      </c>
+      <c r="G119" t="n">
         <v>4.209557902844931</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>10.00376253397937</v>
       </c>
     </row>
@@ -3134,9 +3493,12 @@
         <v>4.86002637255668</v>
       </c>
       <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
         <v>2.651016237649828</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
         <v>15.88500931643837</v>
       </c>
     </row>
@@ -3157,9 +3519,12 @@
         <v>8.505739795459482</v>
       </c>
       <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
         <v>3.730822436068817</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>11.28743550643752</v>
       </c>
     </row>
@@ -3180,9 +3545,12 @@
         <v>12.94471001665543</v>
       </c>
       <c r="F122" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" t="n">
         <v>4.590174291905306</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>9.17425242596118</v>
       </c>
     </row>
@@ -3203,9 +3571,12 @@
         <v>17.2431032100854</v>
       </c>
       <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="n">
         <v>3.067089080017121</v>
       </c>
-      <c r="G123" t="n">
+      <c r="H123" t="n">
         <v>13.73009277997946</v>
       </c>
     </row>
@@ -3226,9 +3597,12 @@
         <v>21.36482490156886</v>
       </c>
       <c r="F124" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" t="n">
         <v>2.626970904497728</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
         <v>16.03040884883669</v>
       </c>
     </row>
@@ -3249,9 +3623,12 @@
         <v>25.67525631530482</v>
       </c>
       <c r="F125" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" t="n">
         <v>2.78725418350556</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>15.10856737871424</v>
       </c>
     </row>
@@ -3272,9 +3649,12 @@
         <v>30.88140662293259</v>
       </c>
       <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="n">
         <v>3.173698078726824</v>
       </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
         <v>13.26887958100618</v>
       </c>
     </row>
@@ -3295,9 +3675,12 @@
         <v>37.2461832256778</v>
       </c>
       <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="n">
         <v>2.991192034732157</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
         <v>14.07847344607807</v>
       </c>
     </row>
@@ -3318,9 +3701,12 @@
         <v>41.34277113170809</v>
       </c>
       <c r="F128" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" t="n">
         <v>4.257776827668183</v>
       </c>
-      <c r="G128" t="n">
+      <c r="H128" t="n">
         <v>9.89047085780672</v>
       </c>
     </row>
@@ -3341,9 +3727,12 @@
         <v>39.7802013399217</v>
       </c>
       <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="n">
         <v>4.685249336272087</v>
       </c>
-      <c r="G129" t="n">
+      <c r="H129" t="n">
         <v>8.988084648362323</v>
       </c>
     </row>
@@ -3364,9 +3753,12 @@
         <v>37.99112343390719</v>
       </c>
       <c r="F130" t="n">
+        <v>2</v>
+      </c>
+      <c r="G130" t="n">
         <v>5.132204569516401</v>
       </c>
-      <c r="G130" t="n">
+      <c r="H130" t="n">
         <v>8.205327177179338</v>
       </c>
     </row>
@@ -3387,9 +3779,12 @@
         <v>35.34115437313403</v>
       </c>
       <c r="F131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" t="n">
         <v>6.59363495933794</v>
       </c>
-      <c r="G131" t="n">
+      <c r="H131" t="n">
         <v>6.386677135266413</v>
       </c>
     </row>
@@ -3410,9 +3805,12 @@
         <v>28.93210910164752</v>
       </c>
       <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="n">
         <v>10.51786427319245</v>
       </c>
-      <c r="G132" t="n">
+      <c r="H132" t="n">
         <v>4.003799301767844</v>
       </c>
     </row>
@@ -3433,9 +3831,12 @@
         <v>19.87785786813677</v>
       </c>
       <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="n">
         <v>15.03989219095908</v>
       </c>
-      <c r="G133" t="n">
+      <c r="H133" t="n">
         <v>2.799981349494734</v>
       </c>
     </row>
@@ -3456,9 +3857,12 @@
         <v>12.04145820799784</v>
       </c>
       <c r="F134" t="n">
+        <v>2</v>
+      </c>
+      <c r="G134" t="n">
         <v>21.8517816909397</v>
       </c>
-      <c r="G134" t="n">
+      <c r="H134" t="n">
         <v>1.927138858913155</v>
       </c>
     </row>
@@ -3479,9 +3883,12 @@
         <v>7.470996160813598</v>
       </c>
       <c r="F135" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" t="n">
         <v>30.47347070108647</v>
       </c>
-      <c r="G135" t="n">
+      <c r="H135" t="n">
         <v>1.381904215839632</v>
       </c>
     </row>
@@ -3502,9 +3909,12 @@
         <v>5.536354146749171</v>
       </c>
       <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="n">
         <v>4.277218697287138</v>
       </c>
-      <c r="G136" t="n">
+      <c r="H136" t="n">
         <v>9.845514249670336</v>
       </c>
     </row>
@@ -3525,9 +3935,12 @@
         <v>5.478989216472653</v>
       </c>
       <c r="F137" t="n">
+        <v>100</v>
+      </c>
+      <c r="G137" t="n">
         <v>3.359677887303711</v>
       </c>
-      <c r="G137" t="n">
+      <c r="H137" t="n">
         <v>12.53436163991696</v>
       </c>
     </row>
@@ -3548,9 +3961,12 @@
         <v>9.988757167458838</v>
       </c>
       <c r="F138" t="n">
+        <v>100</v>
+      </c>
+      <c r="G138" t="n">
         <v>4.497028550210074</v>
       </c>
-      <c r="G138" t="n">
+      <c r="H138" t="n">
         <v>9.364276246618385</v>
       </c>
     </row>
@@ -3571,9 +3987,12 @@
         <v>15.69188865078733</v>
       </c>
       <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="n">
         <v>5.951236950777927</v>
       </c>
-      <c r="G139" t="n">
+      <c r="H139" t="n">
         <v>7.076078129873864</v>
       </c>
     </row>
@@ -3594,9 +4013,12 @@
         <v>21.23980669633495</v>
       </c>
       <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="n">
         <v>5.085654281771596</v>
       </c>
-      <c r="G140" t="n">
+      <c r="H140" t="n">
         <v>8.280432624772779</v>
       </c>
     </row>
@@ -3617,9 +4039,12 @@
         <v>25.82497502898106</v>
       </c>
       <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
         <v>3.246821564279982</v>
       </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
         <v>12.97004371795084</v>
       </c>
     </row>
@@ -3640,9 +4065,12 @@
         <v>29.54642238996812</v>
       </c>
       <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="n">
         <v>3.137756244463604</v>
       </c>
-      <c r="G142" t="n">
+      <c r="H142" t="n">
         <v>13.42086967634919</v>
       </c>
     </row>
@@ -3663,9 +4091,12 @@
         <v>33.68431052975822</v>
       </c>
       <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="n">
         <v>3.931497911153397</v>
       </c>
-      <c r="G143" t="n">
+      <c r="H143" t="n">
         <v>10.7112908577745</v>
       </c>
     </row>
@@ -3686,9 +4117,12 @@
         <v>38.66403780272375</v>
       </c>
       <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="n">
         <v>3.67180501661647</v>
       </c>
-      <c r="G144" t="n">
+      <c r="H144" t="n">
         <v>11.46885998644398</v>
       </c>
     </row>
@@ -3709,9 +4143,12 @@
         <v>41.58878612735796</v>
       </c>
       <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
         <v>4.296749342412553</v>
       </c>
-      <c r="G145" t="n">
+      <c r="H145" t="n">
         <v>9.800761989400121</v>
       </c>
     </row>
@@ -3732,9 +4169,12 @@
         <v>39.88266018812234</v>
       </c>
       <c r="F146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" t="n">
         <v>7.173453825616434</v>
       </c>
-      <c r="G146" t="n">
+      <c r="H146" t="n">
         <v>5.870452177822188</v>
       </c>
     </row>
@@ -3755,9 +4195,12 @@
         <v>36.99725195125912</v>
       </c>
       <c r="F147" t="n">
+        <v>2</v>
+      </c>
+      <c r="G147" t="n">
         <v>5.897257849059788</v>
       </c>
-      <c r="G147" t="n">
+      <c r="H147" t="n">
         <v>7.140847273586793</v>
       </c>
     </row>
@@ -3778,9 +4221,12 @@
         <v>33.18844069140914</v>
       </c>
       <c r="F148" t="n">
+        <v>2</v>
+      </c>
+      <c r="G148" t="n">
         <v>6.59363495933794</v>
       </c>
-      <c r="G148" t="n">
+      <c r="H148" t="n">
         <v>6.386677135266413</v>
       </c>
     </row>
@@ -3801,9 +4247,12 @@
         <v>27.67774145171791</v>
       </c>
       <c r="F149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" t="n">
         <v>11.26175307041645</v>
       </c>
-      <c r="G149" t="n">
+      <c r="H149" t="n">
         <v>3.739330579332233</v>
       </c>
     </row>
@@ -3824,9 +4273,12 @@
         <v>20.92229287090854</v>
       </c>
       <c r="F150" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" t="n">
         <v>21.16590853922112</v>
       </c>
-      <c r="G150" t="n">
+      <c r="H150" t="n">
         <v>1.989587054818038</v>
       </c>
     </row>
@@ -3847,9 +4299,12 @@
         <v>14.47350128602201</v>
       </c>
       <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="n">
         <v>40.41967327539025</v>
       </c>
-      <c r="G151" t="n">
+      <c r="H151" t="n">
         <v>1.041854478787603</v>
       </c>
     </row>
@@ -3870,9 +4325,12 @@
         <v>10.1120504007794</v>
       </c>
       <c r="F152" t="n">
+        <v>100</v>
+      </c>
+      <c r="G152" t="n">
         <v>39.06191939043615</v>
       </c>
-      <c r="G152" t="n">
+      <c r="H152" t="n">
         <v>1.078068315388706</v>
       </c>
     </row>
@@ -3893,9 +4351,12 @@
         <v>13.0168030986855</v>
       </c>
       <c r="F153" t="n">
+        <v>100</v>
+      </c>
+      <c r="G153" t="n">
         <v>6.684371632937881</v>
       </c>
-      <c r="G153" t="n">
+      <c r="H153" t="n">
         <v>6.299981500966952</v>
       </c>
     </row>
@@ -3916,9 +4377,12 @@
         <v>29.67311080212772</v>
       </c>
       <c r="F154" t="n">
+        <v>100</v>
+      </c>
+      <c r="G154" t="n">
         <v>4.199979845769421</v>
       </c>
-      <c r="G154" t="n">
+      <c r="H154" t="n">
         <v>10.02657612167238</v>
       </c>
     </row>
@@ -3939,9 +4403,12 @@
         <v>31.2677769974876</v>
       </c>
       <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="n">
         <v>4.84810399337989</v>
       </c>
-      <c r="G155" t="n">
+      <c r="H155" t="n">
         <v>8.686162196726857</v>
       </c>
     </row>
@@ -3962,9 +4429,12 @@
         <v>33.20055188917861</v>
       </c>
       <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
         <v>5.3836753872296</v>
       </c>
-      <c r="G156" t="n">
+      <c r="H156" t="n">
         <v>7.822057350074953</v>
       </c>
     </row>
@@ -3985,9 +4455,12 @@
         <v>35.63312131396236</v>
       </c>
       <c r="F157" t="n">
+        <v>2</v>
+      </c>
+      <c r="G157" t="n">
         <v>5.764442404603849</v>
       </c>
-      <c r="G157" t="n">
+      <c r="H157" t="n">
         <v>7.305375728876059</v>
       </c>
     </row>
@@ -4008,9 +4481,12 @@
         <v>37.87267135145505</v>
       </c>
       <c r="F158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" t="n">
         <v>4.05889659372358</v>
       </c>
-      <c r="G158" t="n">
+      <c r="H158" t="n">
         <v>10.37509004250449</v>
       </c>
     </row>
@@ -4031,9 +4507,12 @@
         <v>36.87946759049073</v>
       </c>
       <c r="F159" t="n">
+        <v>2</v>
+      </c>
+      <c r="G159" t="n">
         <v>6.91671381413957</v>
       </c>
-      <c r="G159" t="n">
+      <c r="H159" t="n">
         <v>6.088356228793241</v>
       </c>
     </row>
@@ -4054,9 +4533,12 @@
         <v>34.11127007117564</v>
       </c>
       <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
         <v>8.205327177179342</v>
       </c>
-      <c r="G160" t="n">
+      <c r="H160" t="n">
         <v>5.132204569516397</v>
       </c>
     </row>
@@ -4077,9 +4559,12 @@
         <v>30.65014036216303</v>
       </c>
       <c r="F161" t="n">
+        <v>2</v>
+      </c>
+      <c r="G161" t="n">
         <v>8.186657498833034</v>
       </c>
-      <c r="G161" t="n">
+      <c r="H161" t="n">
         <v>5.143908565748557</v>
       </c>
     </row>
@@ -4100,9 +4585,12 @@
         <v>26.24997810749442</v>
       </c>
       <c r="F162" t="n">
+        <v>2</v>
+      </c>
+      <c r="G162" t="n">
         <v>11.52122911934112</v>
       </c>
-      <c r="G162" t="n">
+      <c r="H162" t="n">
         <v>3.65511502261533</v>
       </c>
     </row>
@@ -4123,9 +4611,12 @@
         <v>21.20356438526349</v>
       </c>
       <c r="F163" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" t="n">
         <v>20.13134200466594</v>
       </c>
-      <c r="G163" t="n">
+      <c r="H163" t="n">
         <v>2.091833600727489</v>
       </c>
     </row>
@@ -4146,9 +4637,12 @@
         <v>16.35320221663123</v>
       </c>
       <c r="F164" t="n">
+        <v>100</v>
+      </c>
+      <c r="G164" t="n">
         <v>42.11141763309691</v>
       </c>
-      <c r="G164" t="n">
+      <c r="H164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,9 +4663,12 @@
         <v>12.70606592010315</v>
       </c>
       <c r="F165" t="n">
+        <v>100</v>
+      </c>
+      <c r="G165" t="n">
         <v>42.0156010245766</v>
       </c>
-      <c r="G165" t="n">
+      <c r="H165" t="n">
         <v>1.002280500723154</v>
       </c>
     </row>
@@ -4192,9 +4689,12 @@
         <v>30.51006534913649</v>
       </c>
       <c r="F166" t="n">
+        <v>100</v>
+      </c>
+      <c r="G166" t="n">
         <v>7.839895557518359</v>
       </c>
-      <c r="G166" t="n">
+      <c r="H166" t="n">
         <v>5.371425846701823</v>
       </c>
     </row>
@@ -4215,9 +4715,12 @@
         <v>30.52040004004413</v>
       </c>
       <c r="F167" t="n">
+        <v>100</v>
+      </c>
+      <c r="G167" t="n">
         <v>9.19517431525299</v>
       </c>
-      <c r="G167" t="n">
+      <c r="H167" t="n">
         <v>4.579730213840789</v>
       </c>
     </row>
@@ -4238,9 +4741,12 @@
         <v>30.12492803930272</v>
       </c>
       <c r="F168" t="n">
+        <v>100</v>
+      </c>
+      <c r="G168" t="n">
         <v>7.059977845292225</v>
       </c>
-      <c r="G168" t="n">
+      <c r="H168" t="n">
         <v>5.964808750947836</v>
       </c>
     </row>
@@ -4261,9 +4767,12 @@
         <v>30.53252949293379</v>
       </c>
       <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="n">
         <v>5.408258337249224</v>
       </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>7.786502605294522</v>
       </c>
     </row>
@@ -4284,9 +4793,12 @@
         <v>31.23207946028282</v>
       </c>
       <c r="F170" t="n">
+        <v>2</v>
+      </c>
+      <c r="G170" t="n">
         <v>6.401241957091944</v>
       </c>
-      <c r="G170" t="n">
+      <c r="H170" t="n">
         <v>6.578632383430159</v>
       </c>
     </row>
@@ -4307,9 +4819,12 @@
         <v>30.07873966791313</v>
       </c>
       <c r="F171" t="n">
+        <v>2</v>
+      </c>
+      <c r="G171" t="n">
         <v>9.958290964567235</v>
       </c>
-      <c r="G171" t="n">
+      <c r="H171" t="n">
         <v>4.228779595106657</v>
       </c>
     </row>
@@ -4330,9 +4845,12 @@
         <v>27.85709166959406</v>
       </c>
       <c r="F172" t="n">
+        <v>2</v>
+      </c>
+      <c r="G172" t="n">
         <v>13.82424161996467</v>
       </c>
-      <c r="G172" t="n">
+      <c r="H172" t="n">
         <v>3.04620092665919</v>
       </c>
     </row>
@@ -4353,9 +4871,12 @@
         <v>24.73635655574751</v>
       </c>
       <c r="F173" t="n">
+        <v>2</v>
+      </c>
+      <c r="G173" t="n">
         <v>15.10856737871425</v>
       </c>
-      <c r="G173" t="n">
+      <c r="H173" t="n">
         <v>2.787254183505558</v>
       </c>
     </row>
@@ -4376,9 +4897,12 @@
         <v>21.10404174670357</v>
       </c>
       <c r="F174" t="n">
+        <v>100</v>
+      </c>
+      <c r="G174" t="n">
         <v>27.25505967320341</v>
       </c>
-      <c r="G174" t="n">
+      <c r="H174" t="n">
         <v>1.545086238592974</v>
       </c>
     </row>
@@ -4399,9 +4923,12 @@
         <v>17.53844973352166</v>
       </c>
       <c r="F175" t="n">
+        <v>100</v>
+      </c>
+      <c r="G175" t="n">
         <v>25.28138456919253</v>
       </c>
-      <c r="G175" t="n">
+      <c r="H175" t="n">
         <v>1.6657085183702</v>
       </c>
     </row>
@@ -4422,9 +4949,12 @@
         <v>25.58016166012715</v>
       </c>
       <c r="F176" t="n">
+        <v>100</v>
+      </c>
+      <c r="G176" t="n">
         <v>7.965907260886808</v>
       </c>
-      <c r="G176" t="n">
+      <c r="H176" t="n">
         <v>5.286455924470408</v>
       </c>
     </row>
@@ -4445,9 +4975,12 @@
         <v>26.28825088550823</v>
       </c>
       <c r="F177" t="n">
+        <v>100</v>
+      </c>
+      <c r="G177" t="n">
         <v>10.4700558817256</v>
       </c>
-      <c r="G177" t="n">
+      <c r="H177" t="n">
         <v>4.022081458667096</v>
       </c>
     </row>
@@ -4468,9 +5001,12 @@
         <v>25.31530099719284</v>
       </c>
       <c r="F178" t="n">
+        <v>100</v>
+      </c>
+      <c r="G178" t="n">
         <v>16.93118479021815</v>
       </c>
-      <c r="G178" t="n">
+      <c r="H178" t="n">
         <v>2.487210325495143</v>
       </c>
     </row>
@@ -4491,9 +5027,12 @@
         <v>23.32809410726807</v>
       </c>
       <c r="F179" t="n">
+        <v>100</v>
+      </c>
+      <c r="G179" t="n">
         <v>28.26673436747747</v>
       </c>
-      <c r="G179" t="n">
+      <c r="H179" t="n">
         <v>1.489787149998783</v>
       </c>
     </row>
@@ -4514,9 +5053,12 @@
         <v>20.80937904157605</v>
       </c>
       <c r="F180" t="n">
+        <v>100</v>
+      </c>
+      <c r="G180" t="n">
         <v>27.75628815155564</v>
       </c>
-      <c r="G180" t="n">
+      <c r="H180" t="n">
         <v>1.51718476920109</v>
       </c>
     </row>

--- a/output/xyz_age_eros.xlsx
+++ b/output/xyz_age_eros.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,15 +394,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>E_map</t>
+          <t>E_map1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>E_map2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>E_exp_Z</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>E_inv_exp_Z</t>
         </is>
@@ -428,9 +433,12 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.71577234424401</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>24.54370929475012</v>
       </c>
     </row>
@@ -454,9 +462,12 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.527187593999784</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>16.6633524686021</v>
       </c>
     </row>
@@ -480,9 +491,12 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.513732700682522</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>27.81958638675733</v>
       </c>
     </row>
@@ -506,9 +520,12 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.205371905865509</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>34.93645191843017</v>
       </c>
     </row>
@@ -535,6 +552,9 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>42.11141763309691</v>
       </c>
     </row>
@@ -558,9 +578,12 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
         <v>7.38905609893065</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>5.699160632870456</v>
       </c>
     </row>
@@ -584,9 +607,12 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.276540548249262</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>12.85240240826505</v>
       </c>
     </row>
@@ -610,9 +636,12 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.475904843525316</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>17.00849600226824</v>
       </c>
     </row>
@@ -636,9 +665,12 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.53806313144631</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>27.37951178473256</v>
       </c>
     </row>
@@ -662,9 +694,12 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.276007117771601</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>33.00249430163026</v>
       </c>
     </row>
@@ -688,9 +723,12 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.136056031253367</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>37.06808156868549</v>
       </c>
     </row>
@@ -714,9 +752,12 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.763319615489954</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>23.88189711222369</v>
       </c>
     </row>
@@ -740,9 +781,12 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.598791916034733</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>26.33952374336501</v>
       </c>
     </row>
@@ -766,9 +810,12 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.650600155135878</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>25.51279151529602</v>
       </c>
     </row>
@@ -792,9 +839,12 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.05838613157211</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>3.808097956795633</v>
       </c>
     </row>
@@ -818,9 +868,12 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.326212651421302</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>9.734014720534354</v>
       </c>
     </row>
@@ -844,9 +897,12 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.338847564732744</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>18.00519976936116</v>
       </c>
     </row>
@@ -870,9 +926,12 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.858165995243492</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>22.66289327266409</v>
       </c>
     </row>
@@ -896,9 +955,12 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.338529674884737</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>31.46095183636717</v>
       </c>
     </row>
@@ -922,9 +984,12 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.183605064314989</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>35.57894343538389</v>
       </c>
     </row>
@@ -948,9 +1013,12 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.213637280943926</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>34.6985201380301</v>
       </c>
     </row>
@@ -974,9 +1042,12 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.50000279342122</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>28.07422613997191</v>
       </c>
     </row>
@@ -1000,9 +1071,12 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.631907262573603</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>25.80503108165902</v>
       </c>
     </row>
@@ -1026,9 +1100,12 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.270603279516831</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>18.54635638598123</v>
       </c>
     </row>
@@ -1052,9 +1129,12 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.021565957079946</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>20.8310876455027</v>
       </c>
     </row>
@@ -1078,9 +1158,12 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
         <v>17.40037969153265</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>2.42014360488864</v>
       </c>
     </row>
@@ -1104,9 +1187,12 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
         <v>9.070354874271228</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>4.642753036328187</v>
       </c>
     </row>
@@ -1130,9 +1216,12 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.238423330031359</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>9.935632746902924</v>
       </c>
     </row>
@@ -1156,9 +1245,12 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
         <v>2.755688790255169</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>15.28163041560201</v>
       </c>
     </row>
@@ -1182,9 +1274,12 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.743350185569119</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>24.15545538795442</v>
       </c>
     </row>
@@ -1208,9 +1303,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.385055649403185</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>30.40413405139538</v>
       </c>
     </row>
@@ -1234,9 +1332,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.545086238592975</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>27.25505967320339</v>
       </c>
     </row>
@@ -1260,9 +1361,12 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.335484102423399</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>31.53269855978113</v>
       </c>
     </row>
@@ -1286,9 +1390,12 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.385055649403185</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>30.40413405139538</v>
       </c>
     </row>
@@ -1312,9 +1419,12 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.503423550876351</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>28.01034851991644</v>
       </c>
     </row>
@@ -1338,9 +1448,12 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
         <v>2.072860184000009</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>20.31560930068823</v>
       </c>
     </row>
@@ -1364,9 +1477,12 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
         <v>2.699769197680611</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>15.59815471236397</v>
       </c>
     </row>
@@ -1390,9 +1506,12 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
         <v>2.812766630296358</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>14.97152916260955</v>
       </c>
     </row>
@@ -1416,9 +1535,12 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.486796407757537</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>9.385631485370613</v>
       </c>
     </row>
@@ -1442,9 +1564,12 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.56466690612579</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>11.81356315809746</v>
       </c>
     </row>
@@ -1468,9 +1593,12 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
         <v>7.857774445006733</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>5.359204177699049</v>
       </c>
     </row>
@@ -1494,9 +1622,12 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.994689409680294</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>10.5418502702735</v>
       </c>
     </row>
@@ -1520,9 +1651,12 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
         <v>2.749418738833005</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>15.31648018481578</v>
       </c>
     </row>
@@ -1546,9 +1680,12 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.88373668613625</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>22.35525694383116</v>
       </c>
     </row>
@@ -1572,9 +1709,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.510288486696439</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>27.88302897363019</v>
       </c>
     </row>
@@ -1598,9 +1738,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>2.159618666600905</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>19.49946918146316</v>
       </c>
     </row>
@@ -1624,9 +1767,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.755304540160127</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>23.99094668168255</v>
       </c>
     </row>
@@ -1650,9 +1796,12 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.433198821018947</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>29.38281626770903</v>
       </c>
     </row>
@@ -1676,9 +1825,12 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.658137129079801</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>25.39682448125809</v>
       </c>
     </row>
@@ -1702,9 +1854,12 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.892338208604575</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>22.25364231489581</v>
       </c>
     </row>
@@ -1728,9 +1883,12 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
         <v>2.164543678531826</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>19.45510180772161</v>
       </c>
     </row>
@@ -1754,9 +1912,12 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
         <v>2.464650750021215</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>17.08616023293946</v>
       </c>
     </row>
@@ -1780,9 +1941,12 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.382715588569269</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>12.44899741952828</v>
       </c>
     </row>
@@ -1806,9 +1970,12 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.914819975131787</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>8.568252315684813</v>
       </c>
     </row>
@@ -1832,9 +1999,12 @@
         <v>2</v>
       </c>
       <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.830471954825193</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>7.222643031195142</v>
       </c>
     </row>
@@ -1858,9 +2028,12 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.900976133077612</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>6.102240729575828</v>
       </c>
     </row>
@@ -1884,9 +2057,12 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
+        <v>10</v>
+      </c>
+      <c r="H58" t="n">
         <v>9.132551350533355</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>4.611133955533417</v>
       </c>
     </row>
@@ -1910,9 +2086,12 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
+        <v>10</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.209557902844931</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>10.00376253397937</v>
       </c>
     </row>
@@ -1936,9 +2115,12 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
+        <v>10</v>
+      </c>
+      <c r="H60" t="n">
         <v>2.793610518686659</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>15.07419067597672</v>
       </c>
     </row>
@@ -1962,9 +2144,12 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
+        <v>10</v>
+      </c>
+      <c r="H61" t="n">
         <v>2.035428069511566</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>20.68921926737614</v>
       </c>
     </row>
@@ -1988,9 +2173,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.692481677039882</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>24.88146146831497</v>
       </c>
     </row>
@@ -2014,9 +2202,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.704087220363075</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>24.71200835842464</v>
       </c>
     </row>
@@ -2040,9 +2231,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.971541038015586</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>21.35964548599165</v>
       </c>
     </row>
@@ -2066,9 +2260,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.980543492902473</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>21.26255635587326</v>
       </c>
     </row>
@@ -2092,9 +2289,12 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.64684452500568</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>25.57097345479633</v>
       </c>
     </row>
@@ -2118,9 +2318,12 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.866650756768601</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>22.5598802991926</v>
       </c>
     </row>
@@ -2144,9 +2347,12 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
         <v>2.149802235056419</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>19.58850769917064</v>
       </c>
     </row>
@@ -2170,9 +2376,12 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
         <v>2.61503014826508</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>16.10360693586473</v>
       </c>
     </row>
@@ -2196,9 +2405,12 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
         <v>2.991192034732157</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>14.07847344607807</v>
       </c>
     </row>
@@ -2222,9 +2434,12 @@
         <v>2</v>
       </c>
       <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.646798496007988</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>11.54750329067939</v>
       </c>
     </row>
@@ -2248,9 +2463,12 @@
         <v>2</v>
       </c>
       <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.815086387087103</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>8.74572421920187</v>
       </c>
     </row>
@@ -2274,9 +2492,12 @@
         <v>2</v>
       </c>
       <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
         <v>7.33873355108866</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>5.738240438890156</v>
       </c>
     </row>
@@ -2300,9 +2521,12 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.08575316908585</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>3.484385047744787</v>
       </c>
     </row>
@@ -2326,9 +2550,12 @@
         <v>2</v>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
         <v>15.92123509167183</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>2.644984348929361</v>
       </c>
     </row>
@@ -2352,9 +2579,12 @@
         <v>2</v>
       </c>
       <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
         <v>25.10920781651108</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>1.677130475036559</v>
       </c>
     </row>
@@ -2378,9 +2608,12 @@
         <v>100</v>
       </c>
       <c r="G77" t="n">
+        <v>100</v>
+      </c>
+      <c r="H77" t="n">
         <v>31.60460890164972</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>1.332445459589242</v>
       </c>
     </row>
@@ -2404,9 +2637,12 @@
         <v>100</v>
       </c>
       <c r="G78" t="n">
+        <v>100</v>
+      </c>
+      <c r="H78" t="n">
         <v>17.28187586265758</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>2.436738810518286</v>
       </c>
     </row>
@@ -2430,9 +2666,12 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
+        <v>10</v>
+      </c>
+      <c r="H79" t="n">
         <v>5.532867134488765</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>7.61113842235577</v>
       </c>
     </row>
@@ -2456,9 +2695,12 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
+        <v>10</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.067089080017121</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>13.73009277997946</v>
       </c>
     </row>
@@ -2482,9 +2724,12 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
+        <v>10</v>
+      </c>
+      <c r="H81" t="n">
         <v>2.275781391937766</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>18.50415764109934</v>
       </c>
     </row>
@@ -2508,9 +2753,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.858165995243492</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>22.66289327266409</v>
       </c>
     </row>
@@ -2534,9 +2782,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
         <v>2.05874314328703</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>20.45491579190447</v>
       </c>
     </row>
@@ -2560,9 +2811,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
         <v>2.730694052733707</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>15.42150706738421</v>
       </c>
     </row>
@@ -2586,9 +2840,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.508277880485534</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>12.00344415912368</v>
       </c>
     </row>
@@ -2612,9 +2869,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
         <v>2.436738810518287</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>17.28187586265757</v>
       </c>
     </row>
@@ -2638,9 +2898,12 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.940353473771524</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>21.7029619614841</v>
       </c>
     </row>
@@ -2664,9 +2927,12 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
         <v>2.21441577552405</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>19.01694257174043</v>
       </c>
     </row>
@@ -2690,9 +2956,12 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
         <v>2.579532550278769</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>16.32521273226265</v>
       </c>
     </row>
@@ -2716,9 +2985,12 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.195460494856385</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>13.17851298768428</v>
       </c>
     </row>
@@ -2742,9 +3014,12 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.003799301767846</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>10.51786427319245</v>
       </c>
     </row>
@@ -2768,9 +3043,12 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.621649649853573</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>9.111771948016681</v>
       </c>
     </row>
@@ -2794,9 +3072,12 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
         <v>5.120527203525829</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>8.224039431740612</v>
       </c>
     </row>
@@ -2820,9 +3101,12 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="n">
         <v>7.157131980958146</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>5.883839748258957</v>
       </c>
     </row>
@@ -2846,9 +3130,12 @@
         <v>2</v>
       </c>
       <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="n">
         <v>9.756213148143731</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>4.316369168411337</v>
       </c>
     </row>
@@ -2872,9 +3159,12 @@
         <v>2</v>
       </c>
       <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="n">
         <v>15.95754347981189</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>2.638966184636918</v>
       </c>
     </row>
@@ -2898,9 +3188,12 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
+        <v>100</v>
+      </c>
+      <c r="H97" t="n">
         <v>30.47347070108647</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>1.381904215839632</v>
       </c>
     </row>
@@ -2924,9 +3217,12 @@
         <v>100</v>
       </c>
       <c r="G98" t="n">
+        <v>100</v>
+      </c>
+      <c r="H98" t="n">
         <v>14.01448049539119</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>3.00485042217196</v>
       </c>
     </row>
@@ -2950,9 +3246,12 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
+        <v>10</v>
+      </c>
+      <c r="H99" t="n">
         <v>5.52027813620713</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>7.628495629031982</v>
       </c>
     </row>
@@ -2976,9 +3275,12 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
+        <v>10</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.390429873915228</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>12.42067206789537</v>
       </c>
     </row>
@@ -3002,9 +3304,12 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
+        <v>10</v>
+      </c>
+      <c r="H101" t="n">
         <v>2.90391325460475</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>14.50161004855108</v>
       </c>
     </row>
@@ -3028,9 +3333,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
         <v>2.189337723731022</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>19.23477459719259</v>
       </c>
     </row>
@@ -3054,9 +3362,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
         <v>2.464650750021215</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>17.08616023293946</v>
       </c>
     </row>
@@ -3080,9 +3391,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.224709357887811</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>13.05898081329102</v>
       </c>
     </row>
@@ -3106,9 +3420,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
         <v>3.344406650532939</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>12.59159606873355</v>
       </c>
     </row>
@@ -3132,9 +3449,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
         <v>2.250008380271464</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>18.71611590531772</v>
       </c>
     </row>
@@ -3158,9 +3478,12 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="n">
         <v>2.130303029348465</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>19.76780629466425</v>
       </c>
     </row>
@@ -3184,9 +3507,12 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
         <v>2.36563819631443</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>17.80129256397061</v>
       </c>
     </row>
@@ -3210,9 +3536,12 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
         <v>2.984386139981755</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>14.11057941495277</v>
       </c>
     </row>
@@ -3236,9 +3565,12 @@
         <v>2</v>
       </c>
       <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="n">
         <v>3.398161751694496</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>12.39241116527135</v>
       </c>
     </row>
@@ -3262,9 +3594,12 @@
         <v>2</v>
       </c>
       <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.022081458667099</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>10.47005588172559</v>
       </c>
     </row>
@@ -3288,9 +3623,12 @@
         <v>2</v>
       </c>
       <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.074503319580139</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>6.932487384994562</v>
       </c>
     </row>
@@ -3314,9 +3652,12 @@
         <v>2</v>
       </c>
       <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="n">
         <v>8.020530411659378</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>5.250452959056161</v>
       </c>
     </row>
@@ -3340,9 +3681,12 @@
         <v>2</v>
       </c>
       <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="n">
         <v>7.38905609893065</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>5.699160632870456</v>
       </c>
     </row>
@@ -3366,9 +3710,12 @@
         <v>2</v>
       </c>
       <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="n">
         <v>9.008581981902688</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>4.674588932830317</v>
       </c>
     </row>
@@ -3392,9 +3739,12 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="n">
         <v>15.24685994048192</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>2.761973140534133</v>
       </c>
     </row>
@@ -3418,9 +3768,12 @@
         <v>100</v>
       </c>
       <c r="G117" t="n">
+        <v>100</v>
+      </c>
+      <c r="H117" t="n">
         <v>29.71938553256001</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>1.416967978256496</v>
       </c>
     </row>
@@ -3444,9 +3797,12 @@
         <v>100</v>
       </c>
       <c r="G118" t="n">
+        <v>100</v>
+      </c>
+      <c r="H118" t="n">
         <v>20.45491579190448</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>2.058743143287029</v>
       </c>
     </row>
@@ -3470,9 +3826,12 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
+        <v>10</v>
+      </c>
+      <c r="H119" t="n">
         <v>4.209557902844931</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>10.00376253397937</v>
       </c>
     </row>
@@ -3496,9 +3855,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
         <v>2.651016237649828</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>15.88500931643837</v>
       </c>
     </row>
@@ -3522,9 +3884,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.730822436068817</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>11.28743550643752</v>
       </c>
     </row>
@@ -3548,9 +3913,12 @@
         <v>2</v>
       </c>
       <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="n">
         <v>4.590174291905306</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>9.17425242596118</v>
       </c>
     </row>
@@ -3574,9 +3942,12 @@
         <v>2</v>
       </c>
       <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="n">
         <v>3.067089080017121</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>13.73009277997946</v>
       </c>
     </row>
@@ -3600,9 +3971,12 @@
         <v>2</v>
       </c>
       <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="n">
         <v>2.626970904497728</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>16.03040884883669</v>
       </c>
     </row>
@@ -3626,9 +4000,12 @@
         <v>2</v>
       </c>
       <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="n">
         <v>2.78725418350556</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>15.10856737871424</v>
       </c>
     </row>
@@ -3652,9 +4029,12 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
+        <v>2</v>
+      </c>
+      <c r="H126" t="n">
         <v>3.173698078726824</v>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
         <v>13.26887958100618</v>
       </c>
     </row>
@@ -3678,9 +4058,12 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="n">
         <v>2.991192034732157</v>
       </c>
-      <c r="H127" t="n">
+      <c r="I127" t="n">
         <v>14.07847344607807</v>
       </c>
     </row>
@@ -3704,9 +4087,12 @@
         <v>2</v>
       </c>
       <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="n">
         <v>4.257776827668183</v>
       </c>
-      <c r="H128" t="n">
+      <c r="I128" t="n">
         <v>9.89047085780672</v>
       </c>
     </row>
@@ -3730,9 +4116,12 @@
         <v>2</v>
       </c>
       <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="n">
         <v>4.685249336272087</v>
       </c>
-      <c r="H129" t="n">
+      <c r="I129" t="n">
         <v>8.988084648362323</v>
       </c>
     </row>
@@ -3756,9 +4145,12 @@
         <v>2</v>
       </c>
       <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.132204569516401</v>
       </c>
-      <c r="H130" t="n">
+      <c r="I130" t="n">
         <v>8.205327177179338</v>
       </c>
     </row>
@@ -3782,9 +4174,12 @@
         <v>2</v>
       </c>
       <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.59363495933794</v>
       </c>
-      <c r="H131" t="n">
+      <c r="I131" t="n">
         <v>6.386677135266413</v>
       </c>
     </row>
@@ -3808,9 +4203,12 @@
         <v>2</v>
       </c>
       <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="n">
         <v>10.51786427319245</v>
       </c>
-      <c r="H132" t="n">
+      <c r="I132" t="n">
         <v>4.003799301767844</v>
       </c>
     </row>
@@ -3834,9 +4232,12 @@
         <v>2</v>
       </c>
       <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="n">
         <v>15.03989219095908</v>
       </c>
-      <c r="H133" t="n">
+      <c r="I133" t="n">
         <v>2.799981349494734</v>
       </c>
     </row>
@@ -3860,9 +4261,12 @@
         <v>2</v>
       </c>
       <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="n">
         <v>21.8517816909397</v>
       </c>
-      <c r="H134" t="n">
+      <c r="I134" t="n">
         <v>1.927138858913155</v>
       </c>
     </row>
@@ -3886,9 +4290,12 @@
         <v>100</v>
       </c>
       <c r="G135" t="n">
+        <v>100</v>
+      </c>
+      <c r="H135" t="n">
         <v>30.47347070108647</v>
       </c>
-      <c r="H135" t="n">
+      <c r="I135" t="n">
         <v>1.381904215839632</v>
       </c>
     </row>
@@ -3912,9 +4319,12 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
+        <v>10</v>
+      </c>
+      <c r="H136" t="n">
         <v>4.277218697287138</v>
       </c>
-      <c r="H136" t="n">
+      <c r="I136" t="n">
         <v>9.845514249670336</v>
       </c>
     </row>
@@ -3938,9 +4348,12 @@
         <v>100</v>
       </c>
       <c r="G137" t="n">
+        <v>100</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.359677887303711</v>
       </c>
-      <c r="H137" t="n">
+      <c r="I137" t="n">
         <v>12.53436163991696</v>
       </c>
     </row>
@@ -3964,9 +4377,12 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
+        <v>100</v>
+      </c>
+      <c r="H138" t="n">
         <v>4.497028550210074</v>
       </c>
-      <c r="H138" t="n">
+      <c r="I138" t="n">
         <v>9.364276246618385</v>
       </c>
     </row>
@@ -3990,9 +4406,12 @@
         <v>2</v>
       </c>
       <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="n">
         <v>5.951236950777927</v>
       </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
         <v>7.076078129873864</v>
       </c>
     </row>
@@ -4016,9 +4435,12 @@
         <v>2</v>
       </c>
       <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="n">
         <v>5.085654281771596</v>
       </c>
-      <c r="H140" t="n">
+      <c r="I140" t="n">
         <v>8.280432624772779</v>
       </c>
     </row>
@@ -4042,9 +4464,12 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
+        <v>2</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.246821564279982</v>
       </c>
-      <c r="H141" t="n">
+      <c r="I141" t="n">
         <v>12.97004371795084</v>
       </c>
     </row>
@@ -4068,9 +4493,12 @@
         <v>2</v>
       </c>
       <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.137756244463604</v>
       </c>
-      <c r="H142" t="n">
+      <c r="I142" t="n">
         <v>13.42086967634919</v>
       </c>
     </row>
@@ -4094,9 +4522,12 @@
         <v>2</v>
       </c>
       <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.931497911153397</v>
       </c>
-      <c r="H143" t="n">
+      <c r="I143" t="n">
         <v>10.7112908577745</v>
       </c>
     </row>
@@ -4120,9 +4551,12 @@
         <v>2</v>
       </c>
       <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.67180501661647</v>
       </c>
-      <c r="H144" t="n">
+      <c r="I144" t="n">
         <v>11.46885998644398</v>
       </c>
     </row>
@@ -4146,9 +4580,12 @@
         <v>2</v>
       </c>
       <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="n">
         <v>4.296749342412553</v>
       </c>
-      <c r="H145" t="n">
+      <c r="I145" t="n">
         <v>9.800761989400121</v>
       </c>
     </row>
@@ -4172,9 +4609,12 @@
         <v>2</v>
       </c>
       <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="n">
         <v>7.173453825616434</v>
       </c>
-      <c r="H146" t="n">
+      <c r="I146" t="n">
         <v>5.870452177822188</v>
       </c>
     </row>
@@ -4198,9 +4638,12 @@
         <v>2</v>
       </c>
       <c r="G147" t="n">
+        <v>2</v>
+      </c>
+      <c r="H147" t="n">
         <v>5.897257849059788</v>
       </c>
-      <c r="H147" t="n">
+      <c r="I147" t="n">
         <v>7.140847273586793</v>
       </c>
     </row>
@@ -4224,9 +4667,12 @@
         <v>2</v>
       </c>
       <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="n">
         <v>6.59363495933794</v>
       </c>
-      <c r="H148" t="n">
+      <c r="I148" t="n">
         <v>6.386677135266413</v>
       </c>
     </row>
@@ -4250,9 +4696,12 @@
         <v>2</v>
       </c>
       <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="n">
         <v>11.26175307041645</v>
       </c>
-      <c r="H149" t="n">
+      <c r="I149" t="n">
         <v>3.739330579332233</v>
       </c>
     </row>
@@ -4276,9 +4725,12 @@
         <v>2</v>
       </c>
       <c r="G150" t="n">
+        <v>2</v>
+      </c>
+      <c r="H150" t="n">
         <v>21.16590853922112</v>
       </c>
-      <c r="H150" t="n">
+      <c r="I150" t="n">
         <v>1.989587054818038</v>
       </c>
     </row>
@@ -4302,9 +4754,12 @@
         <v>2</v>
       </c>
       <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="n">
         <v>40.41967327539025</v>
       </c>
-      <c r="H151" t="n">
+      <c r="I151" t="n">
         <v>1.041854478787603</v>
       </c>
     </row>
@@ -4328,9 +4783,12 @@
         <v>100</v>
       </c>
       <c r="G152" t="n">
+        <v>100</v>
+      </c>
+      <c r="H152" t="n">
         <v>39.06191939043615</v>
       </c>
-      <c r="H152" t="n">
+      <c r="I152" t="n">
         <v>1.078068315388706</v>
       </c>
     </row>
@@ -4354,9 +4812,12 @@
         <v>100</v>
       </c>
       <c r="G153" t="n">
+        <v>100</v>
+      </c>
+      <c r="H153" t="n">
         <v>6.684371632937881</v>
       </c>
-      <c r="H153" t="n">
+      <c r="I153" t="n">
         <v>6.299981500966952</v>
       </c>
     </row>
@@ -4380,9 +4841,12 @@
         <v>100</v>
       </c>
       <c r="G154" t="n">
+        <v>100</v>
+      </c>
+      <c r="H154" t="n">
         <v>4.199979845769421</v>
       </c>
-      <c r="H154" t="n">
+      <c r="I154" t="n">
         <v>10.02657612167238</v>
       </c>
     </row>
@@ -4406,9 +4870,12 @@
         <v>2</v>
       </c>
       <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="n">
         <v>4.84810399337989</v>
       </c>
-      <c r="H155" t="n">
+      <c r="I155" t="n">
         <v>8.686162196726857</v>
       </c>
     </row>
@@ -4432,9 +4899,12 @@
         <v>2</v>
       </c>
       <c r="G156" t="n">
+        <v>2</v>
+      </c>
+      <c r="H156" t="n">
         <v>5.3836753872296</v>
       </c>
-      <c r="H156" t="n">
+      <c r="I156" t="n">
         <v>7.822057350074953</v>
       </c>
     </row>
@@ -4458,9 +4928,12 @@
         <v>2</v>
       </c>
       <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="n">
         <v>5.764442404603849</v>
       </c>
-      <c r="H157" t="n">
+      <c r="I157" t="n">
         <v>7.305375728876059</v>
       </c>
     </row>
@@ -4484,9 +4957,12 @@
         <v>2</v>
       </c>
       <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="n">
         <v>4.05889659372358</v>
       </c>
-      <c r="H158" t="n">
+      <c r="I158" t="n">
         <v>10.37509004250449</v>
       </c>
     </row>
@@ -4510,9 +4986,12 @@
         <v>2</v>
       </c>
       <c r="G159" t="n">
+        <v>2</v>
+      </c>
+      <c r="H159" t="n">
         <v>6.91671381413957</v>
       </c>
-      <c r="H159" t="n">
+      <c r="I159" t="n">
         <v>6.088356228793241</v>
       </c>
     </row>
@@ -4536,9 +5015,12 @@
         <v>2</v>
       </c>
       <c r="G160" t="n">
+        <v>2</v>
+      </c>
+      <c r="H160" t="n">
         <v>8.205327177179342</v>
       </c>
-      <c r="H160" t="n">
+      <c r="I160" t="n">
         <v>5.132204569516397</v>
       </c>
     </row>
@@ -4562,9 +5044,12 @@
         <v>2</v>
       </c>
       <c r="G161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H161" t="n">
         <v>8.186657498833034</v>
       </c>
-      <c r="H161" t="n">
+      <c r="I161" t="n">
         <v>5.143908565748557</v>
       </c>
     </row>
@@ -4588,9 +5073,12 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
+        <v>2</v>
+      </c>
+      <c r="H162" t="n">
         <v>11.52122911934112</v>
       </c>
-      <c r="H162" t="n">
+      <c r="I162" t="n">
         <v>3.65511502261533</v>
       </c>
     </row>
@@ -4614,9 +5102,12 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="n">
         <v>20.13134200466594</v>
       </c>
-      <c r="H163" t="n">
+      <c r="I163" t="n">
         <v>2.091833600727489</v>
       </c>
     </row>
@@ -4640,9 +5131,12 @@
         <v>100</v>
       </c>
       <c r="G164" t="n">
+        <v>100</v>
+      </c>
+      <c r="H164" t="n">
         <v>42.11141763309691</v>
       </c>
-      <c r="H164" t="n">
+      <c r="I164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,9 +5160,12 @@
         <v>100</v>
       </c>
       <c r="G165" t="n">
+        <v>100</v>
+      </c>
+      <c r="H165" t="n">
         <v>42.0156010245766</v>
       </c>
-      <c r="H165" t="n">
+      <c r="I165" t="n">
         <v>1.002280500723154</v>
       </c>
     </row>
@@ -4692,9 +5189,12 @@
         <v>100</v>
       </c>
       <c r="G166" t="n">
+        <v>100</v>
+      </c>
+      <c r="H166" t="n">
         <v>7.839895557518359</v>
       </c>
-      <c r="H166" t="n">
+      <c r="I166" t="n">
         <v>5.371425846701823</v>
       </c>
     </row>
@@ -4718,9 +5218,12 @@
         <v>100</v>
       </c>
       <c r="G167" t="n">
+        <v>100</v>
+      </c>
+      <c r="H167" t="n">
         <v>9.19517431525299</v>
       </c>
-      <c r="H167" t="n">
+      <c r="I167" t="n">
         <v>4.579730213840789</v>
       </c>
     </row>
@@ -4744,9 +5247,12 @@
         <v>100</v>
       </c>
       <c r="G168" t="n">
+        <v>100</v>
+      </c>
+      <c r="H168" t="n">
         <v>7.059977845292225</v>
       </c>
-      <c r="H168" t="n">
+      <c r="I168" t="n">
         <v>5.964808750947836</v>
       </c>
     </row>
@@ -4770,9 +5276,12 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="n">
         <v>5.408258337249224</v>
       </c>
-      <c r="H169" t="n">
+      <c r="I169" t="n">
         <v>7.786502605294522</v>
       </c>
     </row>
@@ -4796,9 +5305,12 @@
         <v>2</v>
       </c>
       <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="n">
         <v>6.401241957091944</v>
       </c>
-      <c r="H170" t="n">
+      <c r="I170" t="n">
         <v>6.578632383430159</v>
       </c>
     </row>
@@ -4822,9 +5334,12 @@
         <v>2</v>
       </c>
       <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="n">
         <v>9.958290964567235</v>
       </c>
-      <c r="H171" t="n">
+      <c r="I171" t="n">
         <v>4.228779595106657</v>
       </c>
     </row>
@@ -4848,9 +5363,12 @@
         <v>2</v>
       </c>
       <c r="G172" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" t="n">
         <v>13.82424161996467</v>
       </c>
-      <c r="H172" t="n">
+      <c r="I172" t="n">
         <v>3.04620092665919</v>
       </c>
     </row>
@@ -4874,9 +5392,12 @@
         <v>2</v>
       </c>
       <c r="G173" t="n">
+        <v>2</v>
+      </c>
+      <c r="H173" t="n">
         <v>15.10856737871425</v>
       </c>
-      <c r="H173" t="n">
+      <c r="I173" t="n">
         <v>2.787254183505558</v>
       </c>
     </row>
@@ -4900,9 +5421,12 @@
         <v>100</v>
       </c>
       <c r="G174" t="n">
+        <v>100</v>
+      </c>
+      <c r="H174" t="n">
         <v>27.25505967320341</v>
       </c>
-      <c r="H174" t="n">
+      <c r="I174" t="n">
         <v>1.545086238592974</v>
       </c>
     </row>
@@ -4926,9 +5450,12 @@
         <v>100</v>
       </c>
       <c r="G175" t="n">
+        <v>100</v>
+      </c>
+      <c r="H175" t="n">
         <v>25.28138456919253</v>
       </c>
-      <c r="H175" t="n">
+      <c r="I175" t="n">
         <v>1.6657085183702</v>
       </c>
     </row>
@@ -4952,9 +5479,12 @@
         <v>100</v>
       </c>
       <c r="G176" t="n">
+        <v>100</v>
+      </c>
+      <c r="H176" t="n">
         <v>7.965907260886808</v>
       </c>
-      <c r="H176" t="n">
+      <c r="I176" t="n">
         <v>5.286455924470408</v>
       </c>
     </row>
@@ -4978,9 +5508,12 @@
         <v>100</v>
       </c>
       <c r="G177" t="n">
+        <v>100</v>
+      </c>
+      <c r="H177" t="n">
         <v>10.4700558817256</v>
       </c>
-      <c r="H177" t="n">
+      <c r="I177" t="n">
         <v>4.022081458667096</v>
       </c>
     </row>
@@ -5004,9 +5537,12 @@
         <v>100</v>
       </c>
       <c r="G178" t="n">
+        <v>100</v>
+      </c>
+      <c r="H178" t="n">
         <v>16.93118479021815</v>
       </c>
-      <c r="H178" t="n">
+      <c r="I178" t="n">
         <v>2.487210325495143</v>
       </c>
     </row>
@@ -5030,9 +5566,12 @@
         <v>100</v>
       </c>
       <c r="G179" t="n">
+        <v>100</v>
+      </c>
+      <c r="H179" t="n">
         <v>28.26673436747747</v>
       </c>
-      <c r="H179" t="n">
+      <c r="I179" t="n">
         <v>1.489787149998783</v>
       </c>
     </row>
@@ -5056,9 +5595,12 @@
         <v>100</v>
       </c>
       <c r="G180" t="n">
+        <v>100</v>
+      </c>
+      <c r="H180" t="n">
         <v>27.75628815155564</v>
       </c>
-      <c r="H180" t="n">
+      <c r="I180" t="n">
         <v>1.51718476920109</v>
       </c>
     </row>

--- a/output/xyz_age_eros.xlsx
+++ b/output/xyz_age_eros.xlsx
@@ -394,12 +394,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>E_map1</t>
+          <t>e_map0</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>E_map2</t>
+          <t>slope_map</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -433,7 +433,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>24.4635181427002</v>
       </c>
       <c r="H2" t="n">
         <v>1.71577234424401</v>
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>9.773893356323242</v>
       </c>
       <c r="H3" t="n">
         <v>2.527187593999784</v>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>21.83255004882812</v>
       </c>
       <c r="H4" t="n">
         <v>1.513732700682522</v>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>14.68150901794434</v>
       </c>
       <c r="H5" t="n">
         <v>1.205371905865509</v>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3.095420360565186</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>32.97629928588867</v>
       </c>
       <c r="H7" t="n">
         <v>7.38905609893065</v>
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>31.45109176635742</v>
       </c>
       <c r="H8" t="n">
         <v>3.276540548249262</v>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>28.87717819213867</v>
       </c>
       <c r="H9" t="n">
         <v>2.475904843525316</v>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>19.84463691711426</v>
       </c>
       <c r="H10" t="n">
         <v>1.53806313144631</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>23.04996681213379</v>
       </c>
       <c r="H11" t="n">
         <v>1.276007117771601</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>6.289937973022461</v>
       </c>
       <c r="H12" t="n">
         <v>1.136056031253367</v>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>16.42742156982422</v>
       </c>
       <c r="H13" t="n">
         <v>1.763319615489954</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>30.03357315063477</v>
       </c>
       <c r="H14" t="n">
         <v>1.598791916034733</v>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>15.9727783203125</v>
       </c>
       <c r="H15" t="n">
         <v>1.650600155135878</v>
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>45.71837615966797</v>
       </c>
       <c r="H16" t="n">
         <v>11.05838613157211</v>
@@ -868,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>34.67289352416992</v>
       </c>
       <c r="H17" t="n">
         <v>4.326212651421302</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>25.14361763000488</v>
       </c>
       <c r="H18" t="n">
         <v>2.338847564732744</v>
@@ -926,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>18.22125625610352</v>
       </c>
       <c r="H19" t="n">
         <v>1.858165995243492</v>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>12.19136142730713</v>
       </c>
       <c r="H20" t="n">
         <v>1.338529674884737</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>6.548885822296143</v>
       </c>
       <c r="H21" t="n">
         <v>1.183605064314989</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>7.029293537139893</v>
       </c>
       <c r="H22" t="n">
         <v>1.213637280943926</v>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>22.74278450012207</v>
       </c>
       <c r="H23" t="n">
         <v>1.50000279342122</v>
@@ -1071,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>20.18801498413086</v>
       </c>
       <c r="H24" t="n">
         <v>1.631907262573603</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>13.17729949951172</v>
       </c>
       <c r="H25" t="n">
         <v>2.270603279516831</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>17.44259071350098</v>
       </c>
       <c r="H26" t="n">
         <v>2.021565957079946</v>
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>34.70832443237305</v>
       </c>
       <c r="H27" t="n">
         <v>17.40037969153265</v>
@@ -1187,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>37.59332656860352</v>
       </c>
       <c r="H28" t="n">
         <v>9.070354874271228</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>27.64423370361328</v>
       </c>
       <c r="H29" t="n">
         <v>4.238423330031359</v>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>27.57571983337402</v>
       </c>
       <c r="H30" t="n">
         <v>2.755688790255169</v>
@@ -1274,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>12.55493831634521</v>
       </c>
       <c r="H31" t="n">
         <v>1.743350185569119</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>10.44246959686279</v>
       </c>
       <c r="H32" t="n">
         <v>1.385055649403185</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>22.38632392883301</v>
       </c>
       <c r="H33" t="n">
         <v>1.545086238592975</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>11.05756378173828</v>
       </c>
       <c r="H34" t="n">
         <v>1.335484102423399</v>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>6.659310340881348</v>
       </c>
       <c r="H35" t="n">
         <v>1.385055649403185</v>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>8.873861312866211</v>
       </c>
       <c r="H36" t="n">
         <v>1.503423550876351</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>20.56237983703613</v>
       </c>
       <c r="H37" t="n">
         <v>2.072860184000009</v>
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>10.81160545349121</v>
       </c>
       <c r="H38" t="n">
         <v>2.699769197680611</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>15.86988353729248</v>
       </c>
       <c r="H39" t="n">
         <v>2.812766630296358</v>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>16.63455390930176</v>
       </c>
       <c r="H40" t="n">
         <v>4.486796407757537</v>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>17.32051658630371</v>
       </c>
       <c r="H41" t="n">
         <v>3.56466690612579</v>
@@ -1593,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>33.39544296264648</v>
       </c>
       <c r="H42" t="n">
         <v>7.857774445006733</v>
@@ -1622,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>25.49657249450684</v>
       </c>
       <c r="H43" t="n">
         <v>3.994689409680294</v>
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>20.20866012573242</v>
       </c>
       <c r="H44" t="n">
         <v>2.749418738833005</v>
@@ -1680,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>15.97757530212402</v>
       </c>
       <c r="H45" t="n">
         <v>1.88373668613625</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>8.469196319580078</v>
       </c>
       <c r="H46" t="n">
         <v>1.510288486696439</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>29.8424186706543</v>
       </c>
       <c r="H47" t="n">
         <v>2.159618666600905</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>25.46588706970215</v>
       </c>
       <c r="H48" t="n">
         <v>1.755304540160127</v>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>10.4645938873291</v>
       </c>
       <c r="H49" t="n">
         <v>1.433198821018947</v>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>9.380246162414551</v>
       </c>
       <c r="H50" t="n">
         <v>1.658137129079801</v>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>8.513031959533691</v>
       </c>
       <c r="H51" t="n">
         <v>1.892338208604575</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>6.238790035247803</v>
       </c>
       <c r="H52" t="n">
         <v>2.164543678531826</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>9.315567016601562</v>
       </c>
       <c r="H53" t="n">
         <v>2.464650750021215</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>21.94803619384766</v>
       </c>
       <c r="H54" t="n">
         <v>3.382715588569269</v>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>10.43172264099121</v>
       </c>
       <c r="H55" t="n">
         <v>4.914819975131787</v>
@@ -1999,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>26.3037223815918</v>
       </c>
       <c r="H56" t="n">
         <v>5.830471954825193</v>
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>33.74346923828125</v>
       </c>
       <c r="H57" t="n">
         <v>6.900976133077612</v>
@@ -2057,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>10</v>
+        <v>35.59517669677734</v>
       </c>
       <c r="H58" t="n">
         <v>9.132551350533355</v>
@@ -2086,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>28.48172950744629</v>
       </c>
       <c r="H59" t="n">
         <v>4.209557902844931</v>
@@ -2115,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>10</v>
+        <v>17.22710037231445</v>
       </c>
       <c r="H60" t="n">
         <v>2.793610518686659</v>
@@ -2144,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>10</v>
+        <v>11.27962303161621</v>
       </c>
       <c r="H61" t="n">
         <v>2.035428069511566</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>10.32647228240967</v>
       </c>
       <c r="H62" t="n">
         <v>1.692481677039882</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>10.86010265350342</v>
       </c>
       <c r="H63" t="n">
         <v>1.704087220363075</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>17.46512985229492</v>
       </c>
       <c r="H64" t="n">
         <v>1.971541038015586</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>27.29384613037109</v>
       </c>
       <c r="H65" t="n">
         <v>1.980543492902473</v>
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>8.682613372802734</v>
       </c>
       <c r="H66" t="n">
         <v>1.64684452500568</v>
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>7.110415458679199</v>
       </c>
       <c r="H67" t="n">
         <v>1.866650756768601</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>9.42103385925293</v>
       </c>
       <c r="H68" t="n">
         <v>2.149802235056419</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>9.24195671081543</v>
       </c>
       <c r="H69" t="n">
         <v>2.61503014826508</v>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>12.14538860321045</v>
       </c>
       <c r="H70" t="n">
         <v>2.991192034732157</v>
@@ -2434,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>16.73684501647949</v>
       </c>
       <c r="H71" t="n">
         <v>3.646798496007988</v>
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>24.93667793273926</v>
       </c>
       <c r="H72" t="n">
         <v>4.815086387087103</v>
@@ -2492,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>31.79803085327148</v>
       </c>
       <c r="H73" t="n">
         <v>7.33873355108866</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>31.22729301452637</v>
       </c>
       <c r="H74" t="n">
         <v>12.08575316908585</v>
@@ -2550,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>29.28453063964844</v>
       </c>
       <c r="H75" t="n">
         <v>15.92123509167183</v>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>23.02219390869141</v>
       </c>
       <c r="H76" t="n">
         <v>25.10920781651108</v>
@@ -2608,7 +2608,7 @@
         <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>100</v>
+        <v>18.00900268554688</v>
       </c>
       <c r="H77" t="n">
         <v>31.60460890164972</v>
@@ -2637,7 +2637,7 @@
         <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>100</v>
+        <v>32.1451301574707</v>
       </c>
       <c r="H78" t="n">
         <v>17.28187586265758</v>
@@ -2666,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>10</v>
+        <v>38.01406478881836</v>
       </c>
       <c r="H79" t="n">
         <v>5.532867134488765</v>
@@ -2695,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>10</v>
+        <v>26.06140899658203</v>
       </c>
       <c r="H80" t="n">
         <v>3.067089080017121</v>
@@ -2724,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>10</v>
+        <v>13.72486686706543</v>
       </c>
       <c r="H81" t="n">
         <v>2.275781391937766</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>9.230171203613281</v>
       </c>
       <c r="H82" t="n">
         <v>1.858165995243492</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>11.65079975128174</v>
       </c>
       <c r="H83" t="n">
         <v>2.05874314328703</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>25.63359451293945</v>
       </c>
       <c r="H84" t="n">
         <v>2.730694052733707</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>11.4831485748291</v>
       </c>
       <c r="H85" t="n">
         <v>3.508277880485534</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>26.21999359130859</v>
       </c>
       <c r="H86" t="n">
         <v>2.436738810518287</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>6.480991840362549</v>
       </c>
       <c r="H87" t="n">
         <v>1.940353473771524</v>
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>8.418967247009277</v>
       </c>
       <c r="H88" t="n">
         <v>2.21441577552405</v>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>10.94586181640625</v>
       </c>
       <c r="H89" t="n">
         <v>2.579532550278769</v>
@@ -2985,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>14.60520172119141</v>
       </c>
       <c r="H90" t="n">
         <v>3.195460494856385</v>
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>11.57136058807373</v>
       </c>
       <c r="H91" t="n">
         <v>4.003799301767846</v>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>19.02062797546387</v>
       </c>
       <c r="H92" t="n">
         <v>4.621649649853573</v>
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>15.82343196868896</v>
       </c>
       <c r="H93" t="n">
         <v>5.120527203525829</v>
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>18.74197578430176</v>
       </c>
       <c r="H94" t="n">
         <v>7.157131980958146</v>
@@ -3130,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>21.20492553710938</v>
       </c>
       <c r="H95" t="n">
         <v>9.756213148143731</v>
@@ -3159,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>31.87858200073242</v>
       </c>
       <c r="H96" t="n">
         <v>15.95754347981189</v>
@@ -3188,7 +3188,7 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>100</v>
+        <v>5.925567626953125</v>
       </c>
       <c r="H97" t="n">
         <v>30.47347070108647</v>
@@ -3217,7 +3217,7 @@
         <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>100</v>
+        <v>31.30948829650879</v>
       </c>
       <c r="H98" t="n">
         <v>14.01448049539119</v>
@@ -3246,7 +3246,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>10</v>
+        <v>33.84295272827148</v>
       </c>
       <c r="H99" t="n">
         <v>5.52027813620713</v>
@@ -3275,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>10</v>
+        <v>18.26095771789551</v>
       </c>
       <c r="H100" t="n">
         <v>3.390429873915228</v>
@@ -3304,7 +3304,7 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>10</v>
+        <v>24.55984497070312</v>
       </c>
       <c r="H101" t="n">
         <v>2.90391325460475</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>12.03707885742188</v>
       </c>
       <c r="H102" t="n">
         <v>2.189337723731022</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>18.73078155517578</v>
       </c>
       <c r="H103" t="n">
         <v>2.464650750021215</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>20.89732551574707</v>
       </c>
       <c r="H104" t="n">
         <v>3.224709357887811</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>28.58622360229492</v>
       </c>
       <c r="H105" t="n">
         <v>3.344406650532939</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>10.81885814666748</v>
       </c>
       <c r="H106" t="n">
         <v>2.250008380271464</v>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>8.836811065673828</v>
       </c>
       <c r="H107" t="n">
         <v>2.130303029348465</v>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>13.21036243438721</v>
       </c>
       <c r="H108" t="n">
         <v>2.36563819631443</v>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>20.07839584350586</v>
       </c>
       <c r="H109" t="n">
         <v>2.984386139981755</v>
@@ -3565,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>10.28408813476562</v>
       </c>
       <c r="H110" t="n">
         <v>3.398161751694496</v>
@@ -3594,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>13.28550624847412</v>
       </c>
       <c r="H111" t="n">
         <v>4.022081458667099</v>
@@ -3623,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>26.11128044128418</v>
       </c>
       <c r="H112" t="n">
         <v>6.074503319580139</v>
@@ -3652,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>18.9914379119873</v>
       </c>
       <c r="H113" t="n">
         <v>8.020530411659378</v>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>16.92643547058105</v>
       </c>
       <c r="H114" t="n">
         <v>7.38905609893065</v>
@@ -3710,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>15.8863000869751</v>
       </c>
       <c r="H115" t="n">
         <v>9.008581981902688</v>
@@ -3739,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>31.45519065856934</v>
       </c>
       <c r="H116" t="n">
         <v>15.24685994048192</v>
@@ -3768,7 +3768,7 @@
         <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>100</v>
+        <v>19.4771556854248</v>
       </c>
       <c r="H117" t="n">
         <v>29.71938553256001</v>
@@ -3797,7 +3797,7 @@
         <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>100</v>
+        <v>32.25318908691406</v>
       </c>
       <c r="H118" t="n">
         <v>20.45491579190448</v>
@@ -3826,7 +3826,7 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>10</v>
+        <v>16.1079273223877</v>
       </c>
       <c r="H119" t="n">
         <v>4.209557902844931</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>12.35540103912354</v>
       </c>
       <c r="H120" t="n">
         <v>2.651016237649828</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>27.91389274597168</v>
       </c>
       <c r="H121" t="n">
         <v>3.730822436068817</v>
@@ -3913,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>21.25241470336914</v>
       </c>
       <c r="H122" t="n">
         <v>4.590174291905306</v>
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>18.9649543762207</v>
       </c>
       <c r="H123" t="n">
         <v>3.067089080017121</v>
@@ -3971,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>13.85651302337646</v>
       </c>
       <c r="H124" t="n">
         <v>2.626970904497728</v>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>12.88548469543457</v>
       </c>
       <c r="H125" t="n">
         <v>2.78725418350556</v>
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>15.53585624694824</v>
       </c>
       <c r="H126" t="n">
         <v>3.173698078726824</v>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>12.27764129638672</v>
       </c>
       <c r="H127" t="n">
         <v>2.991192034732157</v>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>14.9858512878418</v>
       </c>
       <c r="H128" t="n">
         <v>4.257776827668183</v>
@@ -4116,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>21.56575012207031</v>
       </c>
       <c r="H129" t="n">
         <v>4.685249336272087</v>
@@ -4145,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>18.23919486999512</v>
       </c>
       <c r="H130" t="n">
         <v>5.132204569516401</v>
@@ -4174,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>18.27926254272461</v>
       </c>
       <c r="H131" t="n">
         <v>6.59363495933794</v>
@@ -4203,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>17.41238594055176</v>
       </c>
       <c r="H132" t="n">
         <v>10.51786427319245</v>
@@ -4232,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>31.02445220947266</v>
       </c>
       <c r="H133" t="n">
         <v>15.03989219095908</v>
@@ -4261,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>33.7211799621582</v>
       </c>
       <c r="H134" t="n">
         <v>21.8517816909397</v>
@@ -4290,7 +4290,7 @@
         <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>100</v>
+        <v>27.02102470397949</v>
       </c>
       <c r="H135" t="n">
         <v>30.47347070108647</v>
@@ -4319,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>10</v>
+        <v>25.59041404724121</v>
       </c>
       <c r="H136" t="n">
         <v>4.277218697287138</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>100</v>
+        <v>17.88567161560059</v>
       </c>
       <c r="H137" t="n">
         <v>3.359677887303711</v>
@@ -4377,7 +4377,7 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>100</v>
+        <v>27.87400436401367</v>
       </c>
       <c r="H138" t="n">
         <v>4.497028550210074</v>
@@ -4406,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>34.50461196899414</v>
       </c>
       <c r="H139" t="n">
         <v>5.951236950777927</v>
@@ -4435,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>28.03367233276367</v>
       </c>
       <c r="H140" t="n">
         <v>5.085654281771596</v>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>17.62350273132324</v>
       </c>
       <c r="H141" t="n">
         <v>3.246821564279982</v>
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>12.61090564727783</v>
       </c>
       <c r="H142" t="n">
         <v>3.137756244463604</v>
@@ -4522,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>12.23912811279297</v>
       </c>
       <c r="H143" t="n">
         <v>3.931497911153397</v>
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>22.06994438171387</v>
       </c>
       <c r="H144" t="n">
         <v>3.67180501661647</v>
@@ -4580,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>23.47432327270508</v>
       </c>
       <c r="H145" t="n">
         <v>4.296749342412553</v>
@@ -4609,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>12.90439033508301</v>
       </c>
       <c r="H146" t="n">
         <v>7.173453825616434</v>
@@ -4638,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>15.51296901702881</v>
       </c>
       <c r="H147" t="n">
         <v>5.897257849059788</v>
@@ -4667,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>16.9848461151123</v>
       </c>
       <c r="H148" t="n">
         <v>6.59363495933794</v>
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>27.34391784667969</v>
       </c>
       <c r="H149" t="n">
         <v>11.26175307041645</v>
@@ -4725,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>34.97518920898438</v>
       </c>
       <c r="H150" t="n">
         <v>21.16590853922112</v>
@@ -4754,7 +4754,7 @@
         <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>38.10102844238281</v>
       </c>
       <c r="H151" t="n">
         <v>40.41967327539025</v>
@@ -4783,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="G152" t="n">
-        <v>100</v>
+        <v>34.84735107421875</v>
       </c>
       <c r="H152" t="n">
         <v>39.06191939043615</v>
@@ -4812,7 +4812,7 @@
         <v>100</v>
       </c>
       <c r="G153" t="n">
-        <v>100</v>
+        <v>27.06534576416016</v>
       </c>
       <c r="H153" t="n">
         <v>6.684371632937881</v>
@@ -4841,7 +4841,7 @@
         <v>100</v>
       </c>
       <c r="G154" t="n">
-        <v>100</v>
+        <v>21.98090362548828</v>
       </c>
       <c r="H154" t="n">
         <v>4.199979845769421</v>
@@ -4870,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>31.75117301940918</v>
       </c>
       <c r="H155" t="n">
         <v>4.84810399337989</v>
@@ -4899,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>28.76050758361816</v>
       </c>
       <c r="H156" t="n">
         <v>5.3836753872296</v>
@@ -4928,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>29.18349838256836</v>
       </c>
       <c r="H157" t="n">
         <v>5.764442404603849</v>
@@ -4957,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>11.77961254119873</v>
       </c>
       <c r="H158" t="n">
         <v>4.05889659372358</v>
@@ -4986,7 +4986,7 @@
         <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>27.6462574005127</v>
       </c>
       <c r="H159" t="n">
         <v>6.91671381413957</v>
@@ -5015,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>25.47490692138672</v>
       </c>
       <c r="H160" t="n">
         <v>8.205327177179342</v>
@@ -5044,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>22.93010711669922</v>
       </c>
       <c r="H161" t="n">
         <v>8.186657498833034</v>
@@ -5073,7 +5073,7 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>24.15179252624512</v>
       </c>
       <c r="H162" t="n">
         <v>11.52122911934112</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>32.85651397705078</v>
       </c>
       <c r="H163" t="n">
         <v>20.13134200466594</v>
@@ -5131,7 +5131,7 @@
         <v>100</v>
       </c>
       <c r="G164" t="n">
-        <v>100</v>
+        <v>22.44145202636719</v>
       </c>
       <c r="H164" t="n">
         <v>42.11141763309691</v>
@@ -5160,7 +5160,7 @@
         <v>100</v>
       </c>
       <c r="G165" t="n">
-        <v>100</v>
+        <v>29.84837532043457</v>
       </c>
       <c r="H165" t="n">
         <v>42.0156010245766</v>
@@ -5189,7 +5189,7 @@
         <v>100</v>
       </c>
       <c r="G166" t="n">
-        <v>100</v>
+        <v>20.65412139892578</v>
       </c>
       <c r="H166" t="n">
         <v>7.839895557518359</v>
@@ -5218,7 +5218,7 @@
         <v>100</v>
       </c>
       <c r="G167" t="n">
-        <v>100</v>
+        <v>30.85379219055176</v>
       </c>
       <c r="H167" t="n">
         <v>9.19517431525299</v>
@@ -5247,7 +5247,7 @@
         <v>100</v>
       </c>
       <c r="G168" t="n">
-        <v>100</v>
+        <v>32.25296783447266</v>
       </c>
       <c r="H168" t="n">
         <v>7.059977845292225</v>
@@ -5276,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>21.48335647583008</v>
       </c>
       <c r="H169" t="n">
         <v>5.408258337249224</v>
@@ -5305,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>17.94122314453125</v>
       </c>
       <c r="H170" t="n">
         <v>6.401241957091944</v>
@@ -5334,7 +5334,7 @@
         <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>27.70295524597168</v>
       </c>
       <c r="H171" t="n">
         <v>9.958290964567235</v>
@@ -5363,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>25.82162666320801</v>
       </c>
       <c r="H172" t="n">
         <v>13.82424161996467</v>
@@ -5392,7 +5392,7 @@
         <v>2</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>34.22890853881836</v>
       </c>
       <c r="H173" t="n">
         <v>15.10856737871425</v>
@@ -5421,7 +5421,7 @@
         <v>100</v>
       </c>
       <c r="G174" t="n">
-        <v>100</v>
+        <v>27.17200660705566</v>
       </c>
       <c r="H174" t="n">
         <v>27.25505967320341</v>
@@ -5450,7 +5450,7 @@
         <v>100</v>
       </c>
       <c r="G175" t="n">
-        <v>100</v>
+        <v>23.93754577636719</v>
       </c>
       <c r="H175" t="n">
         <v>25.28138456919253</v>
@@ -5479,7 +5479,7 @@
         <v>100</v>
       </c>
       <c r="G176" t="n">
-        <v>100</v>
+        <v>26.03770446777344</v>
       </c>
       <c r="H176" t="n">
         <v>7.965907260886808</v>
@@ -5508,7 +5508,7 @@
         <v>100</v>
       </c>
       <c r="G177" t="n">
-        <v>100</v>
+        <v>34.45971298217773</v>
       </c>
       <c r="H177" t="n">
         <v>10.4700558817256</v>
@@ -5537,7 +5537,7 @@
         <v>100</v>
       </c>
       <c r="G178" t="n">
-        <v>100</v>
+        <v>29.57437896728516</v>
       </c>
       <c r="H178" t="n">
         <v>16.93118479021815</v>
@@ -5566,7 +5566,7 @@
         <v>100</v>
       </c>
       <c r="G179" t="n">
-        <v>100</v>
+        <v>35.53939437866211</v>
       </c>
       <c r="H179" t="n">
         <v>28.26673436747747</v>
@@ -5595,7 +5595,7 @@
         <v>100</v>
       </c>
       <c r="G180" t="n">
-        <v>100</v>
+        <v>26.75092124938965</v>
       </c>
       <c r="H180" t="n">
         <v>27.75628815155564</v>

--- a/output/xyz_age_eros.xlsx
+++ b/output/xyz_age_eros.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,10 +424,10 @@
         <v>747</v>
       </c>
       <c r="D2" t="n">
-        <v>58.90005669357937</v>
+        <v>45.60763444870791</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.069095526446063</v>
+        <v>19.43102165575324</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -453,10 +453,10 @@
         <v>846</v>
       </c>
       <c r="D3" t="n">
-        <v>51.48803461635884</v>
+        <v>47.59416738283687</v>
       </c>
       <c r="E3" t="n">
-        <v>25.3130612700264</v>
+        <v>19.42737511200367</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -482,10 +482,10 @@
         <v>710</v>
       </c>
       <c r="D4" t="n">
-        <v>56.48526276434493</v>
+        <v>45.72022770336734</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5722971895004036</v>
+        <v>18.66251242391871</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -511,10 +511,10 @@
         <v>602</v>
       </c>
       <c r="D5" t="n">
-        <v>49.43667507901199</v>
+        <v>44.1523716110459</v>
       </c>
       <c r="E5" t="n">
-        <v>17.03906511712782</v>
+        <v>18.07830016070586</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -540,10 +540,10 @@
         <v>538</v>
       </c>
       <c r="D6" t="n">
-        <v>45.25973422844431</v>
+        <v>43.1063570649178</v>
       </c>
       <c r="E6" t="n">
-        <v>26.7971498149811</v>
+        <v>17.67929750309685</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         <v>466</v>
       </c>
       <c r="D7" t="n">
-        <v>40.56067577155568</v>
+        <v>42.12301765998353</v>
       </c>
       <c r="E7" t="n">
-        <v>37.77499510006609</v>
+        <v>17.39084321447927</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -598,10 +598,10 @@
         <v>439</v>
       </c>
       <c r="D8" t="n">
-        <v>38.79852885022245</v>
+        <v>41.87413604054564</v>
       </c>
       <c r="E8" t="n">
-        <v>41.89168708197293</v>
+        <v>17.01719825842999</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -627,10 +627,10 @@
         <v>988</v>
       </c>
       <c r="D9" t="n">
-        <v>54.03173197491287</v>
+        <v>50.70314527573909</v>
       </c>
       <c r="E9" t="n">
-        <v>25.70334610076497</v>
+        <v>20.76954073125724</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -656,10 +656,10 @@
         <v>833</v>
       </c>
       <c r="D10" t="n">
-        <v>51.39293132135833</v>
+        <v>48.63635622846261</v>
       </c>
       <c r="E10" t="n">
-        <v>24.82571704800013</v>
+        <v>19.62020612308219</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -685,10 +685,10 @@
         <v>745</v>
       </c>
       <c r="D11" t="n">
-        <v>49.83937870314664</v>
+        <v>47.23964605731595</v>
       </c>
       <c r="E11" t="n">
-        <v>24.50903549255541</v>
+        <v>18.57177300316829</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -714,10 +714,10 @@
         <v>661</v>
       </c>
       <c r="D12" t="n">
-        <v>48.28372392376743</v>
+        <v>45.85015760502893</v>
       </c>
       <c r="E12" t="n">
-        <v>24.44512011149439</v>
+        <v>17.69574379072639</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -743,10 +743,10 @@
         <v>585</v>
       </c>
       <c r="D13" t="n">
-        <v>48.32717516557994</v>
+        <v>44.53227443598602</v>
       </c>
       <c r="E13" t="n">
-        <v>19.6310563649951</v>
+        <v>17.06818977509153</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
@@ -772,10 +772,10 @@
         <v>533</v>
       </c>
       <c r="D14" t="n">
-        <v>44.98985702182708</v>
+        <v>43.490212227203</v>
       </c>
       <c r="E14" t="n">
-        <v>27.74693516673137</v>
+        <v>16.74866965157387</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -801,10 +801,10 @@
         <v>460</v>
       </c>
       <c r="D15" t="n">
-        <v>39.02287569185921</v>
+        <v>42.32022728593206</v>
       </c>
       <c r="E15" t="n">
-        <v>34.8837163731451</v>
+        <v>16.71122906250881</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -830,10 +830,10 @@
         <v>478</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32033622901147</v>
+        <v>42.38962768278077</v>
       </c>
       <c r="E16" t="n">
-        <v>30.86358514612983</v>
+        <v>16.65521167712887</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1436</v>
       </c>
       <c r="D17" t="n">
-        <v>61.52527688271233</v>
+        <v>56.98466714373234</v>
       </c>
       <c r="E17" t="n">
-        <v>28.67739661549356</v>
+        <v>22.86185203089772</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
@@ -888,10 +888,10 @@
         <v>1268</v>
       </c>
       <c r="D18" t="n">
-        <v>58.74933527017846</v>
+        <v>55.01830397550719</v>
       </c>
       <c r="E18" t="n">
-        <v>27.45022357428522</v>
+        <v>21.53732748381474</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
@@ -917,10 +917,10 @@
         <v>1009</v>
       </c>
       <c r="D19" t="n">
-        <v>54.44248076721048</v>
+        <v>51.89715292953728</v>
       </c>
       <c r="E19" t="n">
-        <v>25.64774909607776</v>
+        <v>20.17013205778751</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
@@ -946,10 +946,10 @@
         <v>907</v>
       </c>
       <c r="D20" t="n">
-        <v>52.73258362785814</v>
+        <v>50.38564962762985</v>
       </c>
       <c r="E20" t="n">
-        <v>24.98300436830906</v>
+        <v>18.82237218073075</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -975,10 +975,10 @@
         <v>873</v>
       </c>
       <c r="D21" t="n">
-        <v>54.87416572336625</v>
+        <v>49.57502877847376</v>
       </c>
       <c r="E21" t="n">
-        <v>23.05919429202591</v>
+        <v>17.56614745648739</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
@@ -1004,10 +1004,10 @@
         <v>729</v>
       </c>
       <c r="D22" t="n">
-        <v>52.25988192767981</v>
+        <v>47.47709494499234</v>
       </c>
       <c r="E22" t="n">
-        <v>22.49703387176919</v>
+        <v>16.48905431729458</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -1033,10 +1033,10 @@
         <v>687</v>
       </c>
       <c r="D23" t="n">
-        <v>51.11358855495317</v>
+        <v>46.48890291181115</v>
       </c>
       <c r="E23" t="n">
-        <v>22.93394519838073</v>
+        <v>15.70325165113163</v>
       </c>
       <c r="F23" t="n">
         <v>10</v>
@@ -1062,10 +1062,10 @@
         <v>582</v>
       </c>
       <c r="D24" t="n">
-        <v>49.04718732752324</v>
+        <v>44.76863872760321</v>
       </c>
       <c r="E24" t="n">
-        <v>23.12948329094279</v>
+        <v>15.34476513313707</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         <v>483</v>
       </c>
       <c r="D25" t="n">
-        <v>41.00105232199869</v>
+        <v>43.13303381053434</v>
       </c>
       <c r="E25" t="n">
-        <v>32.96111980931907</v>
+        <v>15.53335888715702</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1120,10 +1120,10 @@
         <v>487</v>
       </c>
       <c r="D26" t="n">
-        <v>41.38870541233857</v>
+        <v>42.69309376979825</v>
       </c>
       <c r="E26" t="n">
-        <v>31.85661999804243</v>
+        <v>16.19729809395563</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1149,10 +1149,10 @@
         <v>620</v>
       </c>
       <c r="D27" t="n">
-        <v>53.50804602428559</v>
+        <v>44.99000596586758</v>
       </c>
       <c r="E27" t="n">
-        <v>29.64174358656163</v>
+        <v>15.35304657906291</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1178,10 +1178,10 @@
         <v>674</v>
       </c>
       <c r="D28" t="n">
-        <v>58.65580401674128</v>
+        <v>47.02742689076158</v>
       </c>
       <c r="E28" t="n">
-        <v>30.36471578703054</v>
+        <v>13.72006395448096</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1207,10 +1207,10 @@
         <v>679</v>
       </c>
       <c r="D29" t="n">
-        <v>59.32340437789728</v>
+        <v>48.4442983930379</v>
       </c>
       <c r="E29" t="n">
-        <v>31.90910253041767</v>
+        <v>12.38067741228955</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1236,10 +1236,10 @@
         <v>728</v>
       </c>
       <c r="D30" t="n">
-        <v>65.17566838187132</v>
+        <v>50.18579068978701</v>
       </c>
       <c r="E30" t="n">
-        <v>47.75950951476311</v>
+        <v>11.33058005108673</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>680</v>
       </c>
       <c r="D31" t="n">
-        <v>60.47840144647847</v>
+        <v>50.72842974835999</v>
       </c>
       <c r="E31" t="n">
-        <v>44.68359516583603</v>
+        <v>10.56073300055048</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1294,10 +1294,10 @@
         <v>1524</v>
       </c>
       <c r="D32" t="n">
-        <v>62.98318403123496</v>
+        <v>59.07604106822206</v>
       </c>
       <c r="E32" t="n">
-        <v>29.30760577492047</v>
+        <v>22.64614587956767</v>
       </c>
       <c r="F32" t="n">
         <v>10</v>
@@ -1323,10 +1323,10 @@
         <v>1242</v>
       </c>
       <c r="D33" t="n">
-        <v>58.34342623793323</v>
+        <v>55.88408740028932</v>
       </c>
       <c r="E33" t="n">
-        <v>27.18261169235122</v>
+        <v>21.1413721698212</v>
       </c>
       <c r="F33" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
         <v>1112</v>
       </c>
       <c r="D34" t="n">
-        <v>58.83471761141278</v>
+        <v>54.15497195897515</v>
       </c>
       <c r="E34" t="n">
-        <v>24.52596677905642</v>
+        <v>19.55869845887957</v>
       </c>
       <c r="F34" t="n">
         <v>10</v>
@@ -1381,10 +1381,10 @@
         <v>964</v>
       </c>
       <c r="D35" t="n">
-        <v>56.59316160964742</v>
+        <v>52.13102817195974</v>
       </c>
       <c r="E35" t="n">
-        <v>23.28785172602787</v>
+        <v>17.96771869418003</v>
       </c>
       <c r="F35" t="n">
         <v>10</v>
@@ -1410,10 +1410,10 @@
         <v>811</v>
       </c>
       <c r="D36" t="n">
-        <v>54.09674524158005</v>
+        <v>49.97758131413687</v>
       </c>
       <c r="E36" t="n">
-        <v>22.1800678215347</v>
+        <v>16.4393028506509</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1439,10 +1439,10 @@
         <v>704</v>
       </c>
       <c r="D37" t="n">
-        <v>52.11128339776473</v>
+        <v>48.30330581686204</v>
       </c>
       <c r="E37" t="n">
-        <v>21.65259137657659</v>
+        <v>15.0566723144571</v>
       </c>
       <c r="F37" t="n">
         <v>10</v>
@@ -1468,10 +1468,10 @@
         <v>647</v>
       </c>
       <c r="D38" t="n">
-        <v>50.74118194774238</v>
+        <v>47.17188232367273</v>
       </c>
       <c r="E38" t="n">
-        <v>21.78437667383783</v>
+        <v>13.9400434885649</v>
       </c>
       <c r="F38" t="n">
         <v>10</v>
@@ -1497,10 +1497,10 @@
         <v>579</v>
       </c>
       <c r="D39" t="n">
-        <v>48.64813040039559</v>
+        <v>45.90654403399754</v>
       </c>
       <c r="E39" t="n">
-        <v>22.91194110055368</v>
+        <v>13.27373519531116</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1526,10 +1526,10 @@
         <v>518</v>
       </c>
       <c r="D40" t="n">
-        <v>44.05672279682485</v>
+        <v>44.77440915622059</v>
       </c>
       <c r="E40" t="n">
-        <v>32.08802141379034</v>
+        <v>13.25965397343004</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -1555,10 +1555,10 @@
         <v>495</v>
       </c>
       <c r="D41" t="n">
-        <v>44.06479212383771</v>
+        <v>44.29484527771456</v>
       </c>
       <c r="E41" t="n">
-        <v>28.76205853890298</v>
+        <v>13.74912799608075</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1584,10 +1584,10 @@
         <v>518</v>
       </c>
       <c r="D42" t="n">
-        <v>45.46590391361262</v>
+        <v>45.3800560883454</v>
       </c>
       <c r="E42" t="n">
-        <v>34.88329665726972</v>
+        <v>13.2279690151683</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1613,10 +1613,10 @@
         <v>576</v>
       </c>
       <c r="D43" t="n">
-        <v>43.66238553881107</v>
+        <v>47.52606580441275</v>
       </c>
       <c r="E43" t="n">
-        <v>31.11202271790586</v>
+        <v>11.97613884901209</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1642,10 +1642,10 @@
         <v>675</v>
       </c>
       <c r="D44" t="n">
-        <v>58.92399993999958</v>
+        <v>50.08213806425286</v>
       </c>
       <c r="E44" t="n">
-        <v>31.8391514466125</v>
+        <v>10.85938464644349</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -1671,10 +1671,10 @@
         <v>702</v>
       </c>
       <c r="D45" t="n">
-        <v>61.8280673786782</v>
+        <v>51.68092102324086</v>
       </c>
       <c r="E45" t="n">
-        <v>34.57659859618474</v>
+        <v>9.954170449975074</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -1700,10 +1700,10 @@
         <v>688</v>
       </c>
       <c r="D46" t="n">
-        <v>60.67019573823801</v>
+        <v>52.6515176607942</v>
       </c>
       <c r="E46" t="n">
-        <v>36.00705243008012</v>
+        <v>9.293131901728231</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1729,10 +1729,10 @@
         <v>776</v>
       </c>
       <c r="D47" t="n">
-        <v>71.15009980656626</v>
+        <v>54.44680164402465</v>
       </c>
       <c r="E47" t="n">
-        <v>59.32052319783052</v>
+        <v>8.927851134086257</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1758,10 +1758,10 @@
         <v>789</v>
       </c>
       <c r="D48" t="n">
-        <v>72.82053642714209</v>
+        <v>55.18771682503763</v>
       </c>
       <c r="E48" t="n">
-        <v>62.79950485582383</v>
+        <v>8.906510665013705</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1787,10 +1787,10 @@
         <v>1807</v>
       </c>
       <c r="D49" t="n">
-        <v>67.68479745744789</v>
+        <v>63.20823954509131</v>
       </c>
       <c r="E49" t="n">
-        <v>31.29130477112243</v>
+        <v>24.01653371811811</v>
       </c>
       <c r="F49" t="n">
         <v>10</v>
@@ -1816,10 +1816,10 @@
         <v>1522</v>
       </c>
       <c r="D50" t="n">
-        <v>63.71335166971257</v>
+        <v>60.34632321813128</v>
       </c>
       <c r="E50" t="n">
-        <v>26.79116523740287</v>
+        <v>22.50341842765622</v>
       </c>
       <c r="F50" t="n">
         <v>10</v>
@@ -1845,10 +1845,10 @@
         <v>1358</v>
       </c>
       <c r="D51" t="n">
-        <v>60.2777390948865</v>
+        <v>58.39963160094261</v>
       </c>
       <c r="E51" t="n">
-        <v>27.97228096187653</v>
+        <v>20.78799411483809</v>
       </c>
       <c r="F51" t="n">
         <v>10</v>
@@ -1874,10 +1874,10 @@
         <v>1164</v>
       </c>
       <c r="D52" t="n">
-        <v>59.69565211116947</v>
+        <v>55.964938723615</v>
       </c>
       <c r="E52" t="n">
-        <v>24.80936552129555</v>
+        <v>18.96281537237457</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -1903,10 +1903,10 @@
         <v>1001</v>
       </c>
       <c r="D53" t="n">
-        <v>57.33842973562029</v>
+        <v>53.79120693576707</v>
       </c>
       <c r="E53" t="n">
-        <v>23.27453361144784</v>
+        <v>17.10537681717835</v>
       </c>
       <c r="F53" t="n">
         <v>10</v>
@@ -1932,10 +1932,10 @@
         <v>849</v>
       </c>
       <c r="D54" t="n">
-        <v>54.96872145908407</v>
+        <v>51.69177734472748</v>
       </c>
       <c r="E54" t="n">
-        <v>21.92467669423574</v>
+        <v>15.27261653571707</v>
       </c>
       <c r="F54" t="n">
         <v>10</v>
@@ -1961,10 +1961,10 @@
         <v>723</v>
       </c>
       <c r="D55" t="n">
-        <v>52.79436361957807</v>
+        <v>49.85914337919315</v>
       </c>
       <c r="E55" t="n">
-        <v>20.89376468307362</v>
+        <v>13.51532502104894</v>
       </c>
       <c r="F55" t="n">
         <v>10</v>
@@ -1990,10 +1990,10 @@
         <v>656</v>
       </c>
       <c r="D56" t="n">
-        <v>47.39542160264209</v>
+        <v>48.70061903531859</v>
       </c>
       <c r="E56" t="n">
-        <v>31.572290075491</v>
+        <v>11.91069308340526</v>
       </c>
       <c r="F56" t="n">
         <v>10</v>
@@ -2019,10 +2019,10 @@
         <v>584</v>
       </c>
       <c r="D57" t="n">
-        <v>46.73157650886473</v>
+        <v>47.51608186293072</v>
       </c>
       <c r="E57" t="n">
-        <v>28.24632720060362</v>
+        <v>10.63942382637843</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2048,10 +2048,10 @@
         <v>533</v>
       </c>
       <c r="D58" t="n">
-        <v>46.35569473828317</v>
+        <v>46.76618425783243</v>
       </c>
       <c r="E58" t="n">
-        <v>24.92036432571625</v>
+        <v>10.06035965232883</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2077,10 +2077,10 @@
         <v>546</v>
       </c>
       <c r="D59" t="n">
-        <v>47.14011275701919</v>
+        <v>47.17049897558863</v>
       </c>
       <c r="E59" t="n">
-        <v>25.04637938844982</v>
+        <v>10.19652839444606</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2106,10 +2106,10 @@
         <v>528</v>
       </c>
       <c r="D60" t="n">
-        <v>48.04197988670371</v>
+        <v>47.82866626189362</v>
       </c>
       <c r="E60" t="n">
-        <v>31.91952349034378</v>
+        <v>10.21884009935322</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2135,10 +2135,10 @@
         <v>538</v>
       </c>
       <c r="D61" t="n">
-        <v>49.32029506038263</v>
+        <v>49.238099951106</v>
       </c>
       <c r="E61" t="n">
-        <v>38.79266759223775</v>
+        <v>9.778493895300016</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2164,10 +2164,10 @@
         <v>557</v>
       </c>
       <c r="D62" t="n">
-        <v>48.26201024692917</v>
+        <v>50.85272966352625</v>
       </c>
       <c r="E62" t="n">
-        <v>38.09042913500609</v>
+        <v>9.128923141453338</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -2193,10 +2193,10 @@
         <v>585</v>
       </c>
       <c r="D63" t="n">
-        <v>45.51199144624584</v>
+        <v>52.4913948638734</v>
       </c>
       <c r="E63" t="n">
-        <v>32.4243649134026</v>
+        <v>8.472414140203206</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -2222,10 +2222,10 @@
         <v>623</v>
       </c>
       <c r="D64" t="n">
-        <v>42.90863525349494</v>
+        <v>54.07370810484337</v>
       </c>
       <c r="E64" t="n">
-        <v>28.13677138417485</v>
+        <v>7.948101887780567</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -2251,10 +2251,10 @@
         <v>688</v>
       </c>
       <c r="D65" t="n">
-        <v>61.02682213564029</v>
+        <v>55.70999601465935</v>
       </c>
       <c r="E65" t="n">
-        <v>39.11103595703274</v>
+        <v>7.696307409810103</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -2280,10 +2280,10 @@
         <v>799</v>
       </c>
       <c r="D66" t="n">
-        <v>74.25063487530593</v>
+        <v>57.51053979270987</v>
       </c>
       <c r="E66" t="n">
-        <v>66.43995923951222</v>
+        <v>7.850484743749284</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -2309,10 +2309,10 @@
         <v>1693</v>
       </c>
       <c r="D67" t="n">
-        <v>66.09621914235376</v>
+        <v>63.49462097196261</v>
       </c>
       <c r="E67" t="n">
-        <v>29.49124895763461</v>
+        <v>24.13843773696987</v>
       </c>
       <c r="F67" t="n">
         <v>10</v>
@@ -2338,10 +2338,10 @@
         <v>1505</v>
       </c>
       <c r="D68" t="n">
-        <v>63.47645841219853</v>
+        <v>61.49222231394254</v>
       </c>
       <c r="E68" t="n">
-        <v>26.52273586170732</v>
+        <v>22.44042097277482</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2367,10 +2367,10 @@
         <v>1267</v>
       </c>
       <c r="D69" t="n">
-        <v>61.17178243087079</v>
+        <v>58.63231526402997</v>
       </c>
       <c r="E69" t="n">
-        <v>25.77748151064072</v>
+        <v>20.47691435691802</v>
       </c>
       <c r="F69" t="n">
         <v>10</v>
@@ -2396,10 +2396,10 @@
         <v>1099</v>
       </c>
       <c r="D70" t="n">
-        <v>58.93387984054084</v>
+        <v>56.46193295552295</v>
       </c>
       <c r="E70" t="n">
-        <v>24.04103845284669</v>
+        <v>18.39913159256242</v>
       </c>
       <c r="F70" t="n">
         <v>10</v>
@@ -2425,10 +2425,10 @@
         <v>1003</v>
       </c>
       <c r="D71" t="n">
-        <v>58.51496863702624</v>
+        <v>55.12128647202964</v>
       </c>
       <c r="E71" t="n">
-        <v>21.63694501396981</v>
+        <v>16.29122481882216</v>
       </c>
       <c r="F71" t="n">
         <v>10</v>
@@ -2454,10 +2454,10 @@
         <v>884</v>
       </c>
       <c r="D72" t="n">
-        <v>51.96824893644133</v>
+        <v>53.50913903211006</v>
       </c>
       <c r="E72" t="n">
-        <v>31.05655873719165</v>
+        <v>14.18733893389331</v>
       </c>
       <c r="F72" t="n">
         <v>10</v>
@@ -2483,10 +2483,10 @@
         <v>743</v>
       </c>
       <c r="D73" t="n">
-        <v>50.35823863787777</v>
+        <v>51.6242531477521</v>
       </c>
       <c r="E73" t="n">
-        <v>27.73059586230428</v>
+        <v>12.09084019556903</v>
       </c>
       <c r="F73" t="n">
         <v>10</v>
@@ -2512,10 +2512,10 @@
         <v>665</v>
       </c>
       <c r="D74" t="n">
-        <v>49.6121183089016</v>
+        <v>50.47878088299449</v>
       </c>
       <c r="E74" t="n">
-        <v>24.4046329874169</v>
+        <v>9.988904144341703</v>
       </c>
       <c r="F74" t="n">
         <v>10</v>
@@ -2541,10 +2541,10 @@
         <v>597</v>
       </c>
       <c r="D75" t="n">
-        <v>49.00312337192345</v>
+        <v>49.47069833664457</v>
       </c>
       <c r="E75" t="n">
-        <v>21.07867011252953</v>
+        <v>7.915621339912306</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>564</v>
       </c>
       <c r="D76" t="n">
-        <v>48.87406730693829</v>
+        <v>49.10853524713251</v>
       </c>
       <c r="E76" t="n">
-        <v>17.75270723764215</v>
+        <v>6.529704526034582</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>630</v>
       </c>
       <c r="D77" t="n">
-        <v>50.87274822215764</v>
+        <v>50.48513627569772</v>
       </c>
       <c r="E77" t="n">
-        <v>22.08260622152387</v>
+        <v>7.020650996724029</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>602</v>
       </c>
       <c r="D78" t="n">
-        <v>51.478508531782</v>
+        <v>51.14994034143915</v>
       </c>
       <c r="E78" t="n">
-        <v>28.95575032341783</v>
+        <v>7.655048374617738</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -2657,10 +2657,10 @@
         <v>552</v>
       </c>
       <c r="D79" t="n">
-        <v>51.95014932547292</v>
+        <v>51.79720684848667</v>
       </c>
       <c r="E79" t="n">
-        <v>35.82889442531181</v>
+        <v>7.797880851947482</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -2686,10 +2686,10 @@
         <v>567</v>
       </c>
       <c r="D80" t="n">
-        <v>53.29568736415084</v>
+        <v>53.28483591782673</v>
       </c>
       <c r="E80" t="n">
-        <v>42.70203852720577</v>
+        <v>7.554532764871141</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -2715,10 +2715,10 @@
         <v>604</v>
       </c>
       <c r="D81" t="n">
-        <v>53.46736847424279</v>
+        <v>54.9976152639428</v>
       </c>
       <c r="E81" t="n">
-        <v>45.06883555210634</v>
+        <v>7.116737194780534</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -2744,10 +2744,10 @@
         <v>618</v>
       </c>
       <c r="D82" t="n">
-        <v>50.58886074524527</v>
+        <v>56.34136630512467</v>
       </c>
       <c r="E82" t="n">
-        <v>39.40277133050283</v>
+        <v>6.675092241598335</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -2773,10 +2773,10 @@
         <v>689</v>
       </c>
       <c r="D83" t="n">
-        <v>48.23348651009847</v>
+        <v>58.10993541803284</v>
       </c>
       <c r="E83" t="n">
-        <v>33.73670710889933</v>
+        <v>6.460378547299847</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -2802,10 +2802,10 @@
         <v>784</v>
       </c>
       <c r="D84" t="n">
-        <v>46.09837900920458</v>
+        <v>59.81438450480098</v>
       </c>
       <c r="E84" t="n">
-        <v>28.07064288729583</v>
+        <v>6.750669353714311</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -2831,10 +2831,10 @@
         <v>861</v>
       </c>
       <c r="D85" t="n">
-        <v>44.59058123938357</v>
+        <v>60.91690565007718</v>
       </c>
       <c r="E85" t="n">
-        <v>27.63067163671888</v>
+        <v>7.717463210556879</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -2860,10 +2860,10 @@
         <v>904</v>
       </c>
       <c r="D86" t="n">
-        <v>86.20352774750462</v>
+        <v>61.23626566636538</v>
       </c>
       <c r="E86" t="n">
-        <v>63.0378813726112</v>
+        <v>9.231299856552312</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -2889,10 +2889,10 @@
         <v>893</v>
       </c>
       <c r="D87" t="n">
-        <v>84.95056297834036</v>
+        <v>60.59462322123618</v>
       </c>
       <c r="E87" t="n">
-        <v>59.02483666221482</v>
+        <v>10.96771296044583</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -2918,10 +2918,10 @@
         <v>1021</v>
       </c>
       <c r="D88" t="n">
-        <v>67.34423942295334</v>
+        <v>60.82326134718399</v>
       </c>
       <c r="E88" t="n">
-        <v>58.78706811085049</v>
+        <v>12.63304752749598</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -2947,10 +2947,10 @@
         <v>1099</v>
       </c>
       <c r="D89" t="n">
-        <v>65.04565599522024</v>
+        <v>60.14691657942002</v>
       </c>
       <c r="E89" t="n">
-        <v>57.86146083654321</v>
+        <v>14.03254247558505</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -2976,10 +2976,10 @@
         <v>1757</v>
       </c>
       <c r="D90" t="n">
-        <v>66.9880525824066</v>
+        <v>65.58127056755808</v>
       </c>
       <c r="E90" t="n">
-        <v>30.50180660731198</v>
+        <v>24.38827786931905</v>
       </c>
       <c r="F90" t="n">
         <v>10</v>
@@ -3005,10 +3005,10 @@
         <v>1451</v>
       </c>
       <c r="D91" t="n">
-        <v>64.81824186926551</v>
+        <v>62.1268671281709</v>
       </c>
       <c r="E91" t="n">
-        <v>25.54866083401897</v>
+        <v>22.4134362782681</v>
       </c>
       <c r="F91" t="n">
         <v>10</v>
@@ -3034,10 +3034,10 @@
         <v>1247</v>
       </c>
       <c r="D92" t="n">
-        <v>61.00890908218634</v>
+        <v>59.55597634230416</v>
       </c>
       <c r="E92" t="n">
-        <v>25.49116933159991</v>
+        <v>20.15797347865477</v>
       </c>
       <c r="F92" t="n">
         <v>10</v>
@@ -3063,10 +3063,10 @@
         <v>1111</v>
       </c>
       <c r="D93" t="n">
-        <v>56.52736373104077</v>
+        <v>57.79720087347719</v>
       </c>
       <c r="E93" t="n">
-        <v>30.5408273988923</v>
+        <v>17.85077008534714</v>
       </c>
       <c r="F93" t="n">
         <v>10</v>
@@ -3092,10 +3092,10 @@
         <v>932</v>
       </c>
       <c r="D94" t="n">
-        <v>54.3962769428848</v>
+        <v>55.57278756314048</v>
       </c>
       <c r="E94" t="n">
-        <v>27.21486452400493</v>
+        <v>15.55830133981076</v>
       </c>
       <c r="F94" t="n">
         <v>10</v>
@@ -3121,10 +3121,10 @@
         <v>864</v>
       </c>
       <c r="D95" t="n">
-        <v>53.78728200590665</v>
+        <v>54.73383102562305</v>
       </c>
       <c r="E95" t="n">
-        <v>23.88890164911755</v>
+        <v>13.29135737699043</v>
       </c>
       <c r="F95" t="n">
         <v>10</v>
@@ -3150,10 +3150,10 @@
         <v>763</v>
       </c>
       <c r="D96" t="n">
-        <v>52.72577327533509</v>
+        <v>53.53158106800988</v>
       </c>
       <c r="E96" t="n">
-        <v>20.56293877423018</v>
+        <v>11.02890107130808</v>
       </c>
       <c r="F96" t="n">
         <v>10</v>
@@ -3179,10 +3179,10 @@
         <v>690</v>
       </c>
       <c r="D97" t="n">
-        <v>52.04821564235793</v>
+        <v>52.6751239484434</v>
       </c>
       <c r="E97" t="n">
-        <v>17.2369758993428</v>
+        <v>8.718723286140829</v>
       </c>
       <c r="F97" t="n">
         <v>10</v>
@@ -3208,10 +3208,10 @@
         <v>616</v>
       </c>
       <c r="D98" t="n">
-        <v>51.40610623650731</v>
+        <v>51.80181597800428</v>
       </c>
       <c r="E98" t="n">
-        <v>14.76231871566671</v>
+        <v>6.286384407374776</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>618</v>
       </c>
       <c r="D99" t="n">
-        <v>51.86807676007108</v>
+        <v>51.96140604101422</v>
       </c>
       <c r="E99" t="n">
-        <v>13.01014721642893</v>
+        <v>4.196620051006388</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>783</v>
       </c>
       <c r="D100" t="n">
-        <v>56.07867121924086</v>
+        <v>54.8159656008729</v>
       </c>
       <c r="E100" t="n">
-        <v>19.12384319327308</v>
+        <v>5.218826013175317</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3295,10 +3295,10 @@
         <v>716</v>
       </c>
       <c r="D101" t="n">
-        <v>55.89840886975406</v>
+        <v>55.04435964801336</v>
       </c>
       <c r="E101" t="n">
-        <v>25.99197715649189</v>
+        <v>6.119039579298978</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>591</v>
       </c>
       <c r="D102" t="n">
-        <v>54.91611791555822</v>
+        <v>54.74867349822602</v>
       </c>
       <c r="E102" t="n">
-        <v>32.86512125838586</v>
+        <v>6.518062115993011</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -3353,10 +3353,10 @@
         <v>580</v>
       </c>
       <c r="D103" t="n">
-        <v>55.91209705624134</v>
+        <v>55.86000108778447</v>
       </c>
       <c r="E103" t="n">
-        <v>39.73826536027983</v>
+        <v>6.492557053081814</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -3382,10 +3382,10 @@
         <v>611</v>
       </c>
       <c r="D104" t="n">
-        <v>57.47274826291606</v>
+        <v>57.47764522059322</v>
       </c>
       <c r="E104" t="n">
-        <v>46.6114094621738</v>
+        <v>6.168034823483254</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -3411,10 +3411,10 @@
         <v>662</v>
       </c>
       <c r="D105" t="n">
-        <v>58.77339160947849</v>
+        <v>59.27001549077248</v>
       </c>
       <c r="E105" t="n">
-        <v>52.04724196920657</v>
+        <v>5.699288954196113</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -3440,10 +3440,10 @@
         <v>705</v>
       </c>
       <c r="D106" t="n">
-        <v>56.16133019631381</v>
+        <v>60.82235037942115</v>
       </c>
       <c r="E106" t="n">
-        <v>46.38117774760308</v>
+        <v>5.34905079871848</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -3469,10 +3469,10 @@
         <v>761</v>
       </c>
       <c r="D107" t="n">
-        <v>53.6682892522589</v>
+        <v>62.22192994060308</v>
       </c>
       <c r="E107" t="n">
-        <v>40.71511352599958</v>
+        <v>5.629986240534443</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -3498,10 +3498,10 @@
         <v>775</v>
       </c>
       <c r="D108" t="n">
-        <v>50.78978152326138</v>
+        <v>62.73528582473295</v>
       </c>
       <c r="E108" t="n">
-        <v>35.04904930439606</v>
+        <v>7.041802275564294</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -3527,10 +3527,10 @@
         <v>809</v>
       </c>
       <c r="D109" t="n">
-        <v>48.09482940614131</v>
+        <v>62.96372495972534</v>
       </c>
       <c r="E109" t="n">
-        <v>29.38298508279257</v>
+        <v>9.281350236252873</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -3556,10 +3556,10 @@
         <v>859</v>
       </c>
       <c r="D110" t="n">
-        <v>45.54672177852317</v>
+        <v>62.84591181135556</v>
       </c>
       <c r="E110" t="n">
-        <v>23.71692086118906</v>
+        <v>11.68986139632394</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -3585,10 +3585,10 @@
         <v>969</v>
       </c>
       <c r="D111" t="n">
-        <v>44.92004210850916</v>
+        <v>62.77041107380999</v>
       </c>
       <c r="E111" t="n">
-        <v>27.12457188926285</v>
+        <v>13.87442785890357</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -3614,10 +3614,10 @@
         <v>1015</v>
       </c>
       <c r="D112" t="n">
-        <v>67.91609167462794</v>
+        <v>61.57001449990818</v>
       </c>
       <c r="E112" t="n">
-        <v>58.82168466795333</v>
+        <v>15.64752281973701</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -3643,10 +3643,10 @@
         <v>1118</v>
       </c>
       <c r="D113" t="n">
-        <v>64.35294314348397</v>
+        <v>60.43030660425578</v>
       </c>
       <c r="E113" t="n">
-        <v>57.64829098389568</v>
+        <v>16.91138044888476</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>1880</v>
       </c>
       <c r="D114" t="n">
-        <v>68.70204497500816</v>
+        <v>68.1936686017319</v>
       </c>
       <c r="E114" t="n">
-        <v>32.44397209028568</v>
+        <v>24.70308460752468</v>
       </c>
       <c r="F114" t="n">
         <v>10</v>
@@ -3701,10 +3701,10 @@
         <v>1456</v>
       </c>
       <c r="D115" t="n">
-        <v>62.7045581512166</v>
+        <v>63.13754885708691</v>
       </c>
       <c r="E115" t="n">
-        <v>30.02509606059295</v>
+        <v>22.21247739476004</v>
       </c>
       <c r="F115" t="n">
         <v>10</v>
@@ -3730,10 +3730,10 @@
         <v>1285</v>
       </c>
       <c r="D116" t="n">
-        <v>60.72688338923741</v>
+        <v>60.95309091715196</v>
       </c>
       <c r="E116" t="n">
-        <v>27.45607886559068</v>
+        <v>19.70438110881858</v>
       </c>
       <c r="F116" t="n">
         <v>10</v>
@@ -3759,10 +3759,10 @@
         <v>1111</v>
       </c>
       <c r="D117" t="n">
-        <v>58.73760414667989</v>
+        <v>58.84074823927075</v>
       </c>
       <c r="E117" t="n">
-        <v>25.39848021639498</v>
+        <v>17.25980225104257</v>
       </c>
       <c r="F117" t="n">
         <v>10</v>
@@ -3788,10 +3788,10 @@
         <v>994</v>
       </c>
       <c r="D118" t="n">
-        <v>57.52993963851098</v>
+        <v>57.52756800257124</v>
       </c>
       <c r="E118" t="n">
-        <v>23.34088156719927</v>
+        <v>14.89330838330535</v>
       </c>
       <c r="F118" t="n">
         <v>10</v>
@@ -3817,10 +3817,10 @@
         <v>912</v>
       </c>
       <c r="D119" t="n">
-        <v>56.80221400233505</v>
+        <v>56.74371534398605</v>
       </c>
       <c r="E119" t="n">
-        <v>21.28328291800355</v>
+        <v>12.61057477400942</v>
       </c>
       <c r="F119" t="n">
         <v>10</v>
@@ -3846,10 +3846,10 @@
         <v>780</v>
       </c>
       <c r="D120" t="n">
-        <v>55.38886140616913</v>
+        <v>55.45300234279878</v>
       </c>
       <c r="E120" t="n">
-        <v>19.22568426880784</v>
+        <v>10.41147329641037</v>
       </c>
       <c r="F120" t="n">
         <v>10</v>
@@ -3875,10 +3875,10 @@
         <v>702</v>
       </c>
       <c r="D121" t="n">
-        <v>54.71598592679242</v>
+        <v>54.86664847816053</v>
       </c>
       <c r="E121" t="n">
-        <v>17.16808561961214</v>
+        <v>8.305574651491614</v>
       </c>
       <c r="F121" t="n">
         <v>10</v>
@@ -3904,10 +3904,10 @@
         <v>640</v>
       </c>
       <c r="D122" t="n">
-        <v>54.2625110746125</v>
+        <v>54.51899000187808</v>
       </c>
       <c r="E122" t="n">
-        <v>15.11048697041643</v>
+        <v>6.405819854570428</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>631</v>
       </c>
       <c r="D123" t="n">
-        <v>54.55092186683574</v>
+        <v>54.94590289809385</v>
       </c>
       <c r="E123" t="n">
-        <v>13.05288832122072</v>
+        <v>5.23804872534506</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3962,10 +3962,10 @@
         <v>748</v>
       </c>
       <c r="D124" t="n">
-        <v>57.70056465730117</v>
+        <v>57.113922521539</v>
       </c>
       <c r="E124" t="n">
-        <v>19.09330515977534</v>
+        <v>5.2935439222193</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>782</v>
       </c>
       <c r="D125" t="n">
-        <v>59.45286111565704</v>
+        <v>58.41599118133298</v>
       </c>
       <c r="E125" t="n">
-        <v>25.2070011366195</v>
+        <v>5.79251187870458</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4020,10 +4020,10 @@
         <v>630</v>
       </c>
       <c r="D126" t="n">
-        <v>57.92334095251518</v>
+        <v>57.68456035302772</v>
       </c>
       <c r="E126" t="n">
-        <v>31.32069711346365</v>
+        <v>6.133587287081809</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4049,10 +4049,10 @@
         <v>647</v>
       </c>
       <c r="D127" t="n">
-        <v>59.27733430610559</v>
+        <v>59.01682424765519</v>
       </c>
       <c r="E127" t="n">
-        <v>37.43439309030781</v>
+        <v>6.172820192716753</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4078,10 +4078,10 @@
         <v>608</v>
       </c>
       <c r="D128" t="n">
-        <v>59.87404478700974</v>
+        <v>59.79382128141469</v>
       </c>
       <c r="E128" t="n">
-        <v>43.64763629524784</v>
+        <v>5.904511630599512</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -4107,10 +4107,10 @@
         <v>659</v>
       </c>
       <c r="D129" t="n">
-        <v>61.70358745368048</v>
+        <v>61.64750291212881</v>
       </c>
       <c r="E129" t="n">
-        <v>50.5207803971418</v>
+        <v>5.365842951283753</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -4136,10 +4136,10 @@
         <v>689</v>
       </c>
       <c r="D130" t="n">
-        <v>63.25079408735539</v>
+        <v>63.20850491498651</v>
       </c>
       <c r="E130" t="n">
-        <v>57.39392449903576</v>
+        <v>4.680017111364627</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -4165,10 +4165,10 @@
         <v>737</v>
       </c>
       <c r="D131" t="n">
-        <v>61.22902171471936</v>
+        <v>64.7375228640626</v>
       </c>
       <c r="E131" t="n">
-        <v>53.35958416470331</v>
+        <v>4.51332226079635</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -4194,10 +4194,10 @@
         <v>776</v>
       </c>
       <c r="D132" t="n">
-        <v>58.57995850056864</v>
+        <v>65.59515336082187</v>
       </c>
       <c r="E132" t="n">
-        <v>47.69351994309981</v>
+        <v>6.642326296125052</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         <v>806</v>
       </c>
       <c r="D133" t="n">
-        <v>55.84829526107306</v>
+        <v>65.78405847127938</v>
       </c>
       <c r="E133" t="n">
-        <v>42.02745572149631</v>
+        <v>9.944374109818821</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -4252,10 +4252,10 @@
         <v>837</v>
       </c>
       <c r="D134" t="n">
-        <v>53.12580980217137</v>
+        <v>65.43507575823682</v>
       </c>
       <c r="E134" t="n">
-        <v>36.36139149989281</v>
+        <v>13.08268029208758</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -4281,10 +4281,10 @@
         <v>903</v>
       </c>
       <c r="D135" t="n">
-        <v>50.7245466640552</v>
+        <v>64.82086305101113</v>
       </c>
       <c r="E135" t="n">
-        <v>30.69532727828931</v>
+        <v>15.75305787084991</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -4310,10 +4310,10 @@
         <v>992</v>
       </c>
       <c r="D136" t="n">
-        <v>48.5343724795981</v>
+        <v>63.76787010940215</v>
       </c>
       <c r="E136" t="n">
-        <v>25.0292630566858</v>
+        <v>17.8528829645959</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -4339,10 +4339,10 @@
         <v>1091</v>
       </c>
       <c r="D137" t="n">
-        <v>46.4359761010797</v>
+        <v>62.20222179299873</v>
       </c>
       <c r="E137" t="n">
-        <v>19.3631988350823</v>
+        <v>19.32928345023117</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -4368,10 +4368,10 @@
         <v>1141</v>
       </c>
       <c r="D138" t="n">
-        <v>45.91534180434886</v>
+        <v>59.79252089804422</v>
       </c>
       <c r="E138" t="n">
-        <v>26.61847214180683</v>
+        <v>20.14336192831802</v>
       </c>
       <c r="F138" t="n">
         <v>2</v>
@@ -4397,10 +4397,10 @@
         <v>1235</v>
       </c>
       <c r="D139" t="n">
-        <v>63.42312283002015</v>
+        <v>57.56299019894998</v>
       </c>
       <c r="E139" t="n">
-        <v>48.45624525728044</v>
+        <v>20.25194301497099</v>
       </c>
       <c r="F139" t="n">
         <v>2</v>
@@ -4426,10 +4426,10 @@
         <v>1540</v>
       </c>
       <c r="D140" t="n">
-        <v>65.4671463152452</v>
+        <v>64.55182289499044</v>
       </c>
       <c r="E140" t="n">
-        <v>29.55318420819881</v>
+        <v>21.45231618834591</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4455,10 +4455,10 @@
         <v>1310</v>
       </c>
       <c r="D141" t="n">
-        <v>63.59700076654239</v>
+        <v>61.85863742097293</v>
       </c>
       <c r="E141" t="n">
-        <v>27.8042471203404</v>
+        <v>18.9860049093854</v>
       </c>
       <c r="F141" t="n">
         <v>10</v>
@@ -4484,10 +4484,10 @@
         <v>1120</v>
       </c>
       <c r="D142" t="n">
-        <v>61.38832089678809</v>
+        <v>59.75015145313772</v>
       </c>
       <c r="E142" t="n">
-        <v>25.74664847114469</v>
+        <v>16.56417418911208</v>
       </c>
       <c r="F142" t="n">
         <v>10</v>
@@ -4513,10 +4513,10 @@
         <v>964</v>
       </c>
       <c r="D143" t="n">
-        <v>59.64586735982697</v>
+        <v>58.19693659973737</v>
       </c>
       <c r="E143" t="n">
-        <v>23.68904982194898</v>
+        <v>14.24545392789743</v>
       </c>
       <c r="F143" t="n">
         <v>10</v>
@@ -4542,10 +4542,10 @@
         <v>882</v>
       </c>
       <c r="D144" t="n">
-        <v>58.91814172365104</v>
+        <v>57.68459485064537</v>
       </c>
       <c r="E144" t="n">
-        <v>21.63145117275327</v>
+        <v>12.07241502837184</v>
       </c>
       <c r="F144" t="n">
         <v>10</v>
@@ -4571,10 +4571,10 @@
         <v>793</v>
       </c>
       <c r="D145" t="n">
-        <v>58.09442831307653</v>
+        <v>57.24040617640259</v>
       </c>
       <c r="E145" t="n">
-        <v>19.57385252355756</v>
+        <v>10.09352051235842</v>
       </c>
       <c r="F145" t="n">
         <v>10</v>
@@ -4600,10 +4600,10 @@
         <v>723</v>
       </c>
       <c r="D146" t="n">
-        <v>57.53125314729821</v>
+        <v>57.13989400406751</v>
       </c>
       <c r="E146" t="n">
-        <v>17.51625387436185</v>
+        <v>8.37963507384244</v>
       </c>
       <c r="F146" t="n">
         <v>10</v>
@@ -4629,10 +4629,10 @@
         <v>676</v>
       </c>
       <c r="D147" t="n">
-        <v>57.28346638311528</v>
+        <v>57.37716345411435</v>
       </c>
       <c r="E147" t="n">
-        <v>15.45865522516614</v>
+        <v>7.05523816739997</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4658,10 +4658,10 @@
         <v>643</v>
       </c>
       <c r="D148" t="n">
-        <v>57.23977412980909</v>
+        <v>57.78025645086721</v>
       </c>
       <c r="E148" t="n">
-        <v>13.40105657597043</v>
+        <v>6.299910143644276</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4687,10 +4687,10 @@
         <v>681</v>
       </c>
       <c r="D149" t="n">
-        <v>58.84200303964905</v>
+        <v>58.99829553951939</v>
       </c>
       <c r="E149" t="n">
-        <v>19.06276712627761</v>
+        <v>6.149344671971747</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4716,10 +4716,10 @@
         <v>767</v>
       </c>
       <c r="D150" t="n">
-        <v>61.52144177359373</v>
+        <v>60.73719059292473</v>
       </c>
       <c r="E150" t="n">
-        <v>25.17646310312176</v>
+        <v>6.337791783939348</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -4745,10 +4745,10 @@
         <v>731</v>
       </c>
       <c r="D151" t="n">
-        <v>61.93133412398254</v>
+        <v>61.15532161248363</v>
       </c>
       <c r="E151" t="n">
-        <v>31.29015907996592</v>
+        <v>6.565881884903881</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4774,10 +4774,10 @@
         <v>739</v>
       </c>
       <c r="D152" t="n">
-        <v>63.18502334223635</v>
+        <v>62.24145953006094</v>
       </c>
       <c r="E152" t="n">
-        <v>37.40385505681007</v>
+        <v>6.660316036619406</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>681</v>
       </c>
       <c r="D153" t="n">
-        <v>63.36226034869097</v>
+        <v>62.76668104945797</v>
       </c>
       <c r="E153" t="n">
-        <v>43.51755103365422</v>
+        <v>6.531958369814475</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -4832,10 +4832,10 @@
         <v>645</v>
       </c>
       <c r="D154" t="n">
-        <v>64.01812203195865</v>
+        <v>63.67700368348539</v>
       </c>
       <c r="E154" t="n">
-        <v>49.63124701049837</v>
+        <v>6.128001307620629</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -4861,10 +4861,10 @@
         <v>685</v>
       </c>
       <c r="D155" t="n">
-        <v>65.67507818587781</v>
+        <v>65.52440821114563</v>
       </c>
       <c r="E155" t="n">
-        <v>55.74494298734253</v>
+        <v>5.409963158263785</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -4890,10 +4890,10 @@
         <v>718</v>
       </c>
       <c r="D156" t="n">
-        <v>66.97419164691547</v>
+        <v>67.21807736041399</v>
       </c>
       <c r="E156" t="n">
-        <v>61.76992411368372</v>
+        <v>4.417861860949557</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -4919,10 +4919,10 @@
         <v>776</v>
       </c>
       <c r="D157" t="n">
-        <v>66.20703321738632</v>
+        <v>68.41404690209244</v>
       </c>
       <c r="E157" t="n">
-        <v>60.35124788439806</v>
+        <v>7.701603528591065</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -4948,10 +4948,10 @@
         <v>816</v>
       </c>
       <c r="D158" t="n">
-        <v>63.72107226372516</v>
+        <v>68.84064975038632</v>
       </c>
       <c r="E158" t="n">
-        <v>54.67192636020005</v>
+        <v>11.83469031948018</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -4977,10 +4977,10 @@
         <v>861</v>
       </c>
       <c r="D159" t="n">
-        <v>61.12707573313768</v>
+        <v>68.70613897474442</v>
       </c>
       <c r="E159" t="n">
-        <v>49.00586213859655</v>
+        <v>15.42501953214233</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -5006,10 +5006,10 @@
         <v>894</v>
       </c>
       <c r="D160" t="n">
-        <v>58.42294583542373</v>
+        <v>67.68469290248545</v>
       </c>
       <c r="E160" t="n">
-        <v>43.33979791699305</v>
+        <v>18.39593649905415</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -5035,10 +5035,10 @@
         <v>938</v>
       </c>
       <c r="D161" t="n">
-        <v>55.81977152424237</v>
+        <v>65.95186605067839</v>
       </c>
       <c r="E161" t="n">
-        <v>37.67373369538954</v>
+        <v>20.69922498315023</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -5064,10 +5064,10 @@
         <v>1005</v>
       </c>
       <c r="D162" t="n">
-        <v>53.42768616672008</v>
+        <v>63.67429944946917</v>
       </c>
       <c r="E162" t="n">
-        <v>32.00766947378604</v>
+        <v>22.30996210651202</v>
       </c>
       <c r="F162" t="n">
         <v>2</v>
@@ -5093,10 +5093,10 @@
         <v>1064</v>
       </c>
       <c r="D163" t="n">
-        <v>50.9621785644468</v>
+        <v>60.76305274840713</v>
       </c>
       <c r="E163" t="n">
-        <v>26.34160525218254</v>
+        <v>23.20883464963551</v>
       </c>
       <c r="F163" t="n">
         <v>2</v>
@@ -5122,10 +5122,10 @@
         <v>1161</v>
       </c>
       <c r="D164" t="n">
-        <v>48.84542662474066</v>
+        <v>57.90284262870509</v>
       </c>
       <c r="E164" t="n">
-        <v>20.67554103057903</v>
+        <v>23.35057970135309</v>
       </c>
       <c r="F164" t="n">
         <v>2</v>
@@ -5151,10 +5151,10 @@
         <v>1287</v>
       </c>
       <c r="D165" t="n">
-        <v>46.99483032225682</v>
+        <v>55.37542872061846</v>
       </c>
       <c r="E165" t="n">
-        <v>15.00947680897553</v>
+        <v>22.63987999890795</v>
       </c>
       <c r="F165" t="n">
         <v>2</v>
@@ -5180,10 +5180,10 @@
         <v>1428</v>
       </c>
       <c r="D166" t="n">
-        <v>48.10707064194047</v>
+        <v>53.47390027330428</v>
       </c>
       <c r="E166" t="n">
-        <v>26.11237239435084</v>
+        <v>20.95568111360977</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
@@ -5209,10 +5209,10 @@
         <v>1535</v>
       </c>
       <c r="D167" t="n">
-        <v>57.7413665940969</v>
+        <v>52.0238181293281</v>
       </c>
       <c r="E167" t="n">
-        <v>39.64774843063456</v>
+        <v>18.25914695488144</v>
       </c>
       <c r="F167" t="n">
         <v>2</v>
@@ -5238,10 +5238,10 @@
         <v>1645</v>
       </c>
       <c r="D168" t="n">
-        <v>49.57785293402324</v>
+        <v>51.3441042371079</v>
       </c>
       <c r="E168" t="n">
-        <v>34.53292708089176</v>
+        <v>14.72041819183553</v>
       </c>
       <c r="F168" t="n">
         <v>2</v>
@@ -5267,10 +5267,10 @@
         <v>1712</v>
       </c>
       <c r="D169" t="n">
-        <v>50.22395069191131</v>
+        <v>50.81177186883175</v>
       </c>
       <c r="E169" t="n">
-        <v>30.61020333921646</v>
+        <v>10.74133985918237</v>
       </c>
       <c r="F169" t="n">
         <v>2</v>
@@ -5296,10 +5296,10 @@
         <v>1775</v>
       </c>
       <c r="D170" t="n">
-        <v>50.82844902023142</v>
+        <v>50.61768339457688</v>
       </c>
       <c r="E170" t="n">
-        <v>27.40715741370003</v>
+        <v>6.931221769384216</v>
       </c>
       <c r="F170" t="n">
         <v>2</v>
@@ -5325,10 +5325,10 @@
         <v>1887</v>
       </c>
       <c r="D171" t="n">
-        <v>52.05096243447291</v>
+        <v>51.13484438258383</v>
       </c>
       <c r="E171" t="n">
-        <v>25.34955241040903</v>
+        <v>4.061951554259657</v>
       </c>
       <c r="F171" t="n">
         <v>100</v>
@@ -5354,10 +5354,10 @@
         <v>1938</v>
       </c>
       <c r="D172" t="n">
-        <v>52.5918762529282</v>
+        <v>51.14407560287641</v>
       </c>
       <c r="E172" t="n">
-        <v>25.95318638859813</v>
+        <v>2.566248253706249</v>
       </c>
       <c r="F172" t="n">
         <v>100</v>
@@ -5383,10 +5383,10 @@
         <v>1552</v>
       </c>
       <c r="D173" t="n">
-        <v>65.74489774726369</v>
+        <v>64.58433275325902</v>
       </c>
       <c r="E173" t="n">
-        <v>28.02405695912772</v>
+        <v>20.28546384880843</v>
       </c>
       <c r="F173" t="n">
         <v>10</v>
@@ -5412,10 +5412,10 @@
         <v>1349</v>
       </c>
       <c r="D174" t="n">
-        <v>63.38800369718631</v>
+        <v>62.54018137168224</v>
       </c>
       <c r="E174" t="n">
-        <v>27.07118098845675</v>
+        <v>18.03806679332653</v>
       </c>
       <c r="F174" t="n">
         <v>10</v>
@@ -5441,10 +5441,10 @@
         <v>1149</v>
       </c>
       <c r="D175" t="n">
-        <v>62.42615637903024</v>
+        <v>60.58706765693256</v>
       </c>
       <c r="E175" t="n">
-        <v>25.43815206015525</v>
+        <v>15.75445289575631</v>
       </c>
       <c r="F175" t="n">
         <v>10</v>
@@ -5470,10 +5470,10 @@
         <v>994</v>
       </c>
       <c r="D176" t="n">
-        <v>62.0717212284375</v>
+        <v>59.30730403903853</v>
       </c>
       <c r="E176" t="n">
-        <v>23.85877012550469</v>
+        <v>13.56246495985236</v>
       </c>
       <c r="F176" t="n">
         <v>10</v>
@@ -5499,10 +5499,10 @@
         <v>876</v>
       </c>
       <c r="D177" t="n">
-        <v>61.36317038576223</v>
+        <v>58.6576597002789</v>
       </c>
       <c r="E177" t="n">
-        <v>21.97961942750298</v>
+        <v>11.55920016801085</v>
       </c>
       <c r="F177" t="n">
         <v>10</v>
@@ -5528,10 +5528,10 @@
         <v>805</v>
       </c>
       <c r="D178" t="n">
-        <v>60.78628268078411</v>
+        <v>58.76924959643745</v>
       </c>
       <c r="E178" t="n">
-        <v>19.92202077830727</v>
+        <v>9.846413901638098</v>
       </c>
       <c r="F178" t="n">
         <v>10</v>
@@ -5557,10 +5557,10 @@
         <v>798</v>
       </c>
       <c r="D179" t="n">
-        <v>61.0869974845932</v>
+        <v>59.8203700195895</v>
       </c>
       <c r="E179" t="n">
-        <v>17.86442212911156</v>
+        <v>8.538166952120758</v>
       </c>
       <c r="F179" t="n">
         <v>10</v>
@@ -5586,10 +5586,10 @@
         <v>698</v>
       </c>
       <c r="D180" t="n">
-        <v>60.11244614282087</v>
+        <v>59.87496529575768</v>
       </c>
       <c r="E180" t="n">
-        <v>15.80682347991585</v>
+        <v>7.72639428528718</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>673</v>
       </c>
       <c r="D181" t="n">
-        <v>60.16633524103354</v>
+        <v>60.66411655546679</v>
       </c>
       <c r="E181" t="n">
-        <v>13.74922483072014</v>
+        <v>7.367981614027357</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -5644,10 +5644,10 @@
         <v>701</v>
       </c>
       <c r="D182" t="n">
-        <v>61.61245261564345</v>
+        <v>61.69611086167505</v>
       </c>
       <c r="E182" t="n">
-        <v>19.03222909277986</v>
+        <v>7.269216659518751</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -5673,10 +5673,10 @@
         <v>793</v>
       </c>
       <c r="D183" t="n">
-        <v>64.37628769476828</v>
+        <v>63.20708130157972</v>
       </c>
       <c r="E183" t="n">
-        <v>25.14592506962402</v>
+        <v>7.357383552871053</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -5702,10 +5702,10 @@
         <v>833</v>
       </c>
       <c r="D184" t="n">
-        <v>66.24364736237847</v>
+        <v>64.20877318071678</v>
       </c>
       <c r="E184" t="n">
-        <v>31.25962104646818</v>
+        <v>7.591446156958948</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -5731,10 +5731,10 @@
         <v>866</v>
       </c>
       <c r="D185" t="n">
-        <v>66.49659541036188</v>
+        <v>65.39592636325786</v>
       </c>
       <c r="E185" t="n">
-        <v>37.37331702331233</v>
+        <v>7.857725234462492</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -5760,10 +5760,10 @@
         <v>814</v>
       </c>
       <c r="D186" t="n">
-        <v>66.40794261683342</v>
+        <v>65.98005315889262</v>
       </c>
       <c r="E186" t="n">
-        <v>43.48701300015649</v>
+        <v>8.054862590092235</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -5789,10 +5789,10 @@
         <v>726</v>
       </c>
       <c r="D187" t="n">
-        <v>66.05586251632711</v>
+        <v>66.4027274156101</v>
       </c>
       <c r="E187" t="n">
-        <v>49.1148169843965</v>
+        <v>8.147623301199914</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -5818,10 +5818,10 @@
         <v>687</v>
       </c>
       <c r="D188" t="n">
-        <v>65.09536819946072</v>
+        <v>67.48148888917426</v>
       </c>
       <c r="E188" t="n">
-        <v>54.71040223778993</v>
+        <v>8.251099414446127</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -5847,10 +5847,10 @@
         <v>738</v>
       </c>
       <c r="D189" t="n">
-        <v>66.00659025282091</v>
+        <v>69.51274180979161</v>
       </c>
       <c r="E189" t="n">
-        <v>59.86127705417978</v>
+        <v>9.002304561532618</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -5876,10 +5876,10 @@
         <v>763</v>
       </c>
       <c r="D190" t="n">
-        <v>72.07042181547</v>
+        <v>70.8129760266017</v>
       </c>
       <c r="E190" t="n">
-        <v>61.88896294182393</v>
+        <v>11.59896637605957</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5905,10 +5905,10 @@
         <v>804</v>
       </c>
       <c r="D191" t="n">
-        <v>66.92262425964944</v>
+        <v>71.68898917307065</v>
       </c>
       <c r="E191" t="n">
-        <v>61.51040269655482</v>
+        <v>15.25571701405037</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -5934,10 +5934,10 @@
         <v>864</v>
       </c>
       <c r="D192" t="n">
-        <v>61.95232383615842</v>
+        <v>71.9889686703321</v>
       </c>
       <c r="E192" t="n">
-        <v>61.13184245128571</v>
+        <v>18.7958684430286</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -5963,10 +5963,10 @@
         <v>928</v>
       </c>
       <c r="D193" t="n">
-        <v>60.28846493311795</v>
+        <v>71.30138290619465</v>
       </c>
       <c r="E193" t="n">
-        <v>56.53002454853106</v>
+        <v>21.80836396760713</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -5992,10 +5992,10 @@
         <v>964</v>
       </c>
       <c r="D194" t="n">
-        <v>59.31175765872361</v>
+        <v>69.21138851354966</v>
       </c>
       <c r="E194" t="n">
-        <v>50.71055416729163</v>
+        <v>24.1473704497644</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -6021,10 +6021,10 @@
         <v>1004</v>
       </c>
       <c r="D195" t="n">
-        <v>58.3757923784604</v>
+        <v>66.14418736609275</v>
       </c>
       <c r="E195" t="n">
-        <v>44.89108378605221</v>
+        <v>25.77773007803449</v>
       </c>
       <c r="F195" t="n">
         <v>2</v>
@@ -6050,10 +6050,10 @@
         <v>1023</v>
       </c>
       <c r="D196" t="n">
-        <v>57.22593162900885</v>
+        <v>62.17125402242365</v>
       </c>
       <c r="E196" t="n">
-        <v>39.07161340481277</v>
+        <v>26.70741215503044</v>
       </c>
       <c r="F196" t="n">
         <v>2</v>
@@ -6079,10 +6079,10 @@
         <v>1093</v>
       </c>
       <c r="D197" t="n">
-        <v>56.00233674107074</v>
+        <v>58.27662992603315</v>
       </c>
       <c r="E197" t="n">
-        <v>33.32001166928278</v>
+        <v>26.90972192644662</v>
       </c>
       <c r="F197" t="n">
         <v>2</v>
@@ -6108,10 +6108,10 @@
         <v>1187</v>
       </c>
       <c r="D198" t="n">
-        <v>53.858051459583</v>
+        <v>54.66797743819974</v>
       </c>
       <c r="E198" t="n">
-        <v>27.65394744767928</v>
+        <v>26.24067183833655</v>
       </c>
       <c r="F198" t="n">
         <v>2</v>
@@ -6137,10 +6137,10 @@
         <v>1277</v>
       </c>
       <c r="D199" t="n">
-        <v>51.67705505571973</v>
+        <v>51.66883203988937</v>
       </c>
       <c r="E199" t="n">
-        <v>21.98788322607577</v>
+        <v>24.41140684863532</v>
       </c>
       <c r="F199" t="n">
         <v>2</v>
@@ -6166,10 +6166,10 @@
         <v>1414</v>
       </c>
       <c r="D200" t="n">
-        <v>49.9274143397685</v>
+        <v>50.18735458301848</v>
       </c>
       <c r="E200" t="n">
-        <v>16.32181900447227</v>
+        <v>21.18777692955403</v>
       </c>
       <c r="F200" t="n">
         <v>2</v>
@@ -6195,10 +6195,10 @@
         <v>1489</v>
       </c>
       <c r="D201" t="n">
-        <v>48.11886635785176</v>
+        <v>49.2194912351658</v>
       </c>
       <c r="E201" t="n">
-        <v>14.27278555909006</v>
+        <v>16.74104420943024</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -6224,10 +6224,10 @@
         <v>1543</v>
       </c>
       <c r="D202" t="n">
-        <v>48.50935763273793</v>
+        <v>48.74754754063854</v>
       </c>
       <c r="E202" t="n">
-        <v>25.60627264689482</v>
+        <v>11.59451505855864</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
@@ -6253,10 +6253,10 @@
         <v>1660</v>
       </c>
       <c r="D203" t="n">
-        <v>49.39466228599501</v>
+        <v>49.33012576777324</v>
       </c>
       <c r="E203" t="n">
-        <v>27.15823636476998</v>
+        <v>6.44571409028044</v>
       </c>
       <c r="F203" t="n">
         <v>2</v>
@@ -6282,10 +6282,10 @@
         <v>1782</v>
       </c>
       <c r="D204" t="n">
-        <v>50.6685158781065</v>
+        <v>50.18641983627444</v>
       </c>
       <c r="E204" t="n">
-        <v>23.18197869585434</v>
+        <v>2.65606505445129</v>
       </c>
       <c r="F204" t="n">
         <v>2</v>
@@ -6311,10 +6311,10 @@
         <v>1955</v>
       </c>
       <c r="D205" t="n">
-        <v>52.57176476890706</v>
+        <v>51.62547874520124</v>
       </c>
       <c r="E205" t="n">
-        <v>26.44624227428797</v>
+        <v>1.52263113550508</v>
       </c>
       <c r="F205" t="n">
         <v>100</v>
@@ -6340,10 +6340,10 @@
         <v>1433</v>
       </c>
       <c r="D206" t="n">
-        <v>64.73005805947325</v>
+        <v>63.34217106890963</v>
       </c>
       <c r="E206" t="n">
-        <v>26.51602234611421</v>
+        <v>17.01030816648914</v>
       </c>
       <c r="F206" t="n">
         <v>10</v>
@@ -6369,10 +6369,10 @@
         <v>1255</v>
       </c>
       <c r="D207" t="n">
-        <v>62.30579327414507</v>
+        <v>61.92134973415146</v>
       </c>
       <c r="E207" t="n">
-        <v>26.44103718870813</v>
+        <v>14.87678988309297</v>
       </c>
       <c r="F207" t="n">
         <v>10</v>
@@ -6398,10 +6398,10 @@
         <v>1042</v>
       </c>
       <c r="D208" t="n">
-        <v>61.50851915018222</v>
+        <v>60.26479201768392</v>
       </c>
       <c r="E208" t="n">
-        <v>22.90250184676225</v>
+        <v>12.8201969186375</v>
       </c>
       <c r="F208" t="n">
         <v>10</v>
@@ -6427,10 +6427,10 @@
         <v>931</v>
       </c>
       <c r="D209" t="n">
-        <v>61.75743572438066</v>
+        <v>59.95762390174256</v>
       </c>
       <c r="E209" t="n">
-        <v>21.32311991211169</v>
+        <v>10.97126686657625</v>
       </c>
       <c r="F209" t="n">
         <v>10</v>
@@ -6456,10 +6456,10 @@
         <v>859</v>
       </c>
       <c r="D210" t="n">
-        <v>62.54114132737132</v>
+        <v>60.35678921276305</v>
       </c>
       <c r="E210" t="n">
-        <v>19.74373797746113</v>
+        <v>9.475051720017422</v>
       </c>
       <c r="F210" t="n">
         <v>10</v>
@@ -6485,10 +6485,10 @@
         <v>780</v>
       </c>
       <c r="D211" t="n">
-        <v>63.22885915596337</v>
+        <v>60.94918750436813</v>
       </c>
       <c r="E211" t="n">
-        <v>18.16435604281057</v>
+        <v>8.497403712854652</v>
       </c>
       <c r="F211" t="n">
         <v>10</v>
@@ -6514,10 +6514,10 @@
         <v>721</v>
       </c>
       <c r="D212" t="n">
-        <v>62.95513844172626</v>
+        <v>61.9791857678911</v>
       </c>
       <c r="E212" t="n">
-        <v>16.15499173466556</v>
+        <v>8.182557669724625</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -6543,10 +6543,10 @@
         <v>718</v>
       </c>
       <c r="D213" t="n">
-        <v>63.31070340233454</v>
+        <v>63.53542537423317</v>
       </c>
       <c r="E213" t="n">
-        <v>14.09739308546986</v>
+        <v>8.409539939489353</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -6572,10 +6572,10 @@
         <v>756</v>
       </c>
       <c r="D214" t="n">
-        <v>64.92269831285778</v>
+        <v>64.40484881770338</v>
       </c>
       <c r="E214" t="n">
-        <v>19.00169105928213</v>
+        <v>8.422217270074508</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>820</v>
       </c>
       <c r="D215" t="n">
-        <v>66.02815936398571</v>
+        <v>65.09067193650247</v>
       </c>
       <c r="E215" t="n">
-        <v>25.11538703612629</v>
+        <v>8.525089800045794</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -6630,10 +6630,10 @@
         <v>936</v>
       </c>
       <c r="D216" t="n">
-        <v>65.27750601704142</v>
+        <v>66.5612618557459</v>
       </c>
       <c r="E216" t="n">
-        <v>30.86412460171585</v>
+        <v>8.944929538429189</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -6659,10 +6659,10 @@
         <v>992</v>
       </c>
       <c r="D217" t="n">
-        <v>64.76328143917421</v>
+        <v>67.81816294983355</v>
       </c>
       <c r="E217" t="n">
-        <v>36.45970985510928</v>
+        <v>9.550584389785655</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>959</v>
       </c>
       <c r="D218" t="n">
-        <v>64.599759535438</v>
+        <v>68.62813309068947</v>
       </c>
       <c r="E218" t="n">
-        <v>42.05529510850272</v>
+        <v>10.23721967130804</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>830</v>
       </c>
       <c r="D219" t="n">
-        <v>64.81452366222513</v>
+        <v>68.80959344644845</v>
       </c>
       <c r="E219" t="n">
-        <v>47.65088036189613</v>
+        <v>11.00558208442263</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -6746,10 +6746,10 @@
         <v>708</v>
       </c>
       <c r="D220" t="n">
-        <v>63.24264759212138</v>
+        <v>69.19177263589273</v>
       </c>
       <c r="E220" t="n">
-        <v>53.24646561528957</v>
+        <v>12.0244643884044</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>745</v>
       </c>
       <c r="D221" t="n">
-        <v>66.04287239895049</v>
+        <v>71.40211445651344</v>
       </c>
       <c r="E221" t="n">
-        <v>57.3843953273139</v>
+        <v>13.68194287273437</v>
       </c>
       <c r="F221" t="n">
         <v>1</v>
@@ -6804,10 +6804,10 @@
         <v>776</v>
       </c>
       <c r="D222" t="n">
-        <v>72.76688430082294</v>
+        <v>73.32168382928788</v>
       </c>
       <c r="E222" t="n">
-        <v>59.54246456888826</v>
+        <v>16.30521292423446</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -6833,10 +6833,10 @@
         <v>817</v>
       </c>
       <c r="D223" t="n">
-        <v>74.86635932012307</v>
+        <v>74.82915752346381</v>
       </c>
       <c r="E223" t="n">
-        <v>60.69279263355128</v>
+        <v>19.60254359545207</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
@@ -6862,10 +6862,10 @@
         <v>855</v>
       </c>
       <c r="D224" t="n">
-        <v>69.69053590130311</v>
+        <v>75.39234695507534</v>
       </c>
       <c r="E224" t="n">
-        <v>60.31423238828217</v>
+        <v>22.93971051046045</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -6891,10 +6891,10 @@
         <v>917</v>
       </c>
       <c r="D225" t="n">
-        <v>64.73891938647836</v>
+        <v>74.87935879245487</v>
       </c>
       <c r="E225" t="n">
-        <v>59.93567214301305</v>
+        <v>25.83726099354755</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
@@ -6920,10 +6920,10 @@
         <v>975</v>
       </c>
       <c r="D226" t="n">
-        <v>59.74993505432107</v>
+        <v>72.73515942855691</v>
       </c>
       <c r="E226" t="n">
-        <v>59.55711189774395</v>
+        <v>28.05280229936141</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -6949,10 +6949,10 @@
         <v>1023</v>
       </c>
       <c r="D227" t="n">
-        <v>55.13270845405557</v>
+        <v>69.07574333262231</v>
       </c>
       <c r="E227" t="n">
-        <v>58.5282715939035</v>
+        <v>29.55114042928942</v>
       </c>
       <c r="F227" t="n">
         <v>2</v>
@@ -6978,10 +6978,10 @@
         <v>1084</v>
       </c>
       <c r="D228" t="n">
-        <v>54.41063864298069</v>
+        <v>64.55222884639834</v>
       </c>
       <c r="E228" t="n">
-        <v>52.70880121266406</v>
+        <v>30.41130395839095</v>
       </c>
       <c r="F228" t="n">
         <v>2</v>
@@ -7007,10 +7007,10 @@
         <v>1111</v>
       </c>
       <c r="D229" t="n">
-        <v>53.34226188179136</v>
+        <v>59.32713372690512</v>
       </c>
       <c r="E229" t="n">
-        <v>46.88933083142463</v>
+        <v>30.68864594160431</v>
       </c>
       <c r="F229" t="n">
         <v>2</v>
@@ -7036,10 +7036,10 @@
         <v>1133</v>
       </c>
       <c r="D230" t="n">
-        <v>52.22295762793813</v>
+        <v>54.16939116746759</v>
       </c>
       <c r="E230" t="n">
-        <v>41.0698604501852</v>
+        <v>30.25672606057978</v>
       </c>
       <c r="F230" t="n">
         <v>2</v>
@@ -7065,10 +7065,10 @@
         <v>1185</v>
       </c>
       <c r="D231" t="n">
-        <v>51.40921833006825</v>
+        <v>50.0200597112637</v>
       </c>
       <c r="E231" t="n">
-        <v>35.25039006894578</v>
+        <v>28.57032938939766</v>
       </c>
       <c r="F231" t="n">
         <v>2</v>
@@ -7094,10 +7094,10 @@
         <v>1280</v>
       </c>
       <c r="D232" t="n">
-        <v>51.0334554691078</v>
+        <v>47.84328720558914</v>
       </c>
       <c r="E232" t="n">
-        <v>29.43091968770635</v>
+        <v>24.84408959864343</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
@@ -7123,10 +7123,10 @@
         <v>1362</v>
       </c>
       <c r="D233" t="n">
-        <v>50.52528112722125</v>
+        <v>47.18035315000812</v>
       </c>
       <c r="E233" t="n">
-        <v>23.61144930646692</v>
+        <v>19.37574653171184</v>
       </c>
       <c r="F233" t="n">
         <v>2</v>
@@ -7152,10 +7152,10 @@
         <v>1439</v>
       </c>
       <c r="D234" t="n">
-        <v>49.96617929267082</v>
+        <v>47.27886866853472</v>
       </c>
       <c r="E234" t="n">
-        <v>17.79197892522748</v>
+        <v>13.10008568673119</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
@@ -7181,10 +7181,10 @@
         <v>1541</v>
       </c>
       <c r="D235" t="n">
-        <v>49.6617149214398</v>
+        <v>47.98257041158371</v>
       </c>
       <c r="E235" t="n">
-        <v>11.97250854398806</v>
+        <v>6.543246085088988</v>
       </c>
       <c r="F235" t="n">
         <v>2</v>
@@ -7210,10 +7210,10 @@
         <v>1700</v>
       </c>
       <c r="D236" t="n">
-        <v>49.51991158872038</v>
+        <v>49.4424454199489</v>
       </c>
       <c r="E236" t="n">
-        <v>13.76668581163405</v>
+        <v>0.5632524469079243</v>
       </c>
       <c r="F236" t="n">
         <v>2</v>
@@ -7239,10 +7239,10 @@
         <v>1912</v>
       </c>
       <c r="D237" t="n">
-        <v>51.67441985910969</v>
+        <v>51.5792931888769</v>
       </c>
       <c r="E237" t="n">
-        <v>25.36852316729988</v>
+        <v>1.126363177998613</v>
       </c>
       <c r="F237" t="n">
         <v>100</v>
@@ -7268,10 +7268,10 @@
         <v>1512</v>
       </c>
       <c r="D238" t="n">
-        <v>65.38781417280278</v>
+        <v>63.75449946121864</v>
       </c>
       <c r="E238" t="n">
-        <v>28.00003579702152</v>
+        <v>16.0229109424364</v>
       </c>
       <c r="F238" t="n">
         <v>10</v>
@@ -7297,10 +7297,10 @@
         <v>1258</v>
       </c>
       <c r="D239" t="n">
-        <v>63.275457475393</v>
+        <v>61.77817610191818</v>
       </c>
       <c r="E239" t="n">
-        <v>24.08635143453762</v>
+        <v>13.99827112933098</v>
       </c>
       <c r="F239" t="n">
         <v>10</v>
@@ -7326,10 +7326,10 @@
         <v>1085</v>
       </c>
       <c r="D240" t="n">
-        <v>60.18142987191905</v>
+        <v>60.75549183840377</v>
       </c>
       <c r="E240" t="n">
-        <v>25.81089338895951</v>
+        <v>12.03449940578481</v>
       </c>
       <c r="F240" t="n">
         <v>10</v>
@@ -7355,10 +7355,10 @@
         <v>1000</v>
       </c>
       <c r="D241" t="n">
-        <v>61.48219696932118</v>
+        <v>60.90867149975448</v>
       </c>
       <c r="E241" t="n">
-        <v>20.36685163336924</v>
+        <v>10.26773655063514</v>
       </c>
       <c r="F241" t="n">
         <v>10</v>
@@ -7384,10 +7384,10 @@
         <v>875</v>
       </c>
       <c r="D242" t="n">
-        <v>61.53913799472244</v>
+        <v>60.92545775369413</v>
       </c>
       <c r="E242" t="n">
-        <v>18.78746969871869</v>
+        <v>8.862604475773283</v>
       </c>
       <c r="F242" t="n">
         <v>10</v>
@@ -7413,10 +7413,10 @@
         <v>861</v>
       </c>
       <c r="D243" t="n">
-        <v>63.11817087130149</v>
+        <v>62.44630665694054</v>
       </c>
       <c r="E243" t="n">
-        <v>17.20808776406813</v>
+        <v>8.025557955313923</v>
       </c>
       <c r="F243" t="n">
         <v>10</v>
@@ -7442,10 +7442,10 @@
         <v>778</v>
       </c>
       <c r="D244" t="n">
-        <v>63.75103854309435</v>
+        <v>63.49591118735786</v>
       </c>
       <c r="E244" t="n">
-        <v>15.62870582941757</v>
+        <v>7.989937054315817</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -7471,10 +7471,10 @@
         <v>748</v>
       </c>
       <c r="D245" t="n">
-        <v>65.1106707924766</v>
+        <v>65.23427484422588</v>
       </c>
       <c r="E245" t="n">
-        <v>14.04932389476701</v>
+        <v>8.849527842848721</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -7500,10 +7500,10 @@
         <v>792</v>
       </c>
       <c r="D246" t="n">
-        <v>65.1952369601578</v>
+        <v>65.7231808333831</v>
       </c>
       <c r="E246" t="n">
-        <v>18.20901747242864</v>
+        <v>9.061398972702085</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -7529,10 +7529,10 @@
         <v>875</v>
       </c>
       <c r="D247" t="n">
-        <v>64.57461943620591</v>
+        <v>66.25786770900552</v>
       </c>
       <c r="E247" t="n">
-        <v>23.80460272582207</v>
+        <v>9.511208808914724</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -7558,10 +7558,10 @@
         <v>996</v>
       </c>
       <c r="D248" t="n">
-        <v>63.80426369183853</v>
+        <v>67.56011293495031</v>
       </c>
       <c r="E248" t="n">
-        <v>29.40018797921549</v>
+        <v>10.38713822593517</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -7587,10 +7587,10 @@
         <v>1036</v>
       </c>
       <c r="D249" t="n">
-        <v>63.35308678572521</v>
+        <v>68.59449362653592</v>
       </c>
       <c r="E249" t="n">
-        <v>34.99577323260893</v>
+        <v>11.50311549495937</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -7616,10 +7616,10 @@
         <v>919</v>
       </c>
       <c r="D250" t="n">
-        <v>63.52056515869691</v>
+        <v>68.65367329468312</v>
       </c>
       <c r="E250" t="n">
-        <v>40.59135848600235</v>
+        <v>12.76373943648044</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -7645,10 +7645,10 @@
         <v>808</v>
       </c>
       <c r="D251" t="n">
-        <v>62.78409038164042</v>
+        <v>69.16438968963591</v>
       </c>
       <c r="E251" t="n">
-        <v>46.18694373939577</v>
+        <v>14.18447185677041</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>756</v>
       </c>
       <c r="D252" t="n">
-        <v>61.68265361377662</v>
+        <v>70.62857302002523</v>
       </c>
       <c r="E252" t="n">
-        <v>51.7825289927892</v>
+        <v>15.89904882786085</v>
       </c>
       <c r="F252" t="n">
         <v>1</v>
@@ -7703,10 +7703,10 @@
         <v>749</v>
       </c>
       <c r="D253" t="n">
-        <v>66.04662936408066</v>
+        <v>72.80345399264569</v>
       </c>
       <c r="E253" t="n">
-        <v>54.90751360044802</v>
+        <v>18.11358750670683</v>
       </c>
       <c r="F253" t="n">
         <v>1</v>
@@ -7732,10 +7732,10 @@
         <v>787</v>
       </c>
       <c r="D254" t="n">
-        <v>72.8465333549517</v>
+        <v>75.50267218502663</v>
       </c>
       <c r="E254" t="n">
-        <v>57.06558284202238</v>
+        <v>20.93825612701033</v>
       </c>
       <c r="F254" t="n">
         <v>1</v>
@@ -7761,10 +7761,10 @@
         <v>815</v>
       </c>
       <c r="D255" t="n">
-        <v>79.53802007582476</v>
+        <v>77.7184282624366</v>
       </c>
       <c r="E255" t="n">
-        <v>59.22365208359675</v>
+        <v>24.199810147562</v>
       </c>
       <c r="F255" t="n">
         <v>1</v>
@@ -7790,10 +7790,10 @@
         <v>876</v>
       </c>
       <c r="D256" t="n">
-        <v>77.70900659644181</v>
+        <v>79.37825646675699</v>
       </c>
       <c r="E256" t="n">
-        <v>59.49662232527861</v>
+        <v>27.46907725128958</v>
       </c>
       <c r="F256" t="n">
         <v>1</v>
@@ -7819,10 +7819,10 @@
         <v>930</v>
       </c>
       <c r="D257" t="n">
-        <v>72.68265444695197</v>
+        <v>79.18584842096044</v>
       </c>
       <c r="E257" t="n">
-        <v>59.1180620800095</v>
+        <v>30.24482942128209</v>
       </c>
       <c r="F257" t="n">
         <v>1</v>
@@ -7848,10 +7848,10 @@
         <v>967</v>
       </c>
       <c r="D258" t="n">
-        <v>67.4974890737989</v>
+        <v>76.53784614445567</v>
       </c>
       <c r="E258" t="n">
-        <v>58.7395018347404</v>
+        <v>32.19728831360225</v>
       </c>
       <c r="F258" t="n">
         <v>2</v>
@@ -7877,10 +7877,10 @@
         <v>1012</v>
       </c>
       <c r="D259" t="n">
-        <v>62.38705933531088</v>
+        <v>72.01229489350486</v>
       </c>
       <c r="E259" t="n">
-        <v>58.36094158947129</v>
+        <v>33.35061384917024</v>
       </c>
       <c r="F259" t="n">
         <v>2</v>
@@ -7906,10 +7906,10 @@
         <v>1121</v>
       </c>
       <c r="D260" t="n">
-        <v>57.87451467414339</v>
+        <v>66.80933592288605</v>
       </c>
       <c r="E260" t="n">
-        <v>57.98238134420218</v>
+        <v>33.9428412632079</v>
       </c>
       <c r="F260" t="n">
         <v>2</v>
@@ -7935,10 +7935,10 @@
         <v>1207</v>
       </c>
       <c r="D261" t="n">
-        <v>51.85191246612386</v>
+        <v>60.95482592378274</v>
       </c>
       <c r="E261" t="n">
-        <v>57.60382109893308</v>
+        <v>34.18442122846689</v>
       </c>
       <c r="F261" t="n">
         <v>2</v>
@@ -7964,10 +7964,10 @@
         <v>1263</v>
       </c>
       <c r="D262" t="n">
-        <v>50.15639373225104</v>
+        <v>54.912315264261</v>
       </c>
       <c r="E262" t="n">
-        <v>54.70704825803651</v>
+        <v>34.13860930451482</v>
       </c>
       <c r="F262" t="n">
         <v>2</v>
@@ -7993,10 +7993,10 @@
         <v>1231</v>
       </c>
       <c r="D263" t="n">
-        <v>48.44114286604841</v>
+        <v>48.96165695821042</v>
       </c>
       <c r="E263" t="n">
-        <v>48.88757787679708</v>
+        <v>33.31307447716121</v>
       </c>
       <c r="F263" t="n">
         <v>2</v>
@@ -8022,10 +8022,10 @@
         <v>1260</v>
       </c>
       <c r="D264" t="n">
-        <v>47.39313710192464</v>
+        <v>46.31142431021156</v>
       </c>
       <c r="E264" t="n">
-        <v>43.06810749555765</v>
+        <v>28.97821395325634</v>
       </c>
       <c r="F264" t="n">
         <v>2</v>
@@ -8051,10 +8051,10 @@
         <v>1365</v>
       </c>
       <c r="D265" t="n">
-        <v>47.11922922629197</v>
+        <v>46.5831262410375</v>
       </c>
       <c r="E265" t="n">
-        <v>37.24863711431822</v>
+        <v>22.30507539571485</v>
       </c>
       <c r="F265" t="n">
         <v>2</v>
@@ -8080,10 +8080,10 @@
         <v>1455</v>
       </c>
       <c r="D266" t="n">
-        <v>47.36936869336878</v>
+        <v>47.27649341861886</v>
       </c>
       <c r="E266" t="n">
-        <v>29.87310379646253</v>
+        <v>15.41739627356382</v>
       </c>
       <c r="F266" t="n">
         <v>2</v>
@@ -8109,10 +8109,10 @@
         <v>1594</v>
       </c>
       <c r="D267" t="n">
-        <v>48.86652674073741</v>
+        <v>48.66578541712701</v>
       </c>
       <c r="E267" t="n">
-        <v>21.60213534144329</v>
+        <v>8.863085471212472</v>
       </c>
       <c r="F267" t="n">
         <v>2</v>
@@ -8138,10 +8138,10 @@
         <v>1754</v>
       </c>
       <c r="D268" t="n">
-        <v>50.60992200410184</v>
+        <v>50.3252041784657</v>
       </c>
       <c r="E268" t="n">
-        <v>13.33116688642405</v>
+        <v>3.976847436784787</v>
       </c>
       <c r="F268" t="n">
         <v>2</v>
@@ -8167,10 +8167,10 @@
         <v>1909</v>
       </c>
       <c r="D269" t="n">
-        <v>52.20827136225503</v>
+        <v>51.83917105130676</v>
       </c>
       <c r="E269" t="n">
-        <v>28.01941009942205</v>
+        <v>2.61478357169127</v>
       </c>
       <c r="F269" t="n">
         <v>100</v>
@@ -8196,10 +8196,10 @@
         <v>1248</v>
       </c>
       <c r="D270" t="n">
-        <v>63.14313047937348</v>
+        <v>61.20993375755099</v>
       </c>
       <c r="E270" t="n">
-        <v>24.21820131029795</v>
+        <v>13.19239167715964</v>
       </c>
       <c r="F270" t="n">
         <v>10</v>
@@ -8225,10 +8225,10 @@
         <v>1061</v>
       </c>
       <c r="D271" t="n">
-        <v>57.302545111383</v>
+        <v>60.13601129253136</v>
       </c>
       <c r="E271" t="n">
-        <v>32.2378486869555</v>
+        <v>11.26631666592925</v>
       </c>
       <c r="F271" t="n">
         <v>10</v>
@@ -8254,10 +8254,10 @@
         <v>988</v>
       </c>
       <c r="D272" t="n">
-        <v>59.05808183127841</v>
+        <v>60.4772115911565</v>
       </c>
       <c r="E272" t="n">
-        <v>25.1807495892109</v>
+        <v>9.49427191423182</v>
       </c>
       <c r="F272" t="n">
         <v>10</v>
@@ -8283,10 +8283,10 @@
         <v>934</v>
       </c>
       <c r="D273" t="n">
-        <v>61.07415679597004</v>
+        <v>61.30040174484088</v>
       </c>
       <c r="E273" t="n">
-        <v>18.12365049146629</v>
+        <v>8.02920774551427</v>
       </c>
       <c r="F273" t="n">
         <v>10</v>
@@ -8312,10 +8312,10 @@
         <v>988</v>
       </c>
       <c r="D274" t="n">
-        <v>63.63825938983041</v>
+        <v>63.46500538746884</v>
       </c>
       <c r="E274" t="n">
-        <v>16.25181948532568</v>
+        <v>7.075741310423868</v>
       </c>
       <c r="F274" t="n">
         <v>10</v>
@@ -8341,10 +8341,10 @@
         <v>824</v>
       </c>
       <c r="D275" t="n">
-        <v>63.16041138643947</v>
+        <v>63.57302112169056</v>
       </c>
       <c r="E275" t="n">
-        <v>14.67243755067512</v>
+        <v>6.901075752431899</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -8370,10 +8370,10 @@
         <v>817</v>
       </c>
       <c r="D276" t="n">
-        <v>64.56178042638361</v>
+        <v>64.83405546695462</v>
       </c>
       <c r="E276" t="n">
-        <v>13.59722541253096</v>
+        <v>7.632465394803919</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -8399,10 +8399,10 @@
         <v>885</v>
       </c>
       <c r="D277" t="n">
-        <v>63.59195881196251</v>
+        <v>65.86110203368605</v>
       </c>
       <c r="E277" t="n">
-        <v>17.04994485015346</v>
+        <v>8.811893943681724</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>929</v>
       </c>
       <c r="D278" t="n">
-        <v>63.12501998791073</v>
+        <v>66.22279959183282</v>
       </c>
       <c r="E278" t="n">
-        <v>22.34066610332171</v>
+        <v>10.20546825193832</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -8457,10 +8457,10 @@
         <v>1033</v>
       </c>
       <c r="D279" t="n">
-        <v>62.42165239478184</v>
+        <v>67.36170259512335</v>
       </c>
       <c r="E279" t="n">
-        <v>27.93625135671513</v>
+        <v>11.81234094028434</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>1039</v>
       </c>
       <c r="D280" t="n">
-        <v>62.10445179114554</v>
+        <v>68.10108753682361</v>
       </c>
       <c r="E280" t="n">
-        <v>33.53183661010856</v>
+        <v>13.55903096122987</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -8515,10 +8515,10 @@
         <v>879</v>
       </c>
       <c r="D281" t="n">
-        <v>62.01112308816527</v>
+        <v>67.83171805168639</v>
       </c>
       <c r="E281" t="n">
-        <v>39.12742186350199</v>
+        <v>15.40096744753193</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>833</v>
       </c>
       <c r="D282" t="n">
-        <v>60.97473668230027</v>
+        <v>69.20022400067863</v>
       </c>
       <c r="E282" t="n">
-        <v>44.72300711689542</v>
+        <v>17.3678550391067</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -8573,10 +8573,10 @@
         <v>797</v>
       </c>
       <c r="D283" t="n">
-        <v>60.13950395232337</v>
+        <v>71.18837565974869</v>
       </c>
       <c r="E283" t="n">
-        <v>50.27256263200777</v>
+        <v>19.56889545259729</v>
       </c>
       <c r="F283" t="n">
         <v>1</v>
@@ -8602,10 +8602,10 @@
         <v>797</v>
       </c>
       <c r="D284" t="n">
-        <v>66.52742231720204</v>
+        <v>73.98407161239736</v>
       </c>
       <c r="E284" t="n">
-        <v>52.43063187358213</v>
+        <v>22.14842755894858</v>
       </c>
       <c r="F284" t="n">
         <v>1</v>
@@ -8631,10 +8631,10 @@
         <v>839</v>
       </c>
       <c r="D285" t="n">
-        <v>73.3706932160723</v>
+        <v>77.5271068529038</v>
       </c>
       <c r="E285" t="n">
-        <v>54.5887011151565</v>
+        <v>25.18716378148689</v>
       </c>
       <c r="F285" t="n">
         <v>1</v>
@@ -8660,10 +8660,10 @@
         <v>845</v>
       </c>
       <c r="D286" t="n">
-        <v>79.82366194294976</v>
+        <v>80.59220270687487</v>
       </c>
       <c r="E286" t="n">
-        <v>56.74677035673086</v>
+        <v>28.59424599709949</v>
       </c>
       <c r="F286" t="n">
         <v>1</v>
@@ -8689,10 +8689,10 @@
         <v>971</v>
       </c>
       <c r="D287" t="n">
-        <v>77.30137109721073</v>
+        <v>84.28715856092997</v>
       </c>
       <c r="E287" t="n">
-        <v>58.67901226227506</v>
+        <v>32.02335125971681</v>
       </c>
       <c r="F287" t="n">
         <v>2</v>
@@ -8718,10 +8718,10 @@
         <v>1017</v>
       </c>
       <c r="D288" t="n">
-        <v>73.96320985050511</v>
+        <v>84.75327754093206</v>
       </c>
       <c r="E288" t="n">
-        <v>58.30045201700595</v>
+        <v>34.80670122756947</v>
       </c>
       <c r="F288" t="n">
         <v>2</v>
@@ -8747,10 +8747,10 @@
         <v>1007</v>
       </c>
       <c r="D289" t="n">
-        <v>75.69345690126711</v>
+        <v>81.15433887584129</v>
       </c>
       <c r="E289" t="n">
-        <v>57.92189177173685</v>
+        <v>36.33151224520914</v>
       </c>
       <c r="F289" t="n">
         <v>2</v>
@@ -8776,10 +8776,10 @@
         <v>1024</v>
       </c>
       <c r="D290" t="n">
-        <v>70.32145244145136</v>
+        <v>75.11666222301267</v>
       </c>
       <c r="E290" t="n">
-        <v>57.54333152646773</v>
+        <v>36.82367948630853</v>
       </c>
       <c r="F290" t="n">
         <v>2</v>
@@ -8805,10 +8805,10 @@
         <v>1084</v>
       </c>
       <c r="D291" t="n">
-        <v>65.35115201796035</v>
+        <v>68.42413883836386</v>
       </c>
       <c r="E291" t="n">
-        <v>57.16477128119864</v>
+        <v>36.84244667142629</v>
       </c>
       <c r="F291" t="n">
         <v>2</v>
@@ -8834,10 +8834,10 @@
         <v>1213</v>
       </c>
       <c r="D292" t="n">
-        <v>58.90107527178623</v>
+        <v>62.06829146503725</v>
       </c>
       <c r="E292" t="n">
-        <v>56.78621103592953</v>
+        <v>36.70281283703653</v>
       </c>
       <c r="F292" t="n">
         <v>2</v>
@@ -8863,10 +8863,10 @@
         <v>1367</v>
       </c>
       <c r="D293" t="n">
-        <v>53.34177485100062</v>
+        <v>56.20119592134255</v>
       </c>
       <c r="E293" t="n">
-        <v>56.40765079066042</v>
+        <v>36.5264874674891</v>
       </c>
       <c r="F293" t="n">
         <v>2</v>
@@ -8892,10 +8892,10 @@
         <v>1331</v>
       </c>
       <c r="D294" t="n">
-        <v>48.35099824546651</v>
+        <v>49.41638071832162</v>
       </c>
       <c r="E294" t="n">
-        <v>55.08891325750307</v>
+        <v>36.13449820894422</v>
       </c>
       <c r="F294" t="n">
         <v>2</v>
@@ -8921,10 +8921,10 @@
         <v>1353</v>
       </c>
       <c r="D295" t="n">
-        <v>47.09166855238959</v>
+        <v>47.02810421133452</v>
       </c>
       <c r="E295" t="n">
-        <v>52.62167984297304</v>
+        <v>31.43641726400297</v>
       </c>
       <c r="F295" t="n">
         <v>2</v>
@@ -8950,10 +8950,10 @@
         <v>1403</v>
       </c>
       <c r="D296" t="n">
-        <v>47.5452498272046</v>
+        <v>47.18699119823784</v>
       </c>
       <c r="E296" t="n">
-        <v>44.35071138795379</v>
+        <v>24.47651611723344</v>
       </c>
       <c r="F296" t="n">
         <v>2</v>
@@ -8979,10 +8979,10 @@
         <v>1456</v>
       </c>
       <c r="D297" t="n">
-        <v>48.03400784716186</v>
+        <v>47.61178683167932</v>
       </c>
       <c r="E297" t="n">
-        <v>36.07974293293455</v>
+        <v>17.80119271409572</v>
       </c>
       <c r="F297" t="n">
         <v>2</v>
@@ -9008,10 +9008,10 @@
         <v>1568</v>
       </c>
       <c r="D298" t="n">
-        <v>49.21457518825017</v>
+        <v>48.79611327418934</v>
       </c>
       <c r="E298" t="n">
-        <v>27.80877447791531</v>
+        <v>11.89681155566414</v>
       </c>
       <c r="F298" t="n">
         <v>2</v>
@@ -9037,10 +9037,10 @@
         <v>1744</v>
       </c>
       <c r="D299" t="n">
-        <v>51.14557975903999</v>
+        <v>50.71200797629726</v>
       </c>
       <c r="E299" t="n">
-        <v>19.53780602289607</v>
+        <v>7.519942787641668</v>
       </c>
       <c r="F299" t="n">
         <v>2</v>
@@ -9066,10 +9066,10 @@
         <v>1920</v>
       </c>
       <c r="D300" t="n">
-        <v>53.00355011075477</v>
+        <v>52.43670114639548</v>
       </c>
       <c r="E300" t="n">
-        <v>30.67029703154421</v>
+        <v>5.146399143239307</v>
       </c>
       <c r="F300" t="n">
         <v>2</v>
@@ -9095,10 +9095,10 @@
         <v>1202</v>
       </c>
       <c r="D301" t="n">
-        <v>62.67642265776619</v>
+        <v>60.83692482491755</v>
       </c>
       <c r="E301" t="n">
-        <v>24.01561754737389</v>
+        <v>10.61872682502707</v>
       </c>
       <c r="F301" t="n">
         <v>10</v>
@@ -9124,10 +9124,10 @@
         <v>1103</v>
       </c>
       <c r="D302" t="n">
-        <v>58.08524001951457</v>
+        <v>60.85342778469798</v>
       </c>
       <c r="E302" t="n">
-        <v>31.60770488720689</v>
+        <v>8.788533235522324</v>
       </c>
       <c r="F302" t="n">
         <v>10</v>
@@ -9153,10 +9153,10 @@
         <v>1029</v>
       </c>
       <c r="D303" t="n">
-        <v>59.82706420021019</v>
+        <v>61.37149045975661</v>
       </c>
       <c r="E303" t="n">
-        <v>24.55060578946227</v>
+        <v>7.171428655268317</v>
       </c>
       <c r="F303" t="n">
         <v>10</v>
@@ -9182,10 +9182,10 @@
         <v>1036</v>
       </c>
       <c r="D304" t="n">
-        <v>62.67960405608961</v>
+        <v>62.92613250128813</v>
       </c>
       <c r="E304" t="n">
-        <v>17.49350669171767</v>
+        <v>5.934813754056376</v>
       </c>
       <c r="F304" t="n">
         <v>10</v>
@@ -9211,10 +9211,10 @@
         <v>864</v>
       </c>
       <c r="D305" t="n">
-        <v>62.48750899458579</v>
+        <v>62.92686266106611</v>
       </c>
       <c r="E305" t="n">
-        <v>13.71616927193267</v>
+        <v>5.358932875659892</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>892</v>
       </c>
       <c r="D306" t="n">
-        <v>63.36524830825377</v>
+        <v>64.21094598285629</v>
       </c>
       <c r="E306" t="n">
-        <v>13.79499688075963</v>
+        <v>6.307620394033567</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -9269,10 +9269,10 @@
         <v>988</v>
       </c>
       <c r="D307" t="n">
-        <v>62.15038654742625</v>
+        <v>65.26220752258943</v>
       </c>
       <c r="E307" t="n">
-        <v>17.24771631838213</v>
+        <v>8.505726078663432</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         <v>1054</v>
       </c>
       <c r="D308" t="n">
-        <v>61.39564649620766</v>
+        <v>65.8610871849794</v>
       </c>
       <c r="E308" t="n">
-        <v>20.87672948082134</v>
+        <v>10.89125501902251</v>
       </c>
       <c r="F308" t="n">
         <v>2</v>
@@ -9327,10 +9327,10 @@
         <v>1091</v>
       </c>
       <c r="D309" t="n">
-        <v>60.9562910285482</v>
+        <v>66.4320578638101</v>
       </c>
       <c r="E309" t="n">
-        <v>26.47231473421477</v>
+        <v>13.29026933154084</v>
       </c>
       <c r="F309" t="n">
         <v>2</v>
@@ -9356,10 +9356,10 @@
         <v>994</v>
       </c>
       <c r="D310" t="n">
-        <v>61.04495981182754</v>
+        <v>66.2779522675971</v>
       </c>
       <c r="E310" t="n">
-        <v>32.0678999876082</v>
+        <v>15.67599263339162</v>
       </c>
       <c r="F310" t="n">
         <v>2</v>
@@ -9385,10 +9385,10 @@
         <v>892</v>
       </c>
       <c r="D311" t="n">
-        <v>60.07166866482753</v>
+        <v>66.63054552020456</v>
       </c>
       <c r="E311" t="n">
-        <v>37.66348524100164</v>
+        <v>18.03498151316565</v>
       </c>
       <c r="F311" t="n">
         <v>2</v>
@@ -9414,10 +9414,10 @@
         <v>860</v>
       </c>
       <c r="D312" t="n">
-        <v>59.18706643695973</v>
+        <v>68.30934575580888</v>
       </c>
       <c r="E312" t="n">
-        <v>43.25907049439506</v>
+        <v>20.40009576503955</v>
       </c>
       <c r="F312" t="n">
         <v>2</v>
@@ -9443,10 +9443,10 @@
         <v>839</v>
       </c>
       <c r="D313" t="n">
-        <v>60.55524654344595</v>
+        <v>70.75729553379819</v>
       </c>
       <c r="E313" t="n">
-        <v>47.79568090514189</v>
+        <v>22.87762225251452</v>
       </c>
       <c r="F313" t="n">
         <v>2</v>
@@ -9472,10 +9472,10 @@
         <v>856</v>
       </c>
       <c r="D314" t="n">
-        <v>67.1274742673212</v>
+        <v>74.19965312893888</v>
       </c>
       <c r="E314" t="n">
-        <v>49.95375014671625</v>
+        <v>25.62074958881437</v>
       </c>
       <c r="F314" t="n">
         <v>2</v>
@@ -9501,10 +9501,10 @@
         <v>905</v>
       </c>
       <c r="D315" t="n">
-        <v>74.04663725519006</v>
+        <v>78.50847476661339</v>
       </c>
       <c r="E315" t="n">
-        <v>52.11181938829061</v>
+        <v>28.75795856712828</v>
       </c>
       <c r="F315" t="n">
         <v>2</v>
@@ -9530,10 +9530,10 @@
         <v>909</v>
       </c>
       <c r="D316" t="n">
-        <v>80.47792252806794</v>
+        <v>82.70990504995733</v>
       </c>
       <c r="E316" t="n">
-        <v>54.26988862986497</v>
+        <v>32.31886373266716</v>
       </c>
       <c r="F316" t="n">
         <v>2</v>
@@ -9559,10 +9559,10 @@
         <v>948</v>
       </c>
       <c r="D317" t="n">
-        <v>87.28866824593879</v>
+        <v>87.32470716590105</v>
       </c>
       <c r="E317" t="n">
-        <v>56.42795787143935</v>
+        <v>36.1368265254016</v>
       </c>
       <c r="F317" t="n">
         <v>2</v>
@@ -9588,10 +9588,10 @@
         <v>1044</v>
       </c>
       <c r="D318" t="n">
-        <v>78.85417941685219</v>
+        <v>90.21628196985516</v>
       </c>
       <c r="E318" t="n">
-        <v>57.4828419540024</v>
+        <v>39.35203131797275</v>
       </c>
       <c r="F318" t="n">
         <v>2</v>
@@ -9617,10 +9617,10 @@
         <v>1087</v>
       </c>
       <c r="D319" t="n">
-        <v>75.94339056812063</v>
+        <v>85.62728277190352</v>
       </c>
       <c r="E319" t="n">
-        <v>57.10428170873329</v>
+        <v>40.10013304049008</v>
       </c>
       <c r="F319" t="n">
         <v>2</v>
@@ -9646,10 +9646,10 @@
         <v>1124</v>
       </c>
       <c r="D320" t="n">
-        <v>73.88734651533724</v>
+        <v>77.80702992326061</v>
       </c>
       <c r="E320" t="n">
-        <v>56.72572146346418</v>
+        <v>39.51518085332334</v>
       </c>
       <c r="F320" t="n">
         <v>2</v>
@@ -9675,10 +9675,10 @@
         <v>1084</v>
       </c>
       <c r="D321" t="n">
-        <v>72.14717344452079</v>
+        <v>69.55086621072118</v>
       </c>
       <c r="E321" t="n">
-        <v>55.74127518373449</v>
+        <v>38.72199771826939</v>
       </c>
       <c r="F321" t="n">
         <v>2</v>
@@ -9704,10 +9704,10 @@
         <v>1160</v>
       </c>
       <c r="D322" t="n">
-        <v>61.44521496243782</v>
+        <v>62.6323614457423</v>
       </c>
       <c r="E322" t="n">
-        <v>53.76197775484725</v>
+        <v>37.87569746562627</v>
       </c>
       <c r="F322" t="n">
         <v>2</v>
@@ -9733,10 +9733,10 @@
         <v>1241</v>
       </c>
       <c r="D323" t="n">
-        <v>50.70473041483646</v>
+        <v>56.57527288483418</v>
       </c>
       <c r="E323" t="n">
-        <v>51.78268032596002</v>
+        <v>36.8249811276123</v>
       </c>
       <c r="F323" t="n">
         <v>2</v>
@@ -9762,10 +9762,10 @@
         <v>1319</v>
       </c>
       <c r="D324" t="n">
-        <v>48.05588768391458</v>
+        <v>51.85457743894119</v>
       </c>
       <c r="E324" t="n">
-        <v>50.17636490417535</v>
+        <v>34.90174224680889</v>
       </c>
       <c r="F324" t="n">
         <v>2</v>
@@ -9791,10 +9791,10 @@
         <v>1447</v>
       </c>
       <c r="D325" t="n">
-        <v>49.19386122759125</v>
+        <v>50.07453355370382</v>
       </c>
       <c r="E325" t="n">
-        <v>48.65381316086027</v>
+        <v>30.89624635132718</v>
       </c>
       <c r="F325" t="n">
         <v>2</v>
@@ -9820,10 +9820,10 @@
         <v>1515</v>
       </c>
       <c r="D326" t="n">
-        <v>49.62829986842278</v>
+        <v>49.60720614934162</v>
       </c>
       <c r="E326" t="n">
-        <v>47.13126141754518</v>
+        <v>25.29739704423362</v>
       </c>
       <c r="F326" t="n">
         <v>2</v>
@@ -9849,10 +9849,10 @@
         <v>1579</v>
       </c>
       <c r="D327" t="n">
-        <v>50.12916797007339</v>
+        <v>49.85106494614165</v>
       </c>
       <c r="E327" t="n">
-        <v>42.28638206940657</v>
+        <v>19.49059688823352</v>
       </c>
       <c r="F327" t="n">
         <v>2</v>
@@ -9878,10 +9878,10 @@
         <v>1645</v>
       </c>
       <c r="D328" t="n">
-        <v>50.77035855231377</v>
+        <v>50.41089783646488</v>
       </c>
       <c r="E328" t="n">
-        <v>34.01541361438733</v>
+        <v>14.25732628162407</v>
       </c>
       <c r="F328" t="n">
         <v>2</v>
@@ -9907,10 +9907,10 @@
         <v>1804</v>
       </c>
       <c r="D329" t="n">
-        <v>52.50202823396411</v>
+        <v>52.11960896973835</v>
       </c>
       <c r="E329" t="n">
-        <v>25.74444515936809</v>
+        <v>10.14479157923889</v>
       </c>
       <c r="F329" t="n">
         <v>2</v>
@@ -9936,10 +9936,10 @@
         <v>1981</v>
       </c>
       <c r="D330" t="n">
-        <v>54.05306485369482</v>
+        <v>53.80532792449097</v>
       </c>
       <c r="E330" t="n">
-        <v>28.87980116829711</v>
+        <v>7.446091854171229</v>
       </c>
       <c r="F330" t="n">
         <v>100</v>
@@ -9965,10 +9965,10 @@
         <v>1221</v>
       </c>
       <c r="D331" t="n">
-        <v>61.44189063472486</v>
+        <v>60.78948033298234</v>
       </c>
       <c r="E331" t="n">
-        <v>26.3195327416426</v>
+        <v>8.342108275063081</v>
       </c>
       <c r="F331" t="n">
         <v>10</v>
@@ -9994,10 +9994,10 @@
         <v>1132</v>
       </c>
       <c r="D332" t="n">
-        <v>58.68967191804874</v>
+        <v>60.90653927576417</v>
       </c>
       <c r="E332" t="n">
-        <v>30.97756108745826</v>
+        <v>6.598258140427658</v>
       </c>
       <c r="F332" t="n">
         <v>10</v>
@@ -10023,10 +10023,10 @@
         <v>1019</v>
       </c>
       <c r="D333" t="n">
-        <v>59.89670706995216</v>
+        <v>61.07504254913774</v>
       </c>
       <c r="E333" t="n">
-        <v>23.92046198971365</v>
+        <v>5.175867543954927</v>
       </c>
       <c r="F333" t="n">
         <v>10</v>
@@ -10052,10 +10052,10 @@
         <v>896</v>
       </c>
       <c r="D334" t="n">
-        <v>60.96661682985759</v>
+        <v>61.49629817235848</v>
       </c>
       <c r="E334" t="n">
-        <v>16.86336289196905</v>
+        <v>4.341622145290239</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -10081,10 +10081,10 @@
         <v>951</v>
       </c>
       <c r="D335" t="n">
-        <v>62.20027364349354</v>
+        <v>62.82827127620337</v>
       </c>
       <c r="E335" t="n">
-        <v>13.99276834898829</v>
+        <v>5.685758894536587</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -10110,10 +10110,10 @@
         <v>1092</v>
       </c>
       <c r="D336" t="n">
-        <v>60.72543805884162</v>
+        <v>63.99646061785518</v>
       </c>
       <c r="E336" t="n">
-        <v>17.4454877866108</v>
+        <v>8.795821926963033</v>
       </c>
       <c r="F336" t="n">
         <v>2</v>
@@ -10139,10 +10139,10 @@
         <v>1228</v>
       </c>
       <c r="D337" t="n">
-        <v>59.47318950975832</v>
+        <v>65.13431923281733</v>
       </c>
       <c r="E337" t="n">
-        <v>20.8982072242333</v>
+        <v>11.91024511352976</v>
       </c>
       <c r="F337" t="n">
         <v>2</v>
@@ -10168,10 +10168,10 @@
         <v>1075</v>
       </c>
       <c r="D338" t="n">
-        <v>59.78252514417627</v>
+        <v>64.10917808153627</v>
       </c>
       <c r="E338" t="n">
-        <v>25.00837811171441</v>
+        <v>14.95113510751272</v>
       </c>
       <c r="F338" t="n">
         <v>2</v>
@@ -10197,10 +10197,10 @@
         <v>998</v>
       </c>
       <c r="D339" t="n">
-        <v>59.67816181634537</v>
+        <v>64.07505365657025</v>
       </c>
       <c r="E339" t="n">
-        <v>30.60396336510784</v>
+        <v>17.87888946151591</v>
       </c>
       <c r="F339" t="n">
         <v>2</v>
@@ -10226,10 +10226,10 @@
         <v>984</v>
       </c>
       <c r="D340" t="n">
-        <v>58.98871067447398</v>
+        <v>65.23655751185539</v>
       </c>
       <c r="E340" t="n">
-        <v>36.19954861850127</v>
+        <v>20.63915685144856</v>
       </c>
       <c r="F340" t="n">
         <v>2</v>
@@ -10255,10 +10255,10 @@
         <v>906</v>
       </c>
       <c r="D341" t="n">
-        <v>57.60538900461538</v>
+        <v>66.60396060823361</v>
       </c>
       <c r="E341" t="n">
-        <v>41.79513387189471</v>
+        <v>23.22040928925851</v>
       </c>
       <c r="F341" t="n">
         <v>2</v>
@@ -10284,10 +10284,10 @@
         <v>881</v>
       </c>
       <c r="D342" t="n">
-        <v>60.97098913456853</v>
+        <v>69.20976442055456</v>
       </c>
       <c r="E342" t="n">
-        <v>45.31879917827601</v>
+        <v>25.73062896358269</v>
       </c>
       <c r="F342" t="n">
         <v>2</v>
@@ -10313,10 +10313,10 @@
         <v>933</v>
       </c>
       <c r="D343" t="n">
-        <v>67.92267730343679</v>
+        <v>73.23752202170461</v>
       </c>
       <c r="E343" t="n">
-        <v>47.47686841985038</v>
+        <v>28.37359072438191</v>
       </c>
       <c r="F343" t="n">
         <v>2</v>
@@ -10342,10 +10342,10 @@
         <v>984</v>
       </c>
       <c r="D344" t="n">
-        <v>74.86352374530526</v>
+        <v>77.81528429434246</v>
       </c>
       <c r="E344" t="n">
-        <v>49.63493766142474</v>
+        <v>31.34716053245206</v>
       </c>
       <c r="F344" t="n">
         <v>2</v>
@@ -10371,10 +10371,10 @@
         <v>1009</v>
       </c>
       <c r="D345" t="n">
-        <v>81.5224852851789</v>
+        <v>82.64262110610727</v>
       </c>
       <c r="E345" t="n">
-        <v>51.7930069029991</v>
+        <v>34.77415762346165</v>
       </c>
       <c r="F345" t="n">
         <v>2</v>
@@ -10400,10 +10400,10 @@
         <v>937</v>
       </c>
       <c r="D346" t="n">
-        <v>87.12979930607197</v>
+        <v>87.09744002431917</v>
       </c>
       <c r="E346" t="n">
-        <v>53.95107614457346</v>
+        <v>38.68140807462162</v>
       </c>
       <c r="F346" t="n">
         <v>2</v>
@@ -10429,10 +10429,10 @@
         <v>998</v>
       </c>
       <c r="D347" t="n">
-        <v>93.80947556345997</v>
+        <v>93.47308633210592</v>
       </c>
       <c r="E347" t="n">
-        <v>55.98863168887863</v>
+        <v>42.91758604869197</v>
       </c>
       <c r="F347" t="n">
         <v>2</v>
@@ -10458,10 +10458,10 @@
         <v>1097</v>
       </c>
       <c r="D348" t="n">
-        <v>83.25613705632085</v>
+        <v>86.03018164839378</v>
       </c>
       <c r="E348" t="n">
-        <v>54.41433968107866</v>
+        <v>42.27684654657034</v>
       </c>
       <c r="F348" t="n">
         <v>2</v>
@@ -10487,10 +10487,10 @@
         <v>1221</v>
       </c>
       <c r="D349" t="n">
-        <v>68.80629346228915</v>
+        <v>77.45148746617085</v>
       </c>
       <c r="E349" t="n">
-        <v>52.43504225219142</v>
+        <v>40.79695278032052</v>
       </c>
       <c r="F349" t="n">
         <v>2</v>
@@ -10516,10 +10516,10 @@
         <v>1155</v>
       </c>
       <c r="D350" t="n">
-        <v>63.98480897348858</v>
+        <v>69.47331018673567</v>
       </c>
       <c r="E350" t="n">
-        <v>50.45574482330418</v>
+        <v>39.36713647268921</v>
       </c>
       <c r="F350" t="n">
         <v>2</v>
@@ -10545,10 +10545,10 @@
         <v>1157</v>
       </c>
       <c r="D351" t="n">
-        <v>53.85303626107783</v>
+        <v>62.65779279557671</v>
       </c>
       <c r="E351" t="n">
-        <v>48.47644739441695</v>
+        <v>37.87830826163368</v>
       </c>
       <c r="F351" t="n">
         <v>2</v>
@@ -10574,10 +10574,10 @@
         <v>1221</v>
       </c>
       <c r="D352" t="n">
-        <v>48.30121077956785</v>
+        <v>57.34158785753223</v>
       </c>
       <c r="E352" t="n">
-        <v>46.80641812907586</v>
+        <v>36.09177199792628</v>
       </c>
       <c r="F352" t="n">
         <v>2</v>
@@ -10603,10 +10603,10 @@
         <v>1309</v>
       </c>
       <c r="D353" t="n">
-        <v>48.9701610546811</v>
+        <v>53.54282502968861</v>
       </c>
       <c r="E353" t="n">
-        <v>45.28386638576077</v>
+        <v>33.56994729752958</v>
       </c>
       <c r="F353" t="n">
         <v>2</v>
@@ -10632,10 +10632,10 @@
         <v>1441</v>
       </c>
       <c r="D354" t="n">
-        <v>50.1550369252141</v>
+        <v>51.82575300265746</v>
       </c>
       <c r="E354" t="n">
-        <v>43.76131464244568</v>
+        <v>29.91787912901679</v>
       </c>
       <c r="F354" t="n">
         <v>2</v>
@@ -10661,10 +10661,10 @@
         <v>1603</v>
       </c>
       <c r="D355" t="n">
-        <v>51.69168024716969</v>
+        <v>51.96975996079067</v>
       </c>
       <c r="E355" t="n">
-        <v>42.23876289913058</v>
+        <v>25.32856603369576</v>
       </c>
       <c r="F355" t="n">
         <v>2</v>
@@ -10690,10 +10690,10 @@
         <v>1729</v>
       </c>
       <c r="D356" t="n">
-        <v>52.80620262741818</v>
+        <v>52.63115967861639</v>
       </c>
       <c r="E356" t="n">
-        <v>40.7162111558155</v>
+        <v>20.44193232670104</v>
       </c>
       <c r="F356" t="n">
         <v>2</v>
@@ -10719,10 +10719,10 @@
         <v>1802</v>
       </c>
       <c r="D357" t="n">
-        <v>53.29926917682015</v>
+        <v>53.13271663393576</v>
       </c>
       <c r="E357" t="n">
-        <v>39.19365941250041</v>
+        <v>15.84438436321048</v>
       </c>
       <c r="F357" t="n">
         <v>2</v>
@@ -10748,10 +10748,10 @@
         <v>1917</v>
       </c>
       <c r="D358" t="n">
-        <v>54.47993253973479</v>
+        <v>54.30675467327602</v>
       </c>
       <c r="E358" t="n">
-        <v>31.95108429584011</v>
+        <v>11.96946413105866</v>
       </c>
       <c r="F358" t="n">
         <v>2</v>
@@ -10777,10 +10777,10 @@
         <v>2012</v>
       </c>
       <c r="D359" t="n">
-        <v>54.87471402472126</v>
+        <v>55.00683356709767</v>
       </c>
       <c r="E359" t="n">
-        <v>30.77375249596592</v>
+        <v>9.226843179106581</v>
       </c>
       <c r="F359" t="n">
         <v>100</v>
@@ -10806,10 +10806,10 @@
         <v>1151</v>
       </c>
       <c r="D360" t="n">
-        <v>57.16401706604753</v>
+        <v>59.29158278090609</v>
       </c>
       <c r="E360" t="n">
-        <v>33.20678930252016</v>
+        <v>6.57059549302314</v>
       </c>
       <c r="F360" t="n">
         <v>10</v>
@@ -10835,10 +10835,10 @@
         <v>1064</v>
       </c>
       <c r="D361" t="n">
-        <v>57.96398751420232</v>
+        <v>59.13594545016412</v>
       </c>
       <c r="E361" t="n">
-        <v>30.34741728770965</v>
+        <v>5.132129205041827</v>
       </c>
       <c r="F361" t="n">
         <v>10</v>
@@ -10864,10 +10864,10 @@
         <v>977</v>
       </c>
       <c r="D362" t="n">
-        <v>59.30831644251936</v>
+        <v>59.31626699669446</v>
       </c>
       <c r="E362" t="n">
-        <v>23.80196820981493</v>
+        <v>5.045585005943034</v>
       </c>
       <c r="F362" t="n">
         <v>100</v>
@@ -10893,10 +10893,10 @@
         <v>996</v>
       </c>
       <c r="D363" t="n">
-        <v>59.68677348069303</v>
+        <v>60.29085417609756</v>
       </c>
       <c r="E363" t="n">
-        <v>21.83771270859608</v>
+        <v>6.929647092188846</v>
       </c>
       <c r="F363" t="n">
         <v>100</v>
@@ -10922,10 +10922,10 @@
         <v>1099</v>
       </c>
       <c r="D364" t="n">
-        <v>59.36352393382619</v>
+        <v>61.435196133201</v>
       </c>
       <c r="E364" t="n">
-        <v>19.87345720737721</v>
+        <v>9.988757167458838</v>
       </c>
       <c r="F364" t="n">
         <v>100</v>
@@ -10951,10 +10951,10 @@
         <v>1298</v>
       </c>
       <c r="D365" t="n">
-        <v>58.05096463291953</v>
+        <v>63.14525325888791</v>
       </c>
       <c r="E365" t="n">
-        <v>21.09597869246197</v>
+        <v>13.39061287980404</v>
       </c>
       <c r="F365" t="n">
         <v>100</v>
@@ -10980,10 +10980,10 @@
         <v>1132</v>
       </c>
       <c r="D366" t="n">
-        <v>58.34972824635858</v>
+        <v>61.87192289586505</v>
       </c>
       <c r="E366" t="n">
-        <v>24.54869813008447</v>
+        <v>16.83644065894123</v>
       </c>
       <c r="F366" t="n">
         <v>2</v>
@@ -11009,10 +11009,10 @@
         <v>1150</v>
       </c>
       <c r="D367" t="n">
-        <v>57.95661789997552</v>
+        <v>62.44816752086017</v>
       </c>
       <c r="E367" t="n">
-        <v>29.14002674260749</v>
+        <v>20.17960889824572</v>
       </c>
       <c r="F367" t="n">
         <v>2</v>
@@ -11038,10 +11038,10 @@
         <v>1082</v>
       </c>
       <c r="D368" t="n">
-        <v>57.93101277820094</v>
+        <v>62.97448809699883</v>
       </c>
       <c r="E368" t="n">
-        <v>34.73561199600091</v>
+        <v>23.22978392834445</v>
       </c>
       <c r="F368" t="n">
         <v>2</v>
@@ -11067,10 +11067,10 @@
         <v>956</v>
       </c>
       <c r="D369" t="n">
-        <v>56.06707848027023</v>
+        <v>63.98392034384212</v>
       </c>
       <c r="E369" t="n">
-        <v>40.33119724939434</v>
+        <v>25.82497502898106</v>
       </c>
       <c r="F369" t="n">
         <v>2</v>
@@ -11096,10 +11096,10 @@
         <v>944</v>
       </c>
       <c r="D370" t="n">
-        <v>61.61440799268691</v>
+        <v>66.81472021710016</v>
       </c>
       <c r="E370" t="n">
-        <v>42.84191745141013</v>
+        <v>28.07649783169983</v>
       </c>
       <c r="F370" t="n">
         <v>2</v>
@@ -11125,10 +11125,10 @@
         <v>951</v>
       </c>
       <c r="D371" t="n">
-        <v>68.07821844656416</v>
+        <v>70.40394937503943</v>
       </c>
       <c r="E371" t="n">
-        <v>44.99998669298449</v>
+        <v>30.30674133772837</v>
       </c>
       <c r="F371" t="n">
         <v>2</v>
@@ -11154,10 +11154,10 @@
         <v>1023</v>
       </c>
       <c r="D372" t="n">
-        <v>75.24674115542842</v>
+        <v>74.89167679804245</v>
       </c>
       <c r="E372" t="n">
-        <v>47.15805593455885</v>
+        <v>32.7809628090682</v>
       </c>
       <c r="F372" t="n">
         <v>2</v>
@@ -11183,10 +11183,10 @@
         <v>1067</v>
       </c>
       <c r="D373" t="n">
-        <v>81.53836695784381</v>
+        <v>79.086472854703</v>
       </c>
       <c r="E373" t="n">
-        <v>49.31612517613321</v>
+        <v>35.61043339005835</v>
       </c>
       <c r="F373" t="n">
         <v>2</v>
@@ -11212,10 +11212,10 @@
         <v>1010</v>
       </c>
       <c r="D374" t="n">
-        <v>82.34445246978524</v>
+        <v>82.03181583488927</v>
       </c>
       <c r="E374" t="n">
-        <v>49.77821047451538</v>
+        <v>38.66403780272375</v>
       </c>
       <c r="F374" t="n">
         <v>2</v>
@@ -11241,10 +11241,10 @@
         <v>1009</v>
       </c>
       <c r="D375" t="n">
-        <v>82.82275822304709</v>
+        <v>83.14681995623303</v>
       </c>
       <c r="E375" t="n">
-        <v>50.17321664840524</v>
+        <v>41.11399807244852</v>
       </c>
       <c r="F375" t="n">
         <v>2</v>
@@ -11270,10 +11270,10 @@
         <v>1109</v>
       </c>
       <c r="D376" t="n">
-        <v>77.20561150121064</v>
+        <v>79.38984422793484</v>
       </c>
       <c r="E376" t="n">
-        <v>49.12880932064835</v>
+        <v>41.46875768957926</v>
       </c>
       <c r="F376" t="n">
         <v>2</v>
@@ -11299,10 +11299,10 @@
         <v>1263</v>
       </c>
       <c r="D377" t="n">
-        <v>71.56040103876585</v>
+        <v>73.47471461347193</v>
       </c>
       <c r="E377" t="n">
-        <v>47.14951189176112</v>
+        <v>40.37456102728127</v>
       </c>
       <c r="F377" t="n">
         <v>2</v>
@@ -11328,10 +11328,10 @@
         <v>1267</v>
       </c>
       <c r="D378" t="n">
-        <v>57.01165979417112</v>
+        <v>67.6037559164747</v>
       </c>
       <c r="E378" t="n">
-        <v>45.17021446287389</v>
+        <v>38.80350362894988</v>
       </c>
       <c r="F378" t="n">
         <v>2</v>
@@ -11357,10 +11357,10 @@
         <v>1218</v>
       </c>
       <c r="D379" t="n">
-        <v>49.66046413805926</v>
+        <v>61.95095362795101</v>
       </c>
       <c r="E379" t="n">
-        <v>43.43647135397636</v>
+        <v>36.99725195125912</v>
       </c>
       <c r="F379" t="n">
         <v>2</v>
@@ -11386,10 +11386,10 @@
         <v>1237</v>
       </c>
       <c r="D380" t="n">
-        <v>49.52034927490059</v>
+        <v>57.49235262047628</v>
       </c>
       <c r="E380" t="n">
-        <v>41.91391961066126</v>
+        <v>34.87910680352823</v>
       </c>
       <c r="F380" t="n">
         <v>2</v>
@@ -11415,10 +11415,10 @@
         <v>1322</v>
       </c>
       <c r="D381" t="n">
-        <v>50.15412280487158</v>
+        <v>54.53533667743747</v>
       </c>
       <c r="E381" t="n">
-        <v>40.39136786734618</v>
+        <v>32.23606686490035</v>
       </c>
       <c r="F381" t="n">
         <v>2</v>
@@ -11444,10 +11444,10 @@
         <v>1462</v>
       </c>
       <c r="D382" t="n">
-        <v>51.43280332911727</v>
+        <v>53.23761575026774</v>
       </c>
       <c r="E382" t="n">
-        <v>38.86881612403108</v>
+        <v>28.92151205851876</v>
       </c>
       <c r="F382" t="n">
         <v>2</v>
@@ -11473,10 +11473,10 @@
         <v>1631</v>
       </c>
       <c r="D383" t="n">
-        <v>53.05152572307146</v>
+        <v>53.35942182028099</v>
       </c>
       <c r="E383" t="n">
-        <v>37.34626438071599</v>
+        <v>25.04150388409328</v>
       </c>
       <c r="F383" t="n">
         <v>2</v>
@@ -11502,10 +11502,10 @@
         <v>1779</v>
       </c>
       <c r="D384" t="n">
-        <v>54.42401090102985</v>
+        <v>54.07437569910288</v>
       </c>
       <c r="E384" t="n">
-        <v>35.82371263740091</v>
+        <v>20.92229287090854</v>
       </c>
       <c r="F384" t="n">
         <v>2</v>
@@ -11531,10 +11531,10 @@
         <v>1991</v>
       </c>
       <c r="D385" t="n">
-        <v>56.5469333086897</v>
+        <v>56.0446674777203</v>
       </c>
       <c r="E385" t="n">
-        <v>34.30116089408582</v>
+        <v>16.92701716129504</v>
       </c>
       <c r="F385" t="n">
         <v>2</v>
@@ -11560,10 +11560,10 @@
         <v>2091</v>
       </c>
       <c r="D386" t="n">
-        <v>57.35659056437198</v>
+        <v>57.05941204437905</v>
       </c>
       <c r="E386" t="n">
-        <v>32.77860915077073</v>
+        <v>13.33110907131893</v>
       </c>
       <c r="F386" t="n">
         <v>2</v>
@@ -11589,10 +11589,10 @@
         <v>2090</v>
       </c>
       <c r="D387" t="n">
-        <v>56.30044753621638</v>
+        <v>56.58508030229088</v>
       </c>
       <c r="E387" t="n">
-        <v>31.79457698097437</v>
+        <v>10.65806050723948</v>
       </c>
       <c r="F387" t="n">
         <v>100</v>
@@ -11618,10 +11618,10 @@
         <v>1147</v>
       </c>
       <c r="D388" t="n">
-        <v>54.47849539908758</v>
+        <v>57.62777324116981</v>
       </c>
       <c r="E388" t="n">
-        <v>36.9252432739903</v>
+        <v>5.947817390815106</v>
       </c>
       <c r="F388" t="n">
         <v>10</v>
@@ -11647,10 +11647,10 @@
         <v>1101</v>
       </c>
       <c r="D389" t="n">
-        <v>55.88374463661954</v>
+        <v>57.71629611632402</v>
       </c>
       <c r="E389" t="n">
-        <v>33.63774565206142</v>
+        <v>6.353001152275255</v>
       </c>
       <c r="F389" t="n">
         <v>100</v>
@@ -11676,10 +11676,10 @@
         <v>1113</v>
       </c>
       <c r="D390" t="n">
-        <v>56.65237185339616</v>
+        <v>58.58899812995342</v>
       </c>
       <c r="E390" t="n">
-        <v>30.76315507492274</v>
+        <v>8.71033064956246</v>
       </c>
       <c r="F390" t="n">
         <v>100</v>
@@ -11705,10 +11705,10 @@
         <v>1263</v>
       </c>
       <c r="D391" t="n">
-        <v>52.36415545876358</v>
+        <v>60.19541856591044</v>
       </c>
       <c r="E391" t="n">
-        <v>28.79889957370388</v>
+        <v>11.73179377310112</v>
       </c>
       <c r="F391" t="n">
         <v>100</v>
@@ -11734,10 +11734,10 @@
         <v>1295</v>
       </c>
       <c r="D392" t="n">
-        <v>56.34691948970239</v>
+        <v>60.35823390805258</v>
       </c>
       <c r="E392" t="n">
-        <v>24.87038857126616</v>
+        <v>18.81400240566569</v>
       </c>
       <c r="F392" t="n">
         <v>100</v>
@@ -11763,10 +11763,10 @@
         <v>1261</v>
       </c>
       <c r="D393" t="n">
-        <v>56.28241112105712</v>
+        <v>60.05803549748357</v>
       </c>
       <c r="E393" t="n">
-        <v>28.19918903593564</v>
+        <v>22.49021584919984</v>
       </c>
       <c r="F393" t="n">
         <v>100</v>
@@ -11792,10 +11792,10 @@
         <v>1108</v>
       </c>
       <c r="D394" t="n">
-        <v>56.17229107377887</v>
+        <v>59.39571306447041</v>
       </c>
       <c r="E394" t="n">
-        <v>33.27167537350056</v>
+        <v>25.82851678471538</v>
       </c>
       <c r="F394" t="n">
         <v>2</v>
@@ -11821,10 +11821,10 @@
         <v>1002</v>
       </c>
       <c r="D395" t="n">
-        <v>55.81569985092761</v>
+        <v>60.5915229726335</v>
       </c>
       <c r="E395" t="n">
-        <v>38.20696648296988</v>
+        <v>28.22789382715899</v>
       </c>
       <c r="F395" t="n">
         <v>2</v>
@@ -11850,10 +11850,10 @@
         <v>1029</v>
       </c>
       <c r="D396" t="n">
-        <v>62.49634484480089</v>
+        <v>63.88160267790175</v>
       </c>
       <c r="E396" t="n">
-        <v>40.36503572454424</v>
+        <v>29.85904587671223</v>
       </c>
       <c r="F396" t="n">
         <v>2</v>
@@ -11879,10 +11879,10 @@
         <v>1041</v>
       </c>
       <c r="D397" t="n">
-        <v>69.01436393367713</v>
+        <v>67.43985722409857</v>
       </c>
       <c r="E397" t="n">
-        <v>42.5231049661186</v>
+        <v>31.38144414409081</v>
       </c>
       <c r="F397" t="n">
         <v>2</v>
@@ -11908,10 +11908,10 @@
         <v>1093</v>
       </c>
       <c r="D398" t="n">
-        <v>71.01273131259337</v>
+        <v>71.16389288435397</v>
       </c>
       <c r="E398" t="n">
-        <v>43.17278308626226</v>
+        <v>33.09942441631966</v>
       </c>
       <c r="F398" t="n">
         <v>2</v>
@@ -11937,10 +11937,10 @@
         <v>1143</v>
       </c>
       <c r="D399" t="n">
-        <v>74.48779734492653</v>
+        <v>74.11938219897871</v>
       </c>
       <c r="E399" t="n">
-        <v>43.56778926015213</v>
+        <v>35.07089935265585</v>
       </c>
       <c r="F399" t="n">
         <v>2</v>
@@ -11966,10 +11966,10 @@
         <v>1110</v>
       </c>
       <c r="D400" t="n">
-        <v>72.12458730974603</v>
+        <v>74.99770917165186</v>
       </c>
       <c r="E400" t="n">
-        <v>43.96279543404198</v>
+        <v>37.15391247990468</v>
       </c>
       <c r="F400" t="n">
         <v>2</v>
@@ -11995,10 +11995,10 @@
         <v>1030</v>
       </c>
       <c r="D401" t="n">
-        <v>71.95740281249797</v>
+        <v>73.29373015043967</v>
       </c>
       <c r="E401" t="n">
-        <v>44.35780160793185</v>
+        <v>38.87799388213872</v>
       </c>
       <c r="F401" t="n">
         <v>2</v>
@@ -12024,10 +12024,10 @@
         <v>1071</v>
       </c>
       <c r="D402" t="n">
-        <v>69.6341827652623</v>
+        <v>70.07448702702727</v>
       </c>
       <c r="E402" t="n">
-        <v>43.84327896021806</v>
+        <v>39.50700133255239</v>
       </c>
       <c r="F402" t="n">
         <v>2</v>
@@ -12053,10 +12053,10 @@
         <v>1237</v>
       </c>
       <c r="D403" t="n">
-        <v>58.99305136433717</v>
+        <v>67.08464243569485</v>
       </c>
       <c r="E403" t="n">
-        <v>41.86398153133082</v>
+        <v>38.7867833331516</v>
       </c>
       <c r="F403" t="n">
         <v>2</v>
@@ -12082,10 +12082,10 @@
         <v>1391</v>
       </c>
       <c r="D404" t="n">
-        <v>57.49092334858331</v>
+        <v>64.73650616838171</v>
       </c>
       <c r="E404" t="n">
-        <v>40.06652457887686</v>
+        <v>37.28078422887507</v>
       </c>
       <c r="F404" t="n">
         <v>2</v>
@@ -12111,10 +12111,10 @@
         <v>1290</v>
       </c>
       <c r="D405" t="n">
-        <v>51.53623520938078</v>
+        <v>60.51791993658522</v>
       </c>
       <c r="E405" t="n">
-        <v>38.54397283556176</v>
+        <v>35.44442578073296</v>
       </c>
       <c r="F405" t="n">
         <v>2</v>
@@ -12140,10 +12140,10 @@
         <v>1289</v>
       </c>
       <c r="D406" t="n">
-        <v>51.16160871194041</v>
+        <v>57.25085555236512</v>
       </c>
       <c r="E406" t="n">
-        <v>37.02142109224667</v>
+        <v>33.32746779071832</v>
       </c>
       <c r="F406" t="n">
         <v>2</v>
@@ -12169,10 +12169,10 @@
         <v>1343</v>
       </c>
       <c r="D407" t="n">
-        <v>51.43188920877474</v>
+        <v>54.91312379737218</v>
       </c>
       <c r="E407" t="n">
-        <v>35.49886934893158</v>
+        <v>30.83241931934054</v>
       </c>
       <c r="F407" t="n">
         <v>2</v>
@@ -12198,10 +12198,10 @@
         <v>1462</v>
       </c>
       <c r="D408" t="n">
-        <v>52.46433251702464</v>
+        <v>53.85781680027242</v>
       </c>
       <c r="E408" t="n">
-        <v>33.97631760561649</v>
+        <v>27.90198967245338</v>
       </c>
       <c r="F408" t="n">
         <v>2</v>
@@ -12227,10 +12227,10 @@
         <v>1633</v>
       </c>
       <c r="D409" t="n">
-        <v>54.9565330181026</v>
+        <v>54.0706847207285</v>
       </c>
       <c r="E409" t="n">
-        <v>32.76908783537185</v>
+        <v>24.60877841750106</v>
       </c>
       <c r="F409" t="n">
         <v>2</v>
@@ -12256,10 +12256,10 @@
         <v>1774</v>
       </c>
       <c r="D410" t="n">
-        <v>57.65546252863241</v>
+        <v>54.58396931716447</v>
       </c>
       <c r="E410" t="n">
-        <v>33.74215442107408</v>
+        <v>21.14689389384738</v>
       </c>
       <c r="F410" t="n">
         <v>2</v>
@@ -12285,10 +12285,10 @@
         <v>1977</v>
       </c>
       <c r="D411" t="n">
-        <v>54.96869090602271</v>
+        <v>56.20913468562269</v>
       </c>
       <c r="E411" t="n">
-        <v>31.24259524308551</v>
+        <v>17.76253922232345</v>
       </c>
       <c r="F411" t="n">
         <v>2</v>
@@ -12314,10 +12314,10 @@
         <v>2180</v>
       </c>
       <c r="D412" t="n">
-        <v>57.48432436617283</v>
+        <v>57.96341267746779</v>
       </c>
       <c r="E412" t="n">
-        <v>30.15096157184441</v>
+        <v>14.71597417557921</v>
       </c>
       <c r="F412" t="n">
         <v>100</v>
@@ -12343,10 +12343,10 @@
         <v>1122</v>
       </c>
       <c r="D413" t="n">
-        <v>54.25283705527534</v>
+        <v>55.41068051673062</v>
       </c>
       <c r="E413" t="n">
-        <v>31.84967994178682</v>
+        <v>28.35473213776127</v>
       </c>
       <c r="F413" t="n">
         <v>100</v>
@@ -12372,10 +12372,10 @@
         <v>1105</v>
       </c>
       <c r="D414" t="n">
-        <v>56.892787789038</v>
+        <v>57.30995004966393</v>
       </c>
       <c r="E414" t="n">
-        <v>35.730084756104</v>
+        <v>30.2764424063818</v>
       </c>
       <c r="F414" t="n">
         <v>100</v>
@@ -12401,10 +12401,10 @@
         <v>1119</v>
       </c>
       <c r="D415" t="n">
-        <v>59.21527668351464</v>
+        <v>60.96467608821696</v>
       </c>
       <c r="E415" t="n">
-        <v>36.56735569800915</v>
+        <v>30.87126628681366</v>
       </c>
       <c r="F415" t="n">
         <v>100</v>
@@ -12430,10 +12430,10 @@
         <v>1190</v>
       </c>
       <c r="D416" t="n">
-        <v>60.28187734863359</v>
+        <v>64.97003470463773</v>
       </c>
       <c r="E416" t="n">
-        <v>36.96236187189901</v>
+        <v>31.57119802698051</v>
       </c>
       <c r="F416" t="n">
         <v>2</v>
@@ -12459,10 +12459,10 @@
         <v>1192</v>
       </c>
       <c r="D417" t="n">
-        <v>60.78469538988948</v>
+        <v>67.73585349920245</v>
       </c>
       <c r="E417" t="n">
-        <v>37.35736804578887</v>
+        <v>32.45954319143387</v>
       </c>
       <c r="F417" t="n">
         <v>2</v>
@@ -12488,10 +12488,10 @@
         <v>1278</v>
       </c>
       <c r="D418" t="n">
-        <v>68.98984859126298</v>
+        <v>70.05075869178421</v>
       </c>
       <c r="E418" t="n">
-        <v>37.75237421967873</v>
+        <v>33.51402729757366</v>
       </c>
       <c r="F418" t="n">
         <v>2</v>
@@ -12517,10 +12517,10 @@
         <v>1252</v>
       </c>
       <c r="D419" t="n">
-        <v>72.55207411016956</v>
+        <v>69.47808781091499</v>
       </c>
       <c r="E419" t="n">
-        <v>38.14738039356859</v>
+        <v>34.71872962571648</v>
       </c>
       <c r="F419" t="n">
         <v>2</v>
@@ -12546,10 +12546,10 @@
         <v>1118</v>
       </c>
       <c r="D420" t="n">
-        <v>61.63948850048256</v>
+        <v>65.35180278028365</v>
       </c>
       <c r="E420" t="n">
-        <v>38.54238656745844</v>
+        <v>36.12290693150593</v>
       </c>
       <c r="F420" t="n">
         <v>2</v>
@@ -12575,10 +12575,10 @@
         <v>1085</v>
       </c>
       <c r="D421" t="n">
-        <v>60.98225595118218</v>
+        <v>61.02534773483372</v>
       </c>
       <c r="E421" t="n">
-        <v>38.55774859978775</v>
+        <v>37.24541521357674</v>
       </c>
       <c r="F421" t="n">
         <v>2</v>
@@ -12604,10 +12604,10 @@
         <v>1193</v>
       </c>
       <c r="D422" t="n">
-        <v>52.15618480247445</v>
+        <v>60.08234498529342</v>
       </c>
       <c r="E422" t="n">
-        <v>36.69657780377736</v>
+        <v>36.48491918747878</v>
       </c>
       <c r="F422" t="n">
         <v>2</v>
@@ -12633,10 +12633,10 @@
         <v>1333</v>
       </c>
       <c r="D423" t="n">
-        <v>53.43486532672015</v>
+        <v>60.54765040050356</v>
       </c>
       <c r="E423" t="n">
-        <v>35.17402606046227</v>
+        <v>35.00444123928184</v>
       </c>
       <c r="F423" t="n">
         <v>2</v>
@@ -12662,10 +12662,10 @@
         <v>1412</v>
       </c>
       <c r="D424" t="n">
-        <v>53.99828536640663</v>
+        <v>59.61470057626409</v>
       </c>
       <c r="E424" t="n">
-        <v>33.65147431714718</v>
+        <v>33.36942898011579</v>
       </c>
       <c r="F424" t="n">
         <v>2</v>
@@ -12691,10 +12691,10 @@
         <v>1418</v>
       </c>
       <c r="D425" t="n">
-        <v>56.11702166232403</v>
+        <v>57.55026459080769</v>
       </c>
       <c r="E425" t="n">
-        <v>33.02340097394724</v>
+        <v>31.5091286557879</v>
       </c>
       <c r="F425" t="n">
         <v>2</v>
@@ -12720,10 +12720,10 @@
         <v>1385</v>
       </c>
       <c r="D426" t="n">
-        <v>57.87501443314089</v>
+        <v>55.11644629176527</v>
       </c>
       <c r="E426" t="n">
-        <v>32.43114490573676</v>
+        <v>29.3407496737669</v>
       </c>
       <c r="F426" t="n">
         <v>2</v>
@@ -12749,10 +12749,10 @@
         <v>1487</v>
       </c>
       <c r="D427" t="n">
-        <v>61.41674787642399</v>
+        <v>54.32583658515068</v>
       </c>
       <c r="E427" t="n">
-        <v>38.70308971111272</v>
+        <v>26.84561034521108</v>
       </c>
       <c r="F427" t="n">
         <v>2</v>
@@ -12778,10 +12778,10 @@
         <v>1631</v>
       </c>
       <c r="D428" t="n">
-        <v>59.36880938578484</v>
+        <v>54.39210404175176</v>
       </c>
       <c r="E428" t="n">
-        <v>35.9840837086636</v>
+        <v>24.08851976548226</v>
       </c>
       <c r="F428" t="n">
         <v>2</v>
@@ -12807,10 +12807,10 @@
         <v>1764</v>
       </c>
       <c r="D429" t="n">
-        <v>57.99639919318832</v>
+        <v>54.75088180004769</v>
       </c>
       <c r="E429" t="n">
-        <v>33.76742750068215</v>
+        <v>21.20869282172861</v>
       </c>
       <c r="F429" t="n">
         <v>2</v>
@@ -12836,10 +12836,10 @@
         <v>1991</v>
       </c>
       <c r="D430" t="n">
-        <v>56.27502218882164</v>
+        <v>56.39378323923343</v>
       </c>
       <c r="E430" t="n">
-        <v>30.56502479989467</v>
+        <v>18.3901813301928</v>
       </c>
       <c r="F430" t="n">
         <v>100</v>
@@ -12865,10 +12865,10 @@
         <v>1227</v>
       </c>
       <c r="D431" t="n">
-        <v>57.39460110144903</v>
+        <v>54.05440849636433</v>
       </c>
       <c r="E431" t="n">
-        <v>33.24007065331494</v>
+        <v>28.89383133987125</v>
       </c>
       <c r="F431" t="n">
         <v>100</v>
@@ -12894,10 +12894,10 @@
         <v>1173</v>
       </c>
       <c r="D432" t="n">
-        <v>59.55798088097054</v>
+        <v>55.41768284600581</v>
       </c>
       <c r="E432" t="n">
-        <v>32.33753061947462</v>
+        <v>30.50478591948031</v>
       </c>
       <c r="F432" t="n">
         <v>100</v>
@@ -12923,10 +12923,10 @@
         <v>1266</v>
       </c>
       <c r="D433" t="n">
-        <v>60.44407663473216</v>
+        <v>59.58764636335615</v>
       </c>
       <c r="E433" t="n">
-        <v>33.87611899051554</v>
+        <v>30.73224862549775</v>
       </c>
       <c r="F433" t="n">
         <v>100</v>
@@ -12952,10 +12952,10 @@
         <v>1328</v>
       </c>
       <c r="D434" t="n">
-        <v>59.52141718353938</v>
+        <v>63.22898148712891</v>
       </c>
       <c r="E434" t="n">
-        <v>33.011584701927</v>
+        <v>30.9058599632948</v>
       </c>
       <c r="F434" t="n">
         <v>100</v>
@@ -12981,10 +12981,10 @@
         <v>1332</v>
       </c>
       <c r="D435" t="n">
-        <v>63.64643018773361</v>
+        <v>65.63342146932987</v>
       </c>
       <c r="E435" t="n">
-        <v>33.18726840483743</v>
+        <v>31.09598609634471</v>
       </c>
       <c r="F435" t="n">
         <v>100</v>
@@ -13010,10 +13010,10 @@
         <v>1412</v>
       </c>
       <c r="D436" t="n">
-        <v>62.15859227721808</v>
+        <v>67.73658709046421</v>
       </c>
       <c r="E436" t="n">
-        <v>33.36295210774784</v>
+        <v>31.25030966149166</v>
       </c>
       <c r="F436" t="n">
         <v>100</v>
@@ -13039,10 +13039,10 @@
         <v>1293</v>
       </c>
       <c r="D437" t="n">
-        <v>57.223413175362</v>
+        <v>66.08972972398089</v>
       </c>
       <c r="E437" t="n">
-        <v>33.53863581065826</v>
+        <v>31.36731113634633</v>
       </c>
       <c r="F437" t="n">
         <v>2</v>
@@ -13068,10 +13068,10 @@
         <v>1182</v>
       </c>
       <c r="D438" t="n">
-        <v>55.09123918760378</v>
+        <v>61.34891187185239</v>
       </c>
       <c r="E438" t="n">
-        <v>33.71431951356868</v>
+        <v>31.85131661645912</v>
       </c>
       <c r="F438" t="n">
         <v>2</v>
@@ -13097,10 +13097,10 @@
         <v>1148</v>
       </c>
       <c r="D439" t="n">
-        <v>54.20910129315256</v>
+        <v>55.17845028308778</v>
       </c>
       <c r="E439" t="n">
-        <v>33.86997018073311</v>
+        <v>33.86582272544372</v>
       </c>
       <c r="F439" t="n">
         <v>2</v>
@@ -13126,10 +13126,10 @@
         <v>1202</v>
       </c>
       <c r="D440" t="n">
-        <v>57.26578472483137</v>
+        <v>56.41367274635306</v>
       </c>
       <c r="E440" t="n">
-        <v>33.27771411252262</v>
+        <v>32.92779821002627</v>
       </c>
       <c r="F440" t="n">
         <v>2</v>
@@ -13155,10 +13155,10 @@
         <v>1345</v>
       </c>
       <c r="D441" t="n">
-        <v>61.08747987732732</v>
+        <v>58.50268614749887</v>
       </c>
       <c r="E441" t="n">
-        <v>32.68545804431215</v>
+        <v>32.00966317603074</v>
       </c>
       <c r="F441" t="n">
         <v>2</v>
@@ -13184,10 +13184,10 @@
         <v>1487</v>
       </c>
       <c r="D442" t="n">
-        <v>63.04397095222748</v>
+        <v>59.09840240315185</v>
       </c>
       <c r="E442" t="n">
-        <v>38.73434643765674</v>
+        <v>30.92680230070413</v>
       </c>
       <c r="F442" t="n">
         <v>2</v>
@@ -13213,10 +13213,10 @@
         <v>1575</v>
       </c>
       <c r="D443" t="n">
-        <v>60.74666628824173</v>
+        <v>58.43489015176018</v>
       </c>
       <c r="E443" t="n">
-        <v>35.00173560748948</v>
+        <v>29.53217719184062</v>
       </c>
       <c r="F443" t="n">
         <v>2</v>
@@ -13242,10 +13242,10 @@
         <v>1500</v>
       </c>
       <c r="D444" t="n">
-        <v>61.93696493368238</v>
+        <v>55.97643288162791</v>
       </c>
       <c r="E444" t="n">
-        <v>37.24156850233879</v>
+        <v>27.80333754554234</v>
       </c>
       <c r="F444" t="n">
         <v>2</v>
@@ -13271,10 +13271,10 @@
         <v>1556</v>
       </c>
       <c r="D445" t="n">
-        <v>60.73916473348643</v>
+        <v>55.01724251274507</v>
       </c>
       <c r="E445" t="n">
-        <v>36.91160603439846</v>
+        <v>25.77129467549494</v>
       </c>
       <c r="F445" t="n">
         <v>2</v>
@@ -13300,10 +13300,10 @@
         <v>1725</v>
       </c>
       <c r="D446" t="n">
-        <v>58.39327838277401</v>
+        <v>55.46126868625887</v>
       </c>
       <c r="E446" t="n">
-        <v>33.93837014755639</v>
+        <v>23.51305569420531</v>
       </c>
       <c r="F446" t="n">
         <v>2</v>
@@ -13329,10 +13329,10 @@
         <v>1859</v>
       </c>
       <c r="D447" t="n">
-        <v>55.87275503381897</v>
+        <v>55.79099640224246</v>
       </c>
       <c r="E447" t="n">
-        <v>31.49197547330422</v>
+        <v>21.14610490758703</v>
       </c>
       <c r="F447" t="n">
         <v>100</v>
@@ -13358,10 +13358,10 @@
         <v>1386</v>
       </c>
       <c r="D448" t="n">
-        <v>60.50769404439315</v>
+        <v>61.68653411887242</v>
       </c>
       <c r="E448" t="n">
-        <v>31.85269041995215</v>
+        <v>29.64486305481234</v>
       </c>
       <c r="F448" t="n">
         <v>100</v>
@@ -13387,10 +13387,10 @@
         <v>1493</v>
       </c>
       <c r="D449" t="n">
-        <v>59.09280481314143</v>
+        <v>64.85712132927074</v>
       </c>
       <c r="E449" t="n">
-        <v>28.35596908976701</v>
+        <v>29.38327715999047</v>
       </c>
       <c r="F449" t="n">
         <v>100</v>
@@ -13416,10 +13416,10 @@
         <v>1376</v>
       </c>
       <c r="D450" t="n">
-        <v>65.4126081938241</v>
+        <v>65.8017123846856</v>
       </c>
       <c r="E450" t="n">
-        <v>34.26043436679119</v>
+        <v>27.79747124439735</v>
       </c>
       <c r="F450" t="n">
         <v>100</v>
@@ -13445,10 +13445,10 @@
         <v>1286</v>
       </c>
       <c r="D451" t="n">
-        <v>65.43491996229754</v>
+        <v>63.94952856663755</v>
       </c>
       <c r="E451" t="n">
-        <v>32.42818471523501</v>
+        <v>26.02530964705435</v>
       </c>
       <c r="F451" t="n">
         <v>100</v>
@@ -13474,10 +13474,10 @@
         <v>1242</v>
       </c>
       <c r="D452" t="n">
-        <v>65.47403659254184</v>
+        <v>60.39005115284204</v>
       </c>
       <c r="E452" t="n">
-        <v>32.34751511467706</v>
+        <v>25.95100385253997</v>
       </c>
       <c r="F452" t="n">
         <v>100</v>
@@ -13503,10 +13503,10 @@
         <v>1243</v>
       </c>
       <c r="D453" t="n">
-        <v>64.85185939598092</v>
+        <v>58.08891438491732</v>
       </c>
       <c r="E453" t="n">
-        <v>39.9019234618129</v>
+        <v>28.18683644105496</v>
       </c>
       <c r="F453" t="n">
         <v>100</v>
@@ -13532,10 +13532,10 @@
         <v>1267</v>
       </c>
       <c r="D454" t="n">
-        <v>64.99457591807098</v>
+        <v>57.20143085577777</v>
       </c>
       <c r="E454" t="n">
-        <v>40.04480417784792</v>
+        <v>28.73009555086573</v>
       </c>
       <c r="F454" t="n">
         <v>100</v>
@@ -13561,10 +13561,10 @@
         <v>1430</v>
       </c>
       <c r="D455" t="n">
-        <v>64.14383753177243</v>
+        <v>57.86750845769652</v>
       </c>
       <c r="E455" t="n">
-        <v>39.27337282087637</v>
+        <v>28.42714299941723</v>
       </c>
       <c r="F455" t="n">
         <v>2</v>
@@ -13590,10 +13590,10 @@
         <v>1596</v>
       </c>
       <c r="D456" t="n">
-        <v>61.91781814730249</v>
+        <v>58.19042256443445</v>
       </c>
       <c r="E456" t="n">
-        <v>37.73865276967401</v>
+        <v>27.5779438956735</v>
       </c>
       <c r="F456" t="n">
         <v>2</v>
@@ -13619,10 +13619,10 @@
         <v>1660</v>
       </c>
       <c r="D457" t="n">
-        <v>61.17967210741905</v>
+        <v>57.33940848224248</v>
       </c>
       <c r="E457" t="n">
-        <v>37.63650282852853</v>
+        <v>26.31371952414742</v>
       </c>
       <c r="F457" t="n">
         <v>2</v>
@@ -13648,10 +13648,10 @@
         <v>1694</v>
       </c>
       <c r="D458" t="n">
-        <v>59.31905789630291</v>
+        <v>56.29168641210097</v>
       </c>
       <c r="E458" t="n">
-        <v>33.34717101085448</v>
+        <v>24.72921316104861</v>
       </c>
       <c r="F458" t="n">
         <v>2</v>
@@ -13677,10 +13677,10 @@
         <v>1848</v>
       </c>
       <c r="D459" t="n">
-        <v>57.45773259366406</v>
+        <v>56.6202665712288</v>
       </c>
       <c r="E459" t="n">
-        <v>30.79418714201461</v>
+        <v>22.92104372892733</v>
       </c>
       <c r="F459" t="n">
         <v>100</v>
@@ -13706,10 +13706,10 @@
         <v>1960</v>
       </c>
       <c r="D460" t="n">
-        <v>56.38645966451152</v>
+        <v>56.68594243723421</v>
       </c>
       <c r="E460" t="n">
-        <v>30.07232025264762</v>
+        <v>20.99792211892874</v>
       </c>
       <c r="F460" t="n">
         <v>100</v>
@@ -13735,10 +13735,10 @@
         <v>1393</v>
       </c>
       <c r="D461" t="n">
-        <v>65.73811526871437</v>
+        <v>64.34777549825598</v>
       </c>
       <c r="E461" t="n">
-        <v>35.36118657861498</v>
+        <v>23.57241890710262</v>
       </c>
       <c r="F461" t="n">
         <v>100</v>
@@ -13764,10 +13764,10 @@
         <v>1375</v>
       </c>
       <c r="D462" t="n">
-        <v>64.26457391921303</v>
+        <v>61.03487690431153</v>
       </c>
       <c r="E462" t="n">
-        <v>36.01183053572895</v>
+        <v>25.15865075523846</v>
       </c>
       <c r="F462" t="n">
         <v>100</v>
@@ -13793,10 +13793,10 @@
         <v>1373</v>
       </c>
       <c r="D463" t="n">
-        <v>62.9534582681666</v>
+        <v>58.68178532002553</v>
       </c>
       <c r="E463" t="n">
-        <v>36.41569097789557</v>
+        <v>26.12393627412778</v>
       </c>
       <c r="F463" t="n">
         <v>100</v>
@@ -13822,10 +13822,10 @@
         <v>1470</v>
       </c>
       <c r="D464" t="n">
-        <v>63.90569017471323</v>
+        <v>58.04906055842628</v>
       </c>
       <c r="E464" t="n">
-        <v>38.56108780338974</v>
+        <v>26.28825088550823</v>
       </c>
       <c r="F464" t="n">
         <v>100</v>
@@ -13851,10 +13851,10 @@
         <v>1603</v>
       </c>
       <c r="D465" t="n">
-        <v>62.05902099574349</v>
+        <v>57.90711942977351</v>
       </c>
       <c r="E465" t="n">
-        <v>37.43161253477872</v>
+        <v>25.85620575394737</v>
       </c>
       <c r="F465" t="n">
         <v>100</v>
@@ -13880,10 +13880,10 @@
         <v>1765</v>
       </c>
       <c r="D466" t="n">
-        <v>59.97773366317117</v>
+        <v>58.10096004129303</v>
       </c>
       <c r="E466" t="n">
-        <v>35.76384282008679</v>
+        <v>24.9826305678365</v>
       </c>
       <c r="F466" t="n">
         <v>100</v>
@@ -13909,10 +13909,10 @@
         <v>1872</v>
       </c>
       <c r="D467" t="n">
-        <v>58.81811288482037</v>
+        <v>57.82887275757028</v>
       </c>
       <c r="E467" t="n">
-        <v>34.80686367609657</v>
+        <v>23.78283079749055</v>
       </c>
       <c r="F467" t="n">
         <v>100</v>
@@ -13938,10 +13938,10 @@
         <v>1979</v>
       </c>
       <c r="D468" t="n">
-        <v>59.52275044500511</v>
+        <v>57.68652456329187</v>
       </c>
       <c r="E468" t="n">
-        <v>34.25095316680572</v>
+        <v>22.35855826316296</v>
       </c>
       <c r="F468" t="n">
         <v>100</v>
@@ -13967,10 +13967,10 @@
         <v>1546</v>
       </c>
       <c r="D469" t="n">
-        <v>62.49586948048204</v>
+        <v>62.31885634399271</v>
       </c>
       <c r="E469" t="n">
-        <v>28.22505555857951</v>
+        <v>23.90309312154544</v>
       </c>
       <c r="F469" t="n">
         <v>100</v>
@@ -13996,10 +13996,10 @@
         <v>1517</v>
       </c>
       <c r="D470" t="n">
-        <v>59.93699358751091</v>
+        <v>59.94145215638089</v>
       </c>
       <c r="E470" t="n">
-        <v>31.75668479858268</v>
+        <v>24.51513709574942</v>
       </c>
       <c r="F470" t="n">
         <v>100</v>
@@ -14025,10 +14025,10 @@
         <v>1618</v>
       </c>
       <c r="D471" t="n">
-        <v>62.08155087719128</v>
+        <v>59.23094170796445</v>
       </c>
       <c r="E471" t="n">
-        <v>36.34069462497061</v>
+        <v>24.72957423702415</v>
       </c>
       <c r="F471" t="n">
         <v>100</v>

--- a/output/xyz_age_eros.xlsx
+++ b/output/xyz_age_eros.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output/xyz_age_eros.xlsx
+++ b/output/xyz_age_eros.xlsx
@@ -487,10 +487,10 @@
         <v>743</v>
       </c>
       <c r="D2" t="n">
-        <v>53.13875907512156</v>
+        <v>52.96688797751993</v>
       </c>
       <c r="E2" t="n">
-        <v>15.13692204542046</v>
+        <v>15.93922967451277</v>
       </c>
       <c r="F2" t="n">
         <v>1.998671911465284</v>
@@ -513,10 +513,10 @@
         <v>668</v>
       </c>
       <c r="D3" t="n">
-        <v>51.33917753540972</v>
+        <v>51.2073599644224</v>
       </c>
       <c r="E3" t="n">
-        <v>15.19062547574475</v>
+        <v>15.9379368460668</v>
       </c>
       <c r="F3" t="n">
         <v>1.68478859178372</v>
@@ -539,10 +539,10 @@
         <v>846</v>
       </c>
       <c r="D4" t="n">
-        <v>55.58335777216294</v>
+        <v>55.21920633003464</v>
       </c>
       <c r="E4" t="n">
-        <v>15.4109071185798</v>
+        <v>15.9976841055508</v>
       </c>
       <c r="F4" t="n">
         <v>2.527187593999784</v>
@@ -565,10 +565,10 @@
         <v>710</v>
       </c>
       <c r="D5" t="n">
-        <v>52.55616382561423</v>
+        <v>52.27824588478464</v>
       </c>
       <c r="E5" t="n">
-        <v>15.30681976095904</v>
+        <v>15.87025610126818</v>
       </c>
       <c r="F5" t="n">
         <v>1.853938088092913</v>
@@ -591,10 +591,10 @@
         <v>621</v>
       </c>
       <c r="D6" t="n">
-        <v>50.37316460159224</v>
+        <v>49.4418703539938</v>
       </c>
       <c r="E6" t="n">
-        <v>15.34958347069768</v>
+        <v>15.96094146956005</v>
       </c>
       <c r="F6" t="n">
         <v>1.513732700682522</v>
@@ -617,10 +617,10 @@
         <v>580</v>
       </c>
       <c r="D7" t="n">
-        <v>49.12773779180562</v>
+        <v>48.28757918525302</v>
       </c>
       <c r="E7" t="n">
-        <v>15.50789874795723</v>
+        <v>16.06817599706452</v>
       </c>
       <c r="F7" t="n">
         <v>1.378759952770284</v>
@@ -643,10 +643,10 @@
         <v>521</v>
       </c>
       <c r="D8" t="n">
-        <v>47.39350725691181</v>
+        <v>46.67769849522361</v>
       </c>
       <c r="E8" t="n">
-        <v>15.71429221552933</v>
+        <v>16.20801998008859</v>
       </c>
       <c r="F8" t="n">
         <v>1.205371905865509</v>
@@ -669,10 +669,10 @@
         <v>451</v>
       </c>
       <c r="D9" t="n">
-        <v>45.35862681639751</v>
+        <v>44.79384639341394</v>
       </c>
       <c r="E9" t="n">
-        <v>15.95304955630589</v>
+        <v>16.36756249799924</v>
       </c>
       <c r="F9" t="n">
         <v>1.027711876465111</v>
@@ -695,10 +695,10 @@
         <v>439</v>
       </c>
       <c r="D10" t="n">
-        <v>44.78058677740614</v>
+        <v>39.00603679360908</v>
       </c>
       <c r="E10" t="n">
-        <v>16.13408075554057</v>
+        <v>18.90544612422114</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -721,10 +721,10 @@
         <v>951</v>
       </c>
       <c r="D11" t="n">
-        <v>57.94564637402463</v>
+        <v>57.55770363118855</v>
       </c>
       <c r="E11" t="n">
-        <v>15.4829993188284</v>
+        <v>16.07070271705969</v>
       </c>
       <c r="F11" t="n">
         <v>3.210051613373873</v>
@@ -747,10 +747,10 @@
         <v>833</v>
       </c>
       <c r="D12" t="n">
-        <v>55.50252049728901</v>
+        <v>55.16416487159408</v>
       </c>
       <c r="E12" t="n">
-        <v>15.29323247530046</v>
+        <v>15.87858910982343</v>
       </c>
       <c r="F12" t="n">
         <v>2.453447811399311</v>
@@ -773,10 +773,10 @@
         <v>745</v>
       </c>
       <c r="D13" t="n">
-        <v>53.54642720343175</v>
+        <v>53.2516488277639</v>
       </c>
       <c r="E13" t="n">
-        <v>15.21516557420823</v>
+        <v>15.78343648648462</v>
       </c>
       <c r="F13" t="n">
         <v>2.007798251404302</v>
@@ -799,10 +799,10 @@
         <v>661</v>
       </c>
       <c r="D14" t="n">
-        <v>51.54788751374663</v>
+        <v>52.22909871041455</v>
       </c>
       <c r="E14" t="n">
-        <v>15.21050503123888</v>
+        <v>14.82180029500126</v>
       </c>
       <c r="F14" t="n">
         <v>1.658137129079801</v>
@@ -825,10 +825,10 @@
         <v>609</v>
       </c>
       <c r="D15" t="n">
-        <v>50.09954290413283</v>
+        <v>50.01122571737842</v>
       </c>
       <c r="E15" t="n">
-        <v>15.32466924561344</v>
+        <v>15.1645948259662</v>
       </c>
       <c r="F15" t="n">
         <v>1.472915449696967</v>
@@ -851,10 +851,10 @@
         <v>564</v>
       </c>
       <c r="D16" t="n">
-        <v>48.67222256376474</v>
+        <v>48.59673852777667</v>
       </c>
       <c r="E16" t="n">
-        <v>15.53392572369885</v>
+        <v>15.40748418896036</v>
       </c>
       <c r="F16" t="n">
         <v>1.329413730615203</v>
@@ -877,10 +877,10 @@
         <v>515</v>
       </c>
       <c r="D17" t="n">
-        <v>47.00434176567772</v>
+        <v>46.94593616958677</v>
       </c>
       <c r="E17" t="n">
-        <v>15.84772786032831</v>
+        <v>15.75878248043548</v>
       </c>
       <c r="F17" t="n">
         <v>1.189009644280574</v>
@@ -903,10 +903,10 @@
         <v>455</v>
       </c>
       <c r="D18" t="n">
-        <v>44.95267801520868</v>
+        <v>44.91880595932351</v>
       </c>
       <c r="E18" t="n">
-        <v>16.25480371507412</v>
+        <v>16.20803090641053</v>
       </c>
       <c r="F18" t="n">
         <v>1.037118784783609</v>
@@ -929,10 +929,10 @@
         <v>478</v>
       </c>
       <c r="D19" t="n">
-        <v>45.02824279950538</v>
+        <v>44.9945615887159</v>
       </c>
       <c r="E19" t="n">
-        <v>16.5560217881844</v>
+        <v>16.51259435699411</v>
       </c>
       <c r="F19" t="n">
         <v>1.092903885367194</v>
@@ -955,10 +955,10 @@
         <v>540</v>
       </c>
       <c r="D20" t="n">
-        <v>46.56015586597096</v>
+        <v>45.09856829781084</v>
       </c>
       <c r="E20" t="n">
-        <v>16.50410778302064</v>
+        <v>17.34149667501764</v>
       </c>
       <c r="F20" t="n">
         <v>1.258686021980649</v>
@@ -981,10 +981,10 @@
         <v>1317</v>
       </c>
       <c r="D21" t="n">
-        <v>65.45731192138825</v>
+        <v>64.48431215475523</v>
       </c>
       <c r="E21" t="n">
-        <v>16.19161521508609</v>
+        <v>16.81764425099239</v>
       </c>
       <c r="F21" t="n">
         <v>7.38905609893065</v>
@@ -1007,10 +1007,10 @@
         <v>1125</v>
       </c>
       <c r="D22" t="n">
-        <v>61.38077193970329</v>
+        <v>60.94471470246624</v>
       </c>
       <c r="E22" t="n">
-        <v>15.83235823671549</v>
+        <v>16.38815175436252</v>
       </c>
       <c r="F22" t="n">
         <v>4.771412434928934</v>
@@ -1033,10 +1033,10 @@
         <v>960</v>
       </c>
       <c r="D23" t="n">
-        <v>58.18329951451685</v>
+        <v>58.83338921004744</v>
       </c>
       <c r="E23" t="n">
-        <v>15.4670588908404</v>
+        <v>14.96375408163327</v>
       </c>
       <c r="F23" t="n">
         <v>3.276540548249262</v>
@@ -1059,10 +1059,10 @@
         <v>840</v>
       </c>
       <c r="D24" t="n">
-        <v>55.7266214930758</v>
+        <v>56.41144962448659</v>
       </c>
       <c r="E24" t="n">
-        <v>15.25543711943466</v>
+        <v>14.7741132110974</v>
       </c>
       <c r="F24" t="n">
         <v>2.492882410441073</v>
@@ -1085,10 +1085,10 @@
         <v>837</v>
       </c>
       <c r="D25" t="n">
-        <v>55.52789164595391</v>
+        <v>56.16727136753231</v>
       </c>
       <c r="E25" t="n">
-        <v>15.30555424381732</v>
+        <v>14.85075880820212</v>
       </c>
       <c r="F25" t="n">
         <v>2.475904843525316</v>
@@ -1111,10 +1111,10 @@
         <v>707</v>
       </c>
       <c r="D26" t="n">
-        <v>52.61303219477722</v>
+        <v>52.51291117747516</v>
       </c>
       <c r="E26" t="n">
-        <v>15.19973345986776</v>
+        <v>14.9937841406699</v>
       </c>
       <c r="F26" t="n">
         <v>1.841311997982751</v>
@@ -1137,10 +1137,10 @@
         <v>628</v>
       </c>
       <c r="D27" t="n">
-        <v>50.58144052153657</v>
+        <v>50.49650209631368</v>
       </c>
       <c r="E27" t="n">
-        <v>15.27412107861117</v>
+        <v>15.10958751764614</v>
       </c>
       <c r="F27" t="n">
         <v>1.53806313144631</v>
@@ -1163,10 +1163,10 @@
         <v>634</v>
       </c>
       <c r="D28" t="n">
-        <v>50.27670309600741</v>
+        <v>50.19355690630694</v>
       </c>
       <c r="E28" t="n">
-        <v>15.524477649049</v>
+        <v>15.37670764693945</v>
       </c>
       <c r="F28" t="n">
         <v>1.55922880609994</v>
@@ -1189,10 +1189,10 @@
         <v>546</v>
       </c>
       <c r="D29" t="n">
-        <v>47.59744311433016</v>
+        <v>47.53887465734004</v>
       </c>
       <c r="E29" t="n">
-        <v>15.89982377414274</v>
+        <v>15.8076054676225</v>
       </c>
       <c r="F29" t="n">
         <v>1.276007117771601</v>
@@ -1215,10 +1215,10 @@
         <v>470</v>
       </c>
       <c r="D30" t="n">
-        <v>44.82091871716457</v>
+        <v>44.79352267694455</v>
       </c>
       <c r="E30" t="n">
-        <v>16.54680402146714</v>
+        <v>16.51015314310043</v>
       </c>
       <c r="F30" t="n">
         <v>1.073168013320587</v>
@@ -1241,10 +1241,10 @@
         <v>495</v>
       </c>
       <c r="D31" t="n">
-        <v>44.60551466613327</v>
+        <v>44.42829251746996</v>
       </c>
       <c r="E31" t="n">
-        <v>17.39865530253426</v>
+        <v>17.16869656110757</v>
       </c>
       <c r="F31" t="n">
         <v>1.136056031253367</v>
@@ -1267,10 +1267,10 @@
         <v>571</v>
       </c>
       <c r="D32" t="n">
-        <v>46.72768929221765</v>
+        <v>46.53070163393627</v>
       </c>
       <c r="E32" t="n">
-        <v>17.56614676833322</v>
+        <v>16.90435802571212</v>
       </c>
       <c r="F32" t="n">
         <v>1.350781577603365</v>
@@ -1293,10 +1293,10 @@
         <v>688</v>
       </c>
       <c r="D33" t="n">
-        <v>50.53137541865671</v>
+        <v>53.36612482296577</v>
       </c>
       <c r="E33" t="n">
-        <v>17.61575928925073</v>
+        <v>14.13985269648476</v>
       </c>
       <c r="F33" t="n">
         <v>1.763319615489954</v>
@@ -1319,10 +1319,10 @@
         <v>649</v>
       </c>
       <c r="D34" t="n">
-        <v>50.07783711934053</v>
+        <v>51.03795739079624</v>
       </c>
       <c r="E34" t="n">
-        <v>17.28291950960114</v>
+        <v>15.03773801721659</v>
       </c>
       <c r="F34" t="n">
         <v>1.613426065273356</v>
@@ -1345,10 +1345,10 @@
         <v>1518</v>
       </c>
       <c r="D35" t="n">
-        <v>68.85758640242247</v>
+        <v>68.06174947032062</v>
       </c>
       <c r="E35" t="n">
-        <v>16.8054087166531</v>
+        <v>17.29773123021684</v>
       </c>
       <c r="F35" t="n">
         <v>11.6797756589234</v>
@@ -1371,10 +1371,10 @@
         <v>1321</v>
       </c>
       <c r="D36" t="n">
-        <v>65.01081586121543</v>
+        <v>65.4520968327772</v>
       </c>
       <c r="E36" t="n">
-        <v>16.33155818760662</v>
+        <v>15.86574978136692</v>
       </c>
       <c r="F36" t="n">
         <v>7.456690009635234</v>
@@ -1397,10 +1397,10 @@
         <v>1124</v>
       </c>
       <c r="D37" t="n">
-        <v>61.39775191144487</v>
+        <v>61.96696808056258</v>
       </c>
       <c r="E37" t="n">
-        <v>15.81105054236804</v>
+        <v>15.30888898265873</v>
       </c>
       <c r="F37" t="n">
         <v>4.760555983565796</v>
@@ -1423,10 +1423,10 @@
         <v>1025</v>
       </c>
       <c r="D38" t="n">
-        <v>59.51428242056595</v>
+        <v>60.12424626581462</v>
       </c>
       <c r="E38" t="n">
-        <v>15.5714354325175</v>
+        <v>15.06667989256673</v>
       </c>
       <c r="F38" t="n">
         <v>3.799433346301817</v>
@@ -1449,10 +1449,10 @@
         <v>967</v>
       </c>
       <c r="D39" t="n">
-        <v>58.34698051313333</v>
+        <v>58.95920024984652</v>
       </c>
       <c r="E39" t="n">
-        <v>15.45185073690532</v>
+        <v>14.95859116987356</v>
       </c>
       <c r="F39" t="n">
         <v>3.329204828354976</v>
@@ -1475,10 +1475,10 @@
         <v>840</v>
       </c>
       <c r="D40" t="n">
-        <v>55.71276845103699</v>
+        <v>56.35105592666811</v>
       </c>
       <c r="E40" t="n">
-        <v>15.23225183295919</v>
+        <v>14.76862149981654</v>
       </c>
       <c r="F40" t="n">
         <v>2.492882410441073</v>
@@ -1501,10 +1501,10 @@
         <v>721</v>
       </c>
       <c r="D41" t="n">
-        <v>53.05862101459471</v>
+        <v>52.96525740932015</v>
       </c>
       <c r="E41" t="n">
-        <v>15.10940245865141</v>
+        <v>14.89566264633304</v>
       </c>
       <c r="F41" t="n">
         <v>1.900979007363115</v>
@@ -1527,10 +1527,10 @@
         <v>697</v>
       </c>
       <c r="D42" t="n">
-        <v>52.25445889704619</v>
+        <v>52.16732434209097</v>
       </c>
       <c r="E42" t="n">
-        <v>15.20708285966382</v>
+        <v>15.01666135263009</v>
       </c>
       <c r="F42" t="n">
         <v>1.799842779974398</v>
@@ -1553,10 +1553,10 @@
         <v>657</v>
       </c>
       <c r="D43" t="n">
-        <v>50.67314284265827</v>
+        <v>50.88818125310431</v>
       </c>
       <c r="E43" t="n">
-        <v>15.85462186233381</v>
+        <v>15.2230883955334</v>
       </c>
       <c r="F43" t="n">
         <v>1.643097440105306</v>
@@ -1579,10 +1579,10 @@
         <v>574</v>
       </c>
       <c r="D44" t="n">
-        <v>48.25155653076515</v>
+        <v>48.34823216465421</v>
       </c>
       <c r="E44" t="n">
-        <v>15.99215364051541</v>
+        <v>15.64364953241959</v>
       </c>
       <c r="F44" t="n">
         <v>1.360044043680082</v>
@@ -1605,10 +1605,10 @@
         <v>500</v>
       </c>
       <c r="D45" t="n">
-        <v>45.73073215448035</v>
+        <v>45.50625741464484</v>
       </c>
       <c r="E45" t="n">
-        <v>16.80004562629041</v>
+        <v>16.45467886818331</v>
       </c>
       <c r="F45" t="n">
         <v>1.149069131828367</v>
@@ -1631,10 +1631,10 @@
         <v>489</v>
       </c>
       <c r="D46" t="n">
-        <v>43.69129307474174</v>
+        <v>43.592069715692</v>
       </c>
       <c r="E46" t="n">
-        <v>17.72006772515826</v>
+        <v>17.65425572905108</v>
       </c>
       <c r="F46" t="n">
         <v>1.120634694595313</v>
@@ -1657,10 +1657,10 @@
         <v>532</v>
       </c>
       <c r="D47" t="n">
-        <v>45.1682110052599</v>
+        <v>45.03357064187347</v>
       </c>
       <c r="E47" t="n">
-        <v>17.6731739884876</v>
+        <v>17.32731207236272</v>
       </c>
       <c r="F47" t="n">
         <v>1.235956423697341</v>
@@ -1683,10 +1683,10 @@
         <v>572</v>
       </c>
       <c r="D48" t="n">
-        <v>47.5149024236696</v>
+        <v>46.88292074343352</v>
       </c>
       <c r="E48" t="n">
-        <v>17.16509834993037</v>
+        <v>16.63178964823992</v>
       </c>
       <c r="F48" t="n">
         <v>1.353862035967913</v>
@@ -1709,10 +1709,10 @@
         <v>665</v>
       </c>
       <c r="D49" t="n">
-        <v>50.51880571190345</v>
+        <v>51.92925188305506</v>
       </c>
       <c r="E49" t="n">
-        <v>17.26972673555958</v>
+        <v>14.68607857091653</v>
       </c>
       <c r="F49" t="n">
         <v>1.673314480154503</v>
@@ -1735,10 +1735,10 @@
         <v>762</v>
       </c>
       <c r="D50" t="n">
-        <v>53.16341146190675</v>
+        <v>57.00588805143471</v>
       </c>
       <c r="E50" t="n">
-        <v>17.67304196326178</v>
+        <v>12.78618108613156</v>
       </c>
       <c r="F50" t="n">
         <v>2.087074026899868</v>
@@ -1761,10 +1761,10 @@
         <v>748</v>
       </c>
       <c r="D51" t="n">
-        <v>52.66397012040657</v>
+        <v>55.94981387317615</v>
       </c>
       <c r="E51" t="n">
-        <v>17.30184487467596</v>
+        <v>13.20130520331678</v>
       </c>
       <c r="F51" t="n">
         <v>2.021565957079946</v>
@@ -1787,10 +1787,10 @@
         <v>699</v>
       </c>
       <c r="D52" t="n">
-        <v>51.79770799697043</v>
+        <v>53.23683989023291</v>
       </c>
       <c r="E52" t="n">
-        <v>17.12535461915485</v>
+        <v>17.04148006784176</v>
       </c>
       <c r="F52" t="n">
         <v>1.808061225909724</v>
@@ -1813,10 +1813,10 @@
         <v>729</v>
       </c>
       <c r="D53" t="n">
-        <v>52.24310735067523</v>
+        <v>54.6464565822418</v>
       </c>
       <c r="E53" t="n">
-        <v>17.03036624291041</v>
+        <v>19.47030497912526</v>
       </c>
       <c r="F53" t="n">
         <v>1.935938564475256</v>
@@ -1839,10 +1839,10 @@
         <v>1619</v>
       </c>
       <c r="D54" t="n">
-        <v>70.46523367168191</v>
+        <v>70.4331583858345</v>
       </c>
       <c r="E54" t="n">
-        <v>17.15124380259039</v>
+        <v>16.85905961878461</v>
       </c>
       <c r="F54" t="n">
         <v>14.7011703617567</v>
@@ -1865,10 +1865,10 @@
         <v>1494</v>
       </c>
       <c r="D55" t="n">
-        <v>68.09573181633968</v>
+        <v>68.40387306665642</v>
       </c>
       <c r="E55" t="n">
-        <v>16.81873508913862</v>
+        <v>16.41000935898461</v>
       </c>
       <c r="F55" t="n">
         <v>11.05838613157211</v>
@@ -1891,10 +1891,10 @@
         <v>1269</v>
       </c>
       <c r="D56" t="n">
-        <v>64.11195721765083</v>
+        <v>64.58225391995111</v>
       </c>
       <c r="E56" t="n">
-        <v>16.16752282156941</v>
+        <v>15.69059194255127</v>
       </c>
       <c r="F56" t="n">
         <v>6.62374282933277</v>
@@ -1917,10 +1917,10 @@
         <v>1082</v>
       </c>
       <c r="D57" t="n">
-        <v>60.68059979022981</v>
+        <v>61.30832863754874</v>
       </c>
       <c r="E57" t="n">
-        <v>15.66622237704206</v>
+        <v>15.50879953808567</v>
       </c>
       <c r="F57" t="n">
         <v>4.326212651421302</v>
@@ -1943,10 +1943,10 @@
         <v>941</v>
       </c>
       <c r="D58" t="n">
-        <v>57.96232615818173</v>
+        <v>58.64760157711963</v>
       </c>
       <c r="E58" t="n">
-        <v>15.33076710866459</v>
+        <v>15.15939721731263</v>
       </c>
       <c r="F58" t="n">
         <v>3.137756244463604</v>
@@ -1995,10 +1995,10 @@
         <v>760</v>
       </c>
       <c r="D60" t="n">
-        <v>53.64662651447308</v>
+        <v>54.08232956698572</v>
       </c>
       <c r="E60" t="n">
-        <v>15.73554247636985</v>
+        <v>15.02789179340761</v>
       </c>
       <c r="F60" t="n">
         <v>2.07758734314862</v>
@@ -2021,10 +2021,10 @@
         <v>711</v>
       </c>
       <c r="D61" t="n">
-        <v>52.437230302308</v>
+        <v>52.80517028752742</v>
       </c>
       <c r="E61" t="n">
-        <v>15.62124315912084</v>
+        <v>15.02732540511957</v>
       </c>
       <c r="F61" t="n">
         <v>1.858165995243492</v>
@@ -2047,10 +2047,10 @@
         <v>632</v>
       </c>
       <c r="D62" t="n">
-        <v>50.47577894350595</v>
+        <v>50.71923765994121</v>
       </c>
       <c r="E62" t="n">
-        <v>15.47007829512614</v>
+        <v>15.07989790598648</v>
       </c>
       <c r="F62" t="n">
         <v>1.552141414666451</v>
@@ -2255,10 +2255,10 @@
         <v>620</v>
       </c>
       <c r="D70" t="n">
-        <v>50.04913953975233</v>
+        <v>49.00131633929187</v>
       </c>
       <c r="E70" t="n">
-        <v>16.64416455948383</v>
+        <v>16.17512778026231</v>
       </c>
       <c r="F70" t="n">
         <v>1.510288486696439</v>
@@ -2281,10 +2281,10 @@
         <v>654</v>
       </c>
       <c r="D71" t="n">
-        <v>50.79420185729079</v>
+        <v>50.59826880399702</v>
       </c>
       <c r="E71" t="n">
-        <v>16.78156001252828</v>
+        <v>16.42213532531829</v>
       </c>
       <c r="F71" t="n">
         <v>1.631907262573603</v>
@@ -2307,10 +2307,10 @@
         <v>737</v>
       </c>
       <c r="D72" t="n">
-        <v>52.36741253301098</v>
+        <v>54.91898385516136</v>
       </c>
       <c r="E72" t="n">
-        <v>17.03735259531071</v>
+        <v>17.50350642228256</v>
       </c>
       <c r="F72" t="n">
         <v>1.971541038015586</v>
@@ -2333,10 +2333,10 @@
         <v>799</v>
       </c>
       <c r="D73" t="n">
-        <v>53.44040668933646</v>
+        <v>58.16209359664636</v>
       </c>
       <c r="E73" t="n">
-        <v>17.41998285975104</v>
+        <v>18.58565787143118</v>
       </c>
       <c r="F73" t="n">
         <v>2.270603279516831</v>
@@ -2359,10 +2359,10 @@
         <v>778</v>
       </c>
       <c r="D74" t="n">
-        <v>53.1624398040619</v>
+        <v>53.09469706251218</v>
       </c>
       <c r="E74" t="n">
-        <v>17.31707181823908</v>
+        <v>17.91053832422441</v>
       </c>
       <c r="F74" t="n">
         <v>2.164543678531826</v>
@@ -2385,10 +2385,10 @@
         <v>1807</v>
       </c>
       <c r="D75" t="n">
-        <v>73.33982340909634</v>
+        <v>73.32147548564562</v>
       </c>
       <c r="E75" t="n">
-        <v>17.84108501086984</v>
+        <v>17.62538571575201</v>
       </c>
       <c r="F75" t="n">
         <v>22.55988029919262</v>
@@ -2411,10 +2411,10 @@
         <v>1635</v>
       </c>
       <c r="D76" t="n">
-        <v>70.60336185276886</v>
+        <v>70.57904148609464</v>
       </c>
       <c r="E76" t="n">
-        <v>17.249978249968</v>
+        <v>16.98651220505798</v>
       </c>
       <c r="F76" t="n">
         <v>15.24685994048192</v>
@@ -2437,10 +2437,10 @@
         <v>1415</v>
       </c>
       <c r="D77" t="n">
-        <v>66.64071238100071</v>
+        <v>67.04770791755624</v>
       </c>
       <c r="E77" t="n">
-        <v>16.6140405025294</v>
+        <v>16.51011507872386</v>
       </c>
       <c r="F77" t="n">
         <v>9.237161339795705</v>
@@ -2463,10 +2463,10 @@
         <v>1270</v>
       </c>
       <c r="D78" t="n">
-        <v>64.15299006991958</v>
+        <v>64.66528987290629</v>
       </c>
       <c r="E78" t="n">
-        <v>16.1606998109956</v>
+        <v>16.02981196846014</v>
       </c>
       <c r="F78" t="n">
         <v>6.63884827964505</v>
@@ -2489,10 +2489,10 @@
         <v>1102</v>
       </c>
       <c r="D79" t="n">
-        <v>61.14954791665618</v>
+        <v>61.76593496065291</v>
       </c>
       <c r="E79" t="n">
-        <v>15.67502949092539</v>
+        <v>15.51727909188376</v>
       </c>
       <c r="F79" t="n">
         <v>4.527865196995156</v>
@@ -2515,10 +2515,10 @@
         <v>1001</v>
       </c>
       <c r="D80" t="n">
-        <v>59.26737358699999</v>
+        <v>59.92203879271286</v>
       </c>
       <c r="E80" t="n">
-        <v>15.39930126387338</v>
+        <v>15.23112939420251</v>
       </c>
       <c r="F80" t="n">
         <v>3.59729520938842</v>
@@ -2541,10 +2541,10 @@
         <v>849</v>
       </c>
       <c r="D81" t="n">
-        <v>55.73819267232751</v>
+        <v>56.26477812732728</v>
       </c>
       <c r="E81" t="n">
-        <v>15.89641842001553</v>
+        <v>15.04248567793664</v>
       </c>
       <c r="F81" t="n">
         <v>2.544516812688459</v>
@@ -2567,10 +2567,10 @@
         <v>723</v>
       </c>
       <c r="D82" t="n">
-        <v>53.18835803994816</v>
+        <v>53.57816217769724</v>
       </c>
       <c r="E82" t="n">
-        <v>15.42373201544989</v>
+        <v>14.79685652943536</v>
       </c>
       <c r="F82" t="n">
         <v>1.90965926175535</v>
@@ -2905,10 +2905,10 @@
         <v>763</v>
       </c>
       <c r="D95" t="n">
-        <v>52.68805601395244</v>
+        <v>53.41199634497387</v>
       </c>
       <c r="E95" t="n">
-        <v>17.18541674620386</v>
+        <v>16.83356579395518</v>
       </c>
       <c r="F95" t="n">
         <v>2.09183360072749</v>
@@ -2931,10 +2931,10 @@
         <v>829</v>
       </c>
       <c r="D96" t="n">
-        <v>53.46244903244137</v>
+        <v>54.95136488044788</v>
       </c>
       <c r="E96" t="n">
-        <v>17.55382368487939</v>
+        <v>17.08215489431978</v>
       </c>
       <c r="F96" t="n">
         <v>2.431194469771844</v>
@@ -2957,10 +2957,10 @@
         <v>813</v>
       </c>
       <c r="D97" t="n">
-        <v>53.44718860892447</v>
+        <v>53.69773831040796</v>
       </c>
       <c r="E97" t="n">
-        <v>17.57708350190898</v>
+        <v>18.14471873466844</v>
       </c>
       <c r="F97" t="n">
         <v>2.344181308295465</v>
@@ -2983,10 +2983,10 @@
         <v>954</v>
       </c>
       <c r="D98" t="n">
-        <v>54.62085170602591</v>
+        <v>52.34994289682481</v>
       </c>
       <c r="E98" t="n">
-        <v>18.15281579051012</v>
+        <v>19.34949150269448</v>
       </c>
       <c r="F98" t="n">
         <v>3.232063309910436</v>
@@ -3009,10 +3009,10 @@
         <v>1693</v>
       </c>
       <c r="D99" t="n">
-        <v>71.31868988240132</v>
+        <v>71.30429570468623</v>
       </c>
       <c r="E99" t="n">
-        <v>17.52738445377278</v>
+        <v>17.32356033368554</v>
       </c>
       <c r="F99" t="n">
         <v>17.40037969153265</v>
@@ -3061,10 +3061,10 @@
         <v>1407</v>
       </c>
       <c r="D101" t="n">
-        <v>66.47356020976828</v>
+        <v>66.88623337443184</v>
       </c>
       <c r="E101" t="n">
-        <v>16.6015712668771</v>
+        <v>16.4949083909736</v>
       </c>
       <c r="F101" t="n">
         <v>9.070354874271228</v>
@@ -3087,10 +3087,10 @@
         <v>1169</v>
       </c>
       <c r="D102" t="n">
-        <v>62.40584091660743</v>
+        <v>62.99778381628343</v>
       </c>
       <c r="E102" t="n">
-        <v>15.8530295505104</v>
+        <v>15.69955799184115</v>
       </c>
       <c r="F102" t="n">
         <v>5.274427588540518</v>
@@ -3113,10 +3113,10 @@
         <v>1073</v>
       </c>
       <c r="D103" t="n">
-        <v>60.10059254958384</v>
+        <v>61.38159126568696</v>
       </c>
       <c r="E103" t="n">
-        <v>16.59469361473083</v>
+        <v>15.38242297355965</v>
       </c>
       <c r="F103" t="n">
         <v>4.238423330031359</v>
@@ -3139,10 +3139,10 @@
         <v>1003</v>
       </c>
       <c r="D104" t="n">
-        <v>58.84400823816925</v>
+        <v>60.14080143010804</v>
       </c>
       <c r="E104" t="n">
-        <v>16.36161213389667</v>
+        <v>15.15909321333115</v>
       </c>
       <c r="F104" t="n">
         <v>3.613721186435255</v>
@@ -3607,10 +3607,10 @@
         <v>904</v>
       </c>
       <c r="D122" t="n">
-        <v>54.19412086480123</v>
+        <v>54.43409119853735</v>
       </c>
       <c r="E122" t="n">
-        <v>17.97616817139494</v>
+        <v>17.83686467088651</v>
       </c>
       <c r="F122" t="n">
         <v>2.884136396542327</v>
@@ -3633,10 +3633,10 @@
         <v>893</v>
       </c>
       <c r="D123" t="n">
-        <v>54.35351379999352</v>
+        <v>53.19819285544828</v>
       </c>
       <c r="E123" t="n">
-        <v>18.03215568271352</v>
+        <v>18.15625174007817</v>
       </c>
       <c r="F123" t="n">
         <v>2.812766630296358</v>
@@ -3659,10 +3659,10 @@
         <v>975</v>
       </c>
       <c r="D124" t="n">
-        <v>54.75199808062919</v>
+        <v>53.87878134348747</v>
       </c>
       <c r="E124" t="n">
-        <v>18.26505153548855</v>
+        <v>18.40539662813776</v>
       </c>
       <c r="F124" t="n">
         <v>3.390429873915228</v>
@@ -3685,10 +3685,10 @@
         <v>1098</v>
       </c>
       <c r="D125" t="n">
-        <v>55.55071048011287</v>
+        <v>53.8731916107245</v>
       </c>
       <c r="E125" t="n">
-        <v>18.51257762582823</v>
+        <v>18.83865097270531</v>
       </c>
       <c r="F125" t="n">
         <v>4.486796407757537</v>
@@ -3763,10 +3763,10 @@
         <v>1341</v>
       </c>
       <c r="D128" t="n">
-        <v>65.35090014346956</v>
+        <v>65.82117846118918</v>
       </c>
       <c r="E128" t="n">
-        <v>16.39569824870074</v>
+        <v>16.27278677419877</v>
       </c>
       <c r="F128" t="n">
         <v>7.804259730116742</v>
@@ -3789,10 +3789,10 @@
         <v>1210</v>
       </c>
       <c r="D129" t="n">
-        <v>62.5915322508244</v>
+        <v>63.78385132408877</v>
       </c>
       <c r="E129" t="n">
-        <v>16.97030662786552</v>
+        <v>15.79360505016361</v>
       </c>
       <c r="F129" t="n">
         <v>5.79076401378919</v>
@@ -4387,10 +4387,10 @@
         <v>1053</v>
       </c>
       <c r="D152" t="n">
-        <v>55.40780035932431</v>
+        <v>53.66052845410002</v>
       </c>
       <c r="E152" t="n">
-        <v>18.53885667638646</v>
+        <v>18.90971932923981</v>
       </c>
       <c r="F152" t="n">
         <v>4.049661338113483</v>
@@ -4413,10 +4413,10 @@
         <v>1067</v>
       </c>
       <c r="D153" t="n">
-        <v>55.61236740332908</v>
+        <v>53.81973513676296</v>
       </c>
       <c r="E153" t="n">
-        <v>18.57620386970508</v>
+        <v>19.6647344240363</v>
       </c>
       <c r="F153" t="n">
         <v>4.180889061233321</v>
@@ -4439,10 +4439,10 @@
         <v>1067</v>
       </c>
       <c r="D154" t="n">
-        <v>55.08635151477228</v>
+        <v>55.37158396298174</v>
       </c>
       <c r="E154" t="n">
-        <v>19.26268358030456</v>
+        <v>20.11446192305701</v>
       </c>
       <c r="F154" t="n">
         <v>4.180889061233321</v>
@@ -4491,10 +4491,10 @@
         <v>1519</v>
       </c>
       <c r="D156" t="n">
-        <v>68.17927333571851</v>
+        <v>68.5034474401109</v>
       </c>
       <c r="E156" t="n">
-        <v>17.03085461575616</v>
+        <v>16.94565744675715</v>
       </c>
       <c r="F156" t="n">
         <v>11.70641139575985</v>
@@ -5219,10 +5219,10 @@
         <v>1169</v>
       </c>
       <c r="D184" t="n">
-        <v>55.72846402181363</v>
+        <v>56.26035260149518</v>
       </c>
       <c r="E184" t="n">
-        <v>19.31750018957257</v>
+        <v>19.87494918404688</v>
       </c>
       <c r="F184" t="n">
         <v>5.274427588540518</v>
@@ -5245,10 +5245,10 @@
         <v>1213</v>
       </c>
       <c r="D185" t="n">
-        <v>55.89196768399303</v>
+        <v>56.4240534883149</v>
       </c>
       <c r="E185" t="n">
-        <v>19.23665327511029</v>
+        <v>19.68782614239082</v>
       </c>
       <c r="F185" t="n">
         <v>5.830471954825193</v>
@@ -6077,10 +6077,10 @@
         <v>1402</v>
       </c>
       <c r="D217" t="n">
-        <v>56.66567078984173</v>
+        <v>56.8093417150188</v>
       </c>
       <c r="E217" t="n">
-        <v>19.76320387764649</v>
+        <v>19.01885096776954</v>
       </c>
       <c r="F217" t="n">
         <v>8.967633952648329</v>
@@ -6103,10 +6103,10 @@
         <v>1527</v>
       </c>
       <c r="D218" t="n">
-        <v>56.78775016737807</v>
+        <v>56.90067037079318</v>
       </c>
       <c r="E218" t="n">
-        <v>19.4403495481722</v>
+        <v>18.82280973723667</v>
       </c>
       <c r="F218" t="n">
         <v>11.92169570778177</v>
@@ -6129,10 +6129,10 @@
         <v>1610</v>
       </c>
       <c r="D219" t="n">
-        <v>56.9070596159795</v>
+        <v>56.6878629835572</v>
       </c>
       <c r="E219" t="n">
-        <v>18.81453100532503</v>
+        <v>18.85730439797935</v>
       </c>
       <c r="F219" t="n">
         <v>14.40284804760218</v>
@@ -6155,10 +6155,10 @@
         <v>1668</v>
       </c>
       <c r="D220" t="n">
-        <v>56.86786601506155</v>
+        <v>56.65846082204847</v>
       </c>
       <c r="E220" t="n">
-        <v>18.90774637828806</v>
+        <v>18.95571591866298</v>
       </c>
       <c r="F220" t="n">
         <v>16.43715661100289</v>
@@ -6181,10 +6181,10 @@
         <v>1674</v>
       </c>
       <c r="D221" t="n">
-        <v>56.7468217734277</v>
+        <v>56.5448552144188</v>
       </c>
       <c r="E221" t="n">
-        <v>19.07226141823139</v>
+        <v>19.12572261040065</v>
       </c>
       <c r="F221" t="n">
         <v>16.66335246860211</v>
@@ -6207,10 +6207,10 @@
         <v>1731</v>
       </c>
       <c r="D222" t="n">
-        <v>56.7893895611928</v>
+        <v>57.25113162140847</v>
       </c>
       <c r="E222" t="n">
-        <v>19.1777499750668</v>
+        <v>19.92479791859911</v>
       </c>
       <c r="F222" t="n">
         <v>18.97367309652293</v>
@@ -7143,10 +7143,10 @@
         <v>1654</v>
       </c>
       <c r="D258" t="n">
-        <v>56.48215268113484</v>
+        <v>56.28096101962942</v>
       </c>
       <c r="E258" t="n">
-        <v>19.1137758490185</v>
+        <v>19.16317305742793</v>
       </c>
       <c r="F258" t="n">
         <v>15.92123509167183</v>
@@ -7169,10 +7169,10 @@
         <v>1731</v>
       </c>
       <c r="D259" t="n">
-        <v>56.40827582554207</v>
+        <v>56.56191222309833</v>
       </c>
       <c r="E259" t="n">
-        <v>19.32147989796797</v>
+        <v>19.53187825050605</v>
       </c>
       <c r="F259" t="n">
         <v>18.97367309652293</v>
@@ -7195,10 +7195,10 @@
         <v>1854</v>
       </c>
       <c r="D260" t="n">
-        <v>56.83255773352424</v>
+        <v>56.73659176124106</v>
       </c>
       <c r="E260" t="n">
-        <v>19.346108228531</v>
+        <v>19.58582916147679</v>
       </c>
       <c r="F260" t="n">
         <v>25.10920781651108</v>
@@ -7221,10 +7221,10 @@
         <v>1935</v>
       </c>
       <c r="D261" t="n">
-        <v>57.7895698284016</v>
+        <v>57.50467880464831</v>
       </c>
       <c r="E261" t="n">
-        <v>19.16160313931762</v>
+        <v>19.11824439597797</v>
       </c>
       <c r="F261" t="n">
         <v>30.19706924231686</v>
@@ -7247,10 +7247,10 @@
         <v>1955</v>
       </c>
       <c r="D262" t="n">
-        <v>58.57516896871709</v>
+        <v>58.69566530504983</v>
       </c>
       <c r="E262" t="n">
-        <v>18.98025091351528</v>
+        <v>19.24102641041551</v>
       </c>
       <c r="F262" t="n">
         <v>31.60460890164972</v>
@@ -8209,10 +8209,10 @@
         <v>1711</v>
       </c>
       <c r="D299" t="n">
-        <v>55.27617409436274</v>
+        <v>55.39057492816686</v>
       </c>
       <c r="E299" t="n">
-        <v>19.91111763879407</v>
+        <v>20.17122987291349</v>
       </c>
       <c r="F299" t="n">
         <v>18.12866351422814</v>
@@ -8235,10 +8235,10 @@
         <v>1849</v>
       </c>
       <c r="D300" t="n">
-        <v>57.01024125740739</v>
+        <v>56.95233334106908</v>
       </c>
       <c r="E300" t="n">
-        <v>19.53046296262228</v>
+        <v>19.77523453509681</v>
       </c>
       <c r="F300" t="n">
         <v>24.82484838362393</v>
@@ -8261,10 +8261,10 @@
         <v>1942</v>
       </c>
       <c r="D301" t="n">
-        <v>59.39364958893707</v>
+        <v>59.53511734813156</v>
       </c>
       <c r="E301" t="n">
-        <v>18.83519422827724</v>
+        <v>19.02052566279252</v>
       </c>
       <c r="F301" t="n">
         <v>30.68243082705255</v>
@@ -8287,10 +8287,10 @@
         <v>1549</v>
       </c>
       <c r="D302" t="n">
-        <v>68.55629314480717</v>
+        <v>69.61470900576256</v>
       </c>
       <c r="E302" t="n">
-        <v>18.14830162211362</v>
+        <v>16.83994466235523</v>
       </c>
       <c r="F302" t="n">
         <v>12.53436163991697</v>
@@ -9301,10 +9301,10 @@
         <v>1372</v>
       </c>
       <c r="D341" t="n">
-        <v>65.87541191693435</v>
+        <v>67.26109390479373</v>
       </c>
       <c r="E341" t="n">
-        <v>17.6511833540895</v>
+        <v>16.06855382052816</v>
       </c>
       <c r="F341" t="n">
         <v>8.375281910007246</v>
@@ -10263,10 +10263,10 @@
         <v>1942</v>
       </c>
       <c r="D378" t="n">
-        <v>58.82247460907869</v>
+        <v>58.79856777479215</v>
       </c>
       <c r="E378" t="n">
-        <v>18.92424940583336</v>
+        <v>19.01613102161937</v>
       </c>
       <c r="F378" t="n">
         <v>30.68243082705255</v>
@@ -10289,10 +10289,10 @@
         <v>1189</v>
       </c>
       <c r="D379" t="n">
-        <v>63.20540153431254</v>
+        <v>63.70341066242521</v>
       </c>
       <c r="E379" t="n">
-        <v>16.93109438345979</v>
+        <v>16.82620365873095</v>
       </c>
       <c r="F379" t="n">
         <v>5.52027813620713</v>
@@ -11225,10 +11225,10 @@
         <v>1928</v>
       </c>
       <c r="D415" t="n">
-        <v>57.90562601780119</v>
+        <v>57.83880180734964</v>
       </c>
       <c r="E415" t="n">
-        <v>18.98266380895964</v>
+        <v>19.03314545073058</v>
       </c>
       <c r="F415" t="n">
         <v>29.71938553256001</v>
@@ -11251,10 +11251,10 @@
         <v>1201</v>
       </c>
       <c r="D416" t="n">
-        <v>63.42839320279649</v>
+        <v>63.89492087584375</v>
       </c>
       <c r="E416" t="n">
-        <v>17.06672113952433</v>
+        <v>16.96707550110039</v>
       </c>
       <c r="F416" t="n">
         <v>5.673255401970756</v>
@@ -11277,10 +11277,10 @@
         <v>1081</v>
       </c>
       <c r="D417" t="n">
-        <v>61.80549405035499</v>
+        <v>62.3840924500289</v>
       </c>
       <c r="E417" t="n">
-        <v>16.37799229373846</v>
+        <v>16.2459381496813</v>
       </c>
       <c r="F417" t="n">
         <v>4.31636916841134</v>
@@ -12187,10 +12187,10 @@
         <v>1960</v>
       </c>
       <c r="D452" t="n">
-        <v>57.82207373386725</v>
+        <v>57.75328657378921</v>
       </c>
       <c r="E452" t="n">
-        <v>18.81628341617511</v>
+        <v>18.87053759036901</v>
       </c>
       <c r="F452" t="n">
         <v>31.96662797725551</v>
@@ -12213,10 +12213,10 @@
         <v>1163</v>
       </c>
       <c r="D453" t="n">
-        <v>63.70966988338012</v>
+        <v>63.65526654810983</v>
       </c>
       <c r="E453" t="n">
-        <v>17.81059857187437</v>
+        <v>16.76862354780967</v>
       </c>
       <c r="F453" t="n">
         <v>5.202830130947101</v>
@@ -13123,10 +13123,10 @@
         <v>1132</v>
       </c>
       <c r="D488" t="n">
-        <v>62.25088317265448</v>
+        <v>62.92566748900271</v>
       </c>
       <c r="E488" t="n">
-        <v>17.24574397479953</v>
+        <v>16.75786771245271</v>
       </c>
       <c r="F488" t="n">
         <v>4.84810399337989</v>
@@ -14007,10 +14007,10 @@
         <v>1151</v>
       </c>
       <c r="D522" t="n">
-        <v>62.28554212500831</v>
+        <v>63.35635613288849</v>
       </c>
       <c r="E522" t="n">
-        <v>17.66913982919254</v>
+        <v>17.16211549676107</v>
       </c>
       <c r="F522" t="n">
         <v>5.062537711291816</v>
@@ -14033,10 +14033,10 @@
         <v>1077</v>
       </c>
       <c r="D523" t="n">
-        <v>61.63338481910735</v>
+        <v>62.08274056163786</v>
       </c>
       <c r="E523" t="n">
-        <v>17.09609695393247</v>
+        <v>16.77123043291521</v>
       </c>
       <c r="F523" t="n">
         <v>4.277218697287138</v>
@@ -14995,7 +14995,7 @@
         <v>1294</v>
       </c>
       <c r="D560" t="n">
-        <v>61.97777230128749</v>
+        <v>58.98041658335296</v>
       </c>
       <c r="E560" t="n">
         <v>20.19082026778604</v>
@@ -15593,10 +15593,10 @@
         <v>1996</v>
       </c>
       <c r="D583" t="n">
-        <v>58.02801387185088</v>
+        <v>57.89722361698314</v>
       </c>
       <c r="E583" t="n">
-        <v>18.41611116830832</v>
+        <v>18.36812165815569</v>
       </c>
       <c r="F583" t="n">
         <v>34.69852013803012</v>
@@ -15671,10 +15671,10 @@
         <v>1262</v>
       </c>
       <c r="D586" t="n">
-        <v>62.43945666860739</v>
+        <v>59.71515091277792</v>
       </c>
       <c r="E586" t="n">
-        <v>19.65879497563017</v>
+        <v>22.07441794820184</v>
       </c>
       <c r="F586" t="n">
         <v>6.51896265938313</v>
@@ -16165,10 +16165,10 @@
         <v>1512</v>
       </c>
       <c r="D605" t="n">
-        <v>57.41724379013694</v>
+        <v>58.57171488597541</v>
       </c>
       <c r="E605" t="n">
-        <v>19.60974488156421</v>
+        <v>19.27606475575205</v>
       </c>
       <c r="F605" t="n">
         <v>11.52122911934112</v>
@@ -16191,10 +16191,10 @@
         <v>1618</v>
       </c>
       <c r="D606" t="n">
-        <v>57.46354673666112</v>
+        <v>58.2996961446638</v>
       </c>
       <c r="E606" t="n">
-        <v>19.35657346450953</v>
+        <v>19.01300210114766</v>
       </c>
       <c r="F606" t="n">
         <v>14.66772061428879</v>
@@ -16217,10 +16217,10 @@
         <v>1757</v>
       </c>
       <c r="D607" t="n">
-        <v>57.61622830907319</v>
+        <v>58.07297615747071</v>
       </c>
       <c r="E607" t="n">
-        <v>19.07099979115244</v>
+        <v>18.74471546109439</v>
       </c>
       <c r="F607" t="n">
         <v>20.13134200466594</v>
@@ -16243,10 +16243,10 @@
         <v>1971</v>
       </c>
       <c r="D608" t="n">
-        <v>57.80226079987357</v>
+        <v>57.88402339375534</v>
       </c>
       <c r="E608" t="n">
-        <v>18.53719487693752</v>
+        <v>18.3518464237492</v>
       </c>
       <c r="F608" t="n">
         <v>32.7777335776402</v>
@@ -16295,10 +16295,10 @@
         <v>1161</v>
       </c>
       <c r="D610" t="n">
-        <v>55.38595017904587</v>
+        <v>55.66259350305215</v>
       </c>
       <c r="E610" t="n">
-        <v>27.48715136738279</v>
+        <v>27.65985484710795</v>
       </c>
       <c r="F610" t="n">
         <v>5.179180943890193</v>
@@ -16685,10 +16685,10 @@
         <v>1499</v>
       </c>
       <c r="D625" t="n">
-        <v>57.57737767281495</v>
+        <v>58.24947725442809</v>
       </c>
       <c r="E625" t="n">
-        <v>19.59627744351626</v>
+        <v>19.97939436215322</v>
       </c>
       <c r="F625" t="n">
         <v>11.18505584412895</v>
@@ -16711,10 +16711,10 @@
         <v>1481</v>
       </c>
       <c r="D626" t="n">
-        <v>57.4973201749912</v>
+        <v>58.31435159261801</v>
       </c>
       <c r="E626" t="n">
-        <v>19.73311296038194</v>
+        <v>20.19463019487145</v>
       </c>
       <c r="F626" t="n">
         <v>10.73571796432157</v>
@@ -16737,10 +16737,10 @@
         <v>1560</v>
       </c>
       <c r="D627" t="n">
-        <v>57.49674188682766</v>
+        <v>58.48081849812072</v>
       </c>
       <c r="E627" t="n">
-        <v>19.51869536080924</v>
+        <v>19.1526438073553</v>
       </c>
       <c r="F627" t="n">
         <v>12.85240240826506</v>
@@ -16763,10 +16763,10 @@
         <v>1676</v>
       </c>
       <c r="D628" t="n">
-        <v>57.57572241224318</v>
+        <v>58.20819818162575</v>
       </c>
       <c r="E628" t="n">
-        <v>19.2305285727791</v>
+        <v>18.85914363867333</v>
       </c>
       <c r="F628" t="n">
         <v>16.7394407041348</v>
@@ -16789,10 +16789,10 @@
         <v>1829</v>
       </c>
       <c r="D629" t="n">
-        <v>57.75920502743733</v>
+        <v>57.95338406731646</v>
       </c>
       <c r="E629" t="n">
-        <v>18.88012421627396</v>
+        <v>18.52432990235865</v>
       </c>
       <c r="F629" t="n">
         <v>23.71925145168238</v>
@@ -16815,10 +16815,10 @@
         <v>1984</v>
       </c>
       <c r="D630" t="n">
-        <v>57.72827935825426</v>
+        <v>57.80151029624193</v>
       </c>
       <c r="E630" t="n">
-        <v>18.39126904328696</v>
+        <v>18.23124464468165</v>
       </c>
       <c r="F630" t="n">
         <v>33.76288717940884</v>
@@ -16841,10 +16841,10 @@
         <v>1203</v>
       </c>
       <c r="D631" t="n">
-        <v>56.73091404963726</v>
+        <v>56.8183641552979</v>
       </c>
       <c r="E631" t="n">
-        <v>24.91677749602798</v>
+        <v>25.67918840551333</v>
       </c>
       <c r="F631" t="n">
         <v>5.699160632870458</v>
@@ -16867,10 +16867,10 @@
         <v>1257</v>
       </c>
       <c r="D632" t="n">
-        <v>57.20101271276655</v>
+        <v>57.1160308692691</v>
       </c>
       <c r="E632" t="n">
-        <v>23.77228217602386</v>
+        <v>23.72543147373089</v>
       </c>
       <c r="F632" t="n">
         <v>6.445136016249622</v>
@@ -16893,10 +16893,10 @@
         <v>1343</v>
       </c>
       <c r="D633" t="n">
-        <v>57.88634934907101</v>
+        <v>57.19202503577503</v>
       </c>
       <c r="E633" t="n">
-        <v>21.63926859695256</v>
+        <v>22.53305247491419</v>
       </c>
       <c r="F633" t="n">
         <v>7.839895557518359</v>
@@ -16919,10 +16919,10 @@
         <v>1368</v>
       </c>
       <c r="D634" t="n">
-        <v>57.61944829800544</v>
+        <v>57.50721693457161</v>
       </c>
       <c r="E634" t="n">
-        <v>20.79646123675056</v>
+        <v>21.22643690293193</v>
       </c>
       <c r="F634" t="n">
         <v>8.299316157361607</v>
@@ -16945,7 +16945,7 @@
         <v>1413</v>
       </c>
       <c r="D635" t="n">
-        <v>57.69405815682249</v>
+        <v>57.59850741609011</v>
       </c>
       <c r="E635" t="n">
         <v>23.98621527971164</v>
@@ -17127,10 +17127,10 @@
         <v>1342</v>
       </c>
       <c r="D642" t="n">
-        <v>57.79569894494253</v>
+        <v>57.48755219180939</v>
       </c>
       <c r="E642" t="n">
-        <v>18.97547122574302</v>
+        <v>19.54210259894859</v>
       </c>
       <c r="F642" t="n">
         <v>7.822057350074957</v>
@@ -17179,10 +17179,10 @@
         <v>1558</v>
       </c>
       <c r="D644" t="n">
-        <v>57.65469754015997</v>
+        <v>57.99759639416124</v>
       </c>
       <c r="E644" t="n">
-        <v>19.22203784134728</v>
+        <v>19.4185784953834</v>
       </c>
       <c r="F644" t="n">
         <v>12.79398249813273</v>
@@ -17205,10 +17205,10 @@
         <v>1592</v>
       </c>
       <c r="D645" t="n">
-        <v>57.64077226383403</v>
+        <v>57.97578908339293</v>
       </c>
       <c r="E645" t="n">
-        <v>19.24357672294941</v>
+        <v>19.43619694696277</v>
       </c>
       <c r="F645" t="n">
         <v>13.82424161996467</v>
@@ -17231,10 +17231,10 @@
         <v>1552</v>
       </c>
       <c r="D646" t="n">
-        <v>57.5632397682973</v>
+        <v>58.13030104730902</v>
       </c>
       <c r="E646" t="n">
-        <v>19.50324938198656</v>
+        <v>19.82884029374973</v>
       </c>
       <c r="F646" t="n">
         <v>12.62031121267397</v>
@@ -17257,10 +17257,10 @@
         <v>1631</v>
       </c>
       <c r="D647" t="n">
-        <v>57.59205843226643</v>
+        <v>58.30042124583417</v>
       </c>
       <c r="E647" t="n">
-        <v>19.31466695693414</v>
+        <v>18.90172961826898</v>
       </c>
       <c r="F647" t="n">
         <v>15.10856737871425</v>
@@ -17283,10 +17283,10 @@
         <v>1765</v>
       </c>
       <c r="D648" t="n">
-        <v>57.71552830054058</v>
+        <v>58.00538268909375</v>
       </c>
       <c r="E648" t="n">
-        <v>18.97200699706279</v>
+        <v>18.55739941995035</v>
       </c>
       <c r="F648" t="n">
         <v>20.50156324215997</v>
@@ -17309,10 +17309,10 @@
         <v>1890</v>
       </c>
       <c r="D649" t="n">
-        <v>57.67562956087452</v>
+        <v>57.80958659582078</v>
       </c>
       <c r="E649" t="n">
-        <v>18.57335692059062</v>
+        <v>18.29248807573222</v>
       </c>
       <c r="F649" t="n">
         <v>27.25505967320341</v>
@@ -17335,10 +17335,10 @@
         <v>1888</v>
       </c>
       <c r="D650" t="n">
-        <v>57.76536836348087</v>
+        <v>57.90575711311406</v>
       </c>
       <c r="E650" t="n">
-        <v>18.71739553435226</v>
+        <v>18.41940382408047</v>
       </c>
       <c r="F650" t="n">
         <v>27.13117325211409</v>
@@ -17361,10 +17361,10 @@
         <v>1341</v>
       </c>
       <c r="D651" t="n">
-        <v>57.68372719891082</v>
+        <v>57.36068813726115</v>
       </c>
       <c r="E651" t="n">
-        <v>22.2236979054227</v>
+        <v>22.01556856497956</v>
       </c>
       <c r="F651" t="n">
         <v>7.804259730116742</v>
@@ -17387,10 +17387,10 @@
         <v>1451</v>
       </c>
       <c r="D652" t="n">
-        <v>58.11729006966874</v>
+        <v>57.18597677727129</v>
       </c>
       <c r="E652" t="n">
-        <v>20.57827990956909</v>
+        <v>21.01597484166934</v>
       </c>
       <c r="F652" t="n">
         <v>10.02657612167238</v>
@@ -17413,10 +17413,10 @@
         <v>1486</v>
       </c>
       <c r="D653" t="n">
-        <v>57.56455993794844</v>
+        <v>57.36665351867472</v>
       </c>
       <c r="E653" t="n">
-        <v>20.05729417413152</v>
+        <v>19.9009484939824</v>
       </c>
       <c r="F653" t="n">
         <v>10.85869163267173</v>
@@ -17439,10 +17439,10 @@
         <v>1342</v>
       </c>
       <c r="D654" t="n">
-        <v>58.50902311312322</v>
+        <v>58.05033505249033</v>
       </c>
       <c r="E654" t="n">
-        <v>18.68257599796874</v>
+        <v>19.26163784644503</v>
       </c>
       <c r="F654" t="n">
         <v>7.822057350074957</v>
@@ -17491,10 +17491,10 @@
         <v>1293</v>
       </c>
       <c r="D656" t="n">
-        <v>58.16755866503992</v>
+        <v>57.39154235192004</v>
       </c>
       <c r="E656" t="n">
-        <v>18.29621417437932</v>
+        <v>19.00607967495202</v>
       </c>
       <c r="F656" t="n">
         <v>6.995942206081283</v>
@@ -17517,10 +17517,10 @@
         <v>1279</v>
       </c>
       <c r="D657" t="n">
-        <v>58.20814621560186</v>
+        <v>57.29476845741911</v>
       </c>
       <c r="E657" t="n">
-        <v>18.56151679399522</v>
+        <v>19.44125222297057</v>
       </c>
       <c r="F657" t="n">
         <v>6.776356956787151</v>
@@ -17543,10 +17543,10 @@
         <v>1306</v>
       </c>
       <c r="D658" t="n">
-        <v>57.846200760596</v>
+        <v>58.4822154213701</v>
       </c>
       <c r="E658" t="n">
-        <v>19.10611581633344</v>
+        <v>20.34216679880559</v>
       </c>
       <c r="F658" t="n">
         <v>7.206209265753393</v>
@@ -17569,10 +17569,10 @@
         <v>1405</v>
       </c>
       <c r="D659" t="n">
-        <v>57.5664817258535</v>
+        <v>58.34718806932239</v>
       </c>
       <c r="E659" t="n">
-        <v>19.66133471638799</v>
+        <v>20.10421242451155</v>
       </c>
       <c r="F659" t="n">
         <v>9.029126059627012</v>
@@ -17595,10 +17595,10 @@
         <v>1534</v>
       </c>
       <c r="D660" t="n">
-        <v>57.64156188568919</v>
+        <v>58.0684065109042</v>
       </c>
       <c r="E660" t="n">
-        <v>19.33629186768373</v>
+        <v>19.58283304952002</v>
       </c>
       <c r="F660" t="n">
         <v>12.11331473792781</v>
@@ -17621,10 +17621,10 @@
         <v>1670</v>
       </c>
       <c r="D661" t="n">
-        <v>57.72143262860116</v>
+        <v>57.77768639150777</v>
       </c>
       <c r="E661" t="n">
-        <v>18.96766171883933</v>
+        <v>19.00043210213625</v>
       </c>
       <c r="F661" t="n">
         <v>16.51221199052884</v>
@@ -17647,10 +17647,10 @@
         <v>1703</v>
       </c>
       <c r="D662" t="n">
-        <v>57.72029456085991</v>
+        <v>57.7685750923875</v>
       </c>
       <c r="E662" t="n">
-        <v>18.97885546762417</v>
+        <v>19.00705478846246</v>
       </c>
       <c r="F662" t="n">
         <v>17.80129256397061</v>
@@ -17673,10 +17673,10 @@
         <v>1779</v>
       </c>
       <c r="D663" t="n">
-        <v>57.77710663072835</v>
+        <v>57.88767827553526</v>
       </c>
       <c r="E663" t="n">
-        <v>18.82852254780527</v>
+        <v>18.34224662522951</v>
       </c>
       <c r="F663" t="n">
         <v>21.16590853922112</v>
@@ -17699,10 +17699,10 @@
         <v>1898</v>
       </c>
       <c r="D664" t="n">
-        <v>57.53722495755532</v>
+        <v>57.66235604266959</v>
       </c>
       <c r="E664" t="n">
-        <v>18.32396452805774</v>
+        <v>18.06917194546298</v>
       </c>
       <c r="F664" t="n">
         <v>27.75628815155564</v>
@@ -17725,10 +17725,10 @@
         <v>1974</v>
       </c>
       <c r="D665" t="n">
-        <v>57.51178400705584</v>
+        <v>57.58380175225381</v>
       </c>
       <c r="E665" t="n">
-        <v>18.10649091490864</v>
+        <v>17.95837310950051</v>
       </c>
       <c r="F665" t="n">
         <v>33.00249430163028</v>
@@ -17751,10 +17751,10 @@
         <v>1414</v>
       </c>
       <c r="D666" t="n">
-        <v>58.61562313962604</v>
+        <v>58.4035780145998</v>
       </c>
       <c r="E666" t="n">
-        <v>18.59695311179135</v>
+        <v>18.87567873475066</v>
       </c>
       <c r="F666" t="n">
         <v>9.216143916928457</v>
@@ -17777,10 +17777,10 @@
         <v>1392</v>
       </c>
       <c r="D667" t="n">
-        <v>58.40940321698606</v>
+        <v>58.56397318321947</v>
       </c>
       <c r="E667" t="n">
-        <v>18.58506857786704</v>
+        <v>19.21512176105821</v>
       </c>
       <c r="F667" t="n">
         <v>8.765668849608272</v>
@@ -17803,10 +17803,10 @@
         <v>1350</v>
       </c>
       <c r="D668" t="n">
-        <v>58.06372804444833</v>
+        <v>58.24371838125079</v>
       </c>
       <c r="E668" t="n">
-        <v>18.91178574659019</v>
+        <v>19.93011335828557</v>
       </c>
       <c r="F668" t="n">
         <v>7.965907260886808</v>
@@ -17829,10 +17829,10 @@
         <v>1393</v>
       </c>
       <c r="D669" t="n">
-        <v>57.59579662113244</v>
+        <v>58.03118068493935</v>
       </c>
       <c r="E669" t="n">
-        <v>19.59256849883225</v>
+        <v>19.90663332514168</v>
       </c>
       <c r="F669" t="n">
         <v>8.785658963758733</v>
@@ -17855,10 +17855,10 @@
         <v>1470</v>
       </c>
       <c r="D670" t="n">
-        <v>57.62847563558682</v>
+        <v>58.19751172556503</v>
       </c>
       <c r="E670" t="n">
-        <v>19.47715290013103</v>
+        <v>19.80736416268025</v>
       </c>
       <c r="F670" t="n">
         <v>10.4700558817256</v>
@@ -17881,10 +17881,10 @@
         <v>1567</v>
       </c>
       <c r="D671" t="n">
-        <v>57.6773227080633</v>
+        <v>57.99416744025302</v>
       </c>
       <c r="E671" t="n">
-        <v>19.25585291906678</v>
+        <v>19.44207285214464</v>
       </c>
       <c r="F671" t="n">
         <v>13.05898081329102</v>
@@ -17907,10 +17907,10 @@
         <v>1681</v>
       </c>
       <c r="D672" t="n">
-        <v>57.74973618342094</v>
+        <v>57.76134348208351</v>
       </c>
       <c r="E672" t="n">
-        <v>18.95847525785306</v>
+        <v>18.96535063336582</v>
       </c>
       <c r="F672" t="n">
         <v>16.93118479021815</v>
@@ -17933,10 +17933,10 @@
         <v>1823</v>
       </c>
       <c r="D673" t="n">
-        <v>57.87338613874467</v>
+        <v>57.67345964799773</v>
       </c>
       <c r="E673" t="n">
-        <v>18.56645780711894</v>
+        <v>17.99504875741379</v>
       </c>
       <c r="F673" t="n">
         <v>23.39727564076234</v>
@@ -17959,10 +17959,10 @@
         <v>1906</v>
       </c>
       <c r="D674" t="n">
-        <v>57.40935904386188</v>
+        <v>57.52349606289148</v>
       </c>
       <c r="E674" t="n">
-        <v>18.07058479279319</v>
+        <v>17.84225648674823</v>
       </c>
       <c r="F674" t="n">
         <v>28.26673436747747</v>
@@ -17985,10 +17985,10 @@
         <v>1979</v>
       </c>
       <c r="D675" t="n">
-        <v>57.36491429147085</v>
+        <v>57.42574759985252</v>
       </c>
       <c r="E675" t="n">
-        <v>17.85412056555164</v>
+        <v>17.73178968179691</v>
       </c>
       <c r="F675" t="n">
         <v>33.38052563614038</v>
@@ -18011,10 +18011,10 @@
         <v>1479</v>
       </c>
       <c r="D676" t="n">
-        <v>58.00354656095169</v>
+        <v>58.30528368413417</v>
       </c>
       <c r="E676" t="n">
-        <v>18.88911093797135</v>
+        <v>18.9324233069638</v>
       </c>
       <c r="F676" t="n">
         <v>10.68691933051297</v>
@@ -18037,10 +18037,10 @@
         <v>1503</v>
       </c>
       <c r="D677" t="n">
-        <v>57.72749300050626</v>
+        <v>57.57607543294424</v>
       </c>
       <c r="E677" t="n">
-        <v>19.31106977303294</v>
+        <v>19.36273980932637</v>
       </c>
       <c r="F677" t="n">
         <v>11.28743550643752</v>
@@ -18063,10 +18063,10 @@
         <v>1605</v>
       </c>
       <c r="D678" t="n">
-        <v>57.77623764382836</v>
+        <v>57.09673200659764</v>
       </c>
       <c r="E678" t="n">
-        <v>19.03553686761028</v>
+        <v>18.87562949366045</v>
       </c>
       <c r="F678" t="n">
         <v>14.23973713893851</v>
@@ -18089,10 +18089,10 @@
         <v>1702</v>
       </c>
       <c r="D679" t="n">
-        <v>57.82922452092546</v>
+        <v>57.66691527119374</v>
       </c>
       <c r="E679" t="n">
-        <v>18.79240897955089</v>
+        <v>18.69457955348219</v>
       </c>
       <c r="F679" t="n">
         <v>17.76078907164893</v>
